--- a/finetuning/it_datasets/it_dataset/it_sousse_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_sousse_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out LA Cafe by Sedna Specialty Coffee located at VJ38+83Q LA Cafe by Sedna Specialty Coffee, shr` lzytwn@, Sousse.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website  or call them at 24 734 834.</t>
+          <t>LA Cafe by Sedna Specialty Coffee is a top-rated cafe in Sousse, Tunisia. It is open 24 hours a day, making it a convenient spot for a quick bite or a relaxing coffee break. Their coffee, especially, is highly recommended and prepared with care.</t>
         </is>
       </c>
     </row>
@@ -755,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to relax and enjoy a cup of coffee, check out Cafe Dakar located at VJ42+HGW Cafe Dakar, Sousse. This top-rated cafe is the perfect spot for cafe lovers and offers a range of cafe beverages to choose from. With a rating of 4.5 from 8 reviews, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Dakar/data=!4m7!3m6!1s0x12fd8a6b0d4989dd:0x1d58a6e49a44f6b0!8m2!3d35.8564801!4d10.6013359!16s%2Fg%2F11fx8djg4v!19sChIJ3YlJDWuK_RIRsPZEmuSmWB0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Dakar is a popular café located in sousse, Tunisia. They offer a wide variety of food and drinks, and have a 4.5-star rating on Google. The café is open from 8am to midnight, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -854,7 +852,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Cafe spot, check out Cafe resto Matador located at VJ84+WV9 Cafe resto Matador, Sousse. This destination is perfect for Cafe lovers with a rating of 4.4. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+resto+Matador/data=!4m7!3m6!1s0x12fd8a103e96cee9:0xb24ce38018bc10a8!8m2!3d35.8672962!4d10.6072411!16s%2Fg%2F11cp5w8tv_!19sChIJ6c6WPhCK_RIRqBC8GIDjTLI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe resto Matador is a cafe, located in sousse at VJ84+WV9. It has a rating of 4.4 out of 7 reviews.</t>
         </is>
       </c>
     </row>
@@ -953,7 +951,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated cafe, Cafe Maure located at VJ85+9PP is the place to be. With a rating of 4.4, it's a must-visit spot for cafe lovers. It's open from 07:00-00:00. To get there, use these GPS coordinates: 35.8929767, 10.5973011.</t>
+          <t>Cafe Maure is a cafe located in Sousse, Tunisia. It offers a cozy atmosphere and a variety of drinks and snacks. The cafe is located at the coordinates (35.8929767, 10.5973011) and is open from 7:00 AM to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -1044,9 +1042,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Cafe, check out Cafe Lahbeb located at QHQP+MC4 Cafe Lahbeb, P12, Sousse 4031. 
-This destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8002803, 10.5776325.</t>
+          <t>Cafe Lahbeb is a cafe located in Sousse, Tunisia. It has a 4.0 rating based on one review, but its website, phone number, and hours of operation are currently unavailable. The cafe's exact location is at (35.8002803, 10.5776325).</t>
         </is>
       </c>
     </row>
@@ -1149,10 +1145,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great Cafe, check out Mio Mondo Cafe located at route touristique khezema 4057, Boulevard du 14 Janvier, Sousse 4057. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from, including Cafe, Marchand de glaces, Patisserie, Pizzeria, Restaurant, Centre commercial, Salon de the. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-01:00, but closed on []. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. 
-For more details, visit their website at  or call them at 73 243 273.</t>
+          <t>Mio Mondo Cafe is a popular cafe located in Sousse, Tunisia. It offers a wide range of food and drinks, including chicha (a type of hookah), ice cream, pizza, and brunch. The cafe is also known for its friendly service and its spacious terrace. It is a popular spot for locals and tourists alike, and it is a great place to relax and enjoy a meal or a drink. The cafe is located at route touristique khezema 4057, Boulevard du 14 Janvier, Sousse 4057.</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1252,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Cafe, check out Big Ben Cafe located at VJ67+392 Big Ben Cafe, Sousse. This destination offers a range of Cafe options to choose from, making it a must-visit spot for Cafe lovers. With a rating of 4.0, it's open during these hours: 07:00-02:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/BigBenRestoCafe/ or call them at 58 573 854.</t>
+          <t>Big Ben Cafe is a popular cafe in Sousse, Tunisia. It has a 4.0 rating and is open from 7 AM to 2 AM on all days. It offers a variety of food items, including pizzas, hamburgers, omelets, and brunches. The cafe is also renowned for its family-friendly atmosphere, with reviews emphasizing its suitability for children.</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1355,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great cafe experience, check out Twins Cafe located at RJX9+62V Twins Cafe, Av. 14 Janvier, Sousse. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.788931261361, 10.627900648696. For more details, visit their website or call them at 73 271 765.</t>
+          <t>Twins Cafe, located on Av. 14 Janvier, Sousse, offers a relaxing atmosphere with its chicha and brunch options. Its 4.0 review rating reflects the positive experiences of its customers, commenting on its cozy interior, delicious omelets, and friendly service. This cafe opens from 8 AM to midnight, offering a wide range of coffee and tea selections.</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1460,11 @@
           <t>sousse</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Café Beb Al Medina is a tea room located in Sousse, Tunisia. It offers a wide range of services including breakfast, milkshakes, crepes, burgers, pizzas, and more. The café has a 4.1 rating on Google and is highly acclaimed for its incredible views and reasonable prices. It is conveniently situated at 35.8608 latitude and 10.58937 longitude.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1572,7 +1569,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great spot to relax and enjoy a delicious meal, Sweet Time is the place for you. Located conveniently at RJJJ+HX6 Sweet Time, Av. de la Republique, Sousse, it's a top-rated destination with a rating of 4.2. As a cafe, restaurant, and salon de the, it caters to a variety of tastes. The cafe is open during these hours: 09:00-21:30 and is closed on sundays. For more details, visit their website at https://www.facebook.com/Sweet-Time-caf%25C3%25A9-1394081377526531/ or call them at 73 211 866.</t>
+          <t>Sweet Time is a cafe located in Av. de la Republique, Sousse, Tunisia. It is open Monday through Saturday from 9am to 9:30pm and is closed on Sundays. Sweet Time offers a variety of coffee, tea, and pastries, as well as a selection of light meals. It is a popular spot for locals and tourists alike, and has received a 4.2 rating on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1672,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Cafe de Rome located at RJJJ+RCC Cafe de Rome, Rue Dr Moreau, Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details,  call them at 50 883 443.</t>
+          <t>Cafe de Rome is a highly-rated cafe located in sousse, Tunisia. It offers a cozy and inviting atmosphere, with a wide selection of drinks and snacks to choose from. The cafe is conveniently open 24 hours a day, making it a great spot for a late-night bite or a quick pick-me-up during the day. With its central location, Cafe de Rome is easy to find and makes a great meeting place or a place to stop and rest while exploring the city.</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1763,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Cafe, check out Cafe liberte located at Route de Ksibet sousse, M'saken. This Cafe lovers' paradise offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7333242, 10.5756812. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+libert%C3%A9/data=!4m7!3m6!1s0x13020b0032b76353:0xf0b1a1dfe6731553!8m2!3d35.7380077!4d10.5990959!16s%2Fg%2F11vrvctjs2!19sChIJU2O3MgALAhMRUxVz5t-hsfA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Cafe liberte is a cafe located in sousse, Tunisia. It offers a variety of food and drinks, and is rated 5.0 out of 5 stars on Google. The cafe is located at the coordinates (35.7333242, 10.5756812).</t>
         </is>
       </c>
     </row>
@@ -1869,9 +1866,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Mio Mondo Cafe located at route touristique khezema 4057, Boulevard du 14 Janvier, Sousse 4057. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Marchand de glaces, Patisserie, Pizzeria, Restaurant, Centre commercial, Salon de the to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-01:00, but closed on []. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at  or call them at 73 243 273.</t>
+          <t>Located in Sousse, Mio Mondo Cafe is a popular spot for locals and tourists alike. With a rating of 4.1 based on 967 reviews, this cafe offers a wide range of options, including chicha, ice cream, pizza, and brunch. The cafe is situated at the coordinates (35.845523397995, 10.620892043323) and is open from 7:00 AM to 1:00 AM every day.</t>
         </is>
       </c>
     </row>
@@ -1978,9 +1973,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in sousse and up for a delicious meal, head to Big Ben Cafe at VJ67+392. This beloved Cafe offers a delectable menu with a rating of 4.0 out of 5. 
-Come hungry and indulge in their wide selection of dishes. Big Ben Cafe is open during these hours: 07:00-02:00, so come by anytime for a delightful treat.
-For more details, visit their Facebook page at https://www.facebook.com/BigBenRestoCafe/ or call them at 58 573 854.</t>
+          <t>Located in sousse, Big Ben Cafe is a popular spot. This lively cafe offers a range of dishes, including pizzas and hamburgers. It also serves up omelettes for breakfast. They have a reputation for their delicious brunch options and are a great spot for families. The cafe has a warm and welcoming atmosphere and friendly servers. It's a great place to relax and enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -2083,9 +2076,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Twins Cafe located at RJX9+62V Twins Cafe, Av. 14 Janvier, Sousse. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.788931261361, 10.627900648696. For more details, visit their website at https://www.google.com/maps/place/Twins+Caf%C3%A9/data=!4m7!3m6!1s0x12fd8a77bb457629:0x466ea196f2892492!8m2!3d35.8481217!4d10.6175517!16s%2Fg%2F1hhjkrylf!19sChIJKXZFu3eK_RIRkiSJ8pahbkY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 271 765.</t>
+          <t>Twins Cafe is a chic cafe located in the heart of Sousse, Tunisia. It serves a variety of breakfast, lunch, and dinner options, as well as a wide range of beverages. The cafe is known for its friendly staff, its stylish decor, and its delicious food. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2184,11 +2175,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun, check out Cafe La Sirene located at 1 Av. Habib Bourguiba, Sousse. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:30-00:00.
-To get there, use these GPS coordinates: 35.793555786737, 10.593220475406. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+La+Sir%C3%A8ne/data=!4m7!3m6!1s0x13027575627093c3:0xffa4e025bf14c383!8m2!3d35.8335382!4d10.6404191!16s%2Fg%2F1tdj69yz!19sChIJw5NwYnV1AhMRg8MUvyXgpP8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe La Sirene is a cafe located in Sousse, Tunisia. It is known for its chicha, crepes, and almond pastries. It also has a beautiful view of Sousse's beach and a rating of 4.0. The cafe is open from 7:30am to midnight, and it is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2282,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Sousse, Cafe Beb Al Medina is a must-visit if you seek a cozy salon de thé. Located in the heart of the city, this top-rated destination offers a relaxing ambience and delectable treats. With a rating of 4.1 based on 175 reviews, it's open from 8:00 AM to 10:00 PM daily. You can reach them at 29 594 200 for inquiries.</t>
+          <t>Cafe Beb Al Medina, located in Sousse (lon: 10.58937, lat: 35.8608), is a tea room that offers a  wide range of menu options : from breakfast to milkshakes, from crepes to burgers. Its attractive seaside location and friendly staff make it a popular spot for both tourists and locals.</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2381,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Cafe, check out Biscotinno's located at RJV4+R44 Biscotinno's, Rue Imam Boukhari, Sousse. This must-visit spot has a rating of 4.5 and is open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Biscotinno%27s/data=!4m7!3m6!1s0x12fd8bf5776fa46b:0xcfb423f85ad770ba!8m2!3d35.844512!4d10.6053311!16s%2Fg%2F11qh3r45b5!19sChIJa6Rvd_WL_RIRunDXWvgjtM8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Biscotinno's is a café located in Sousse, Tunisia, known for its delectable cheesecakes and a cozy ambiance with atmospheric music. It is a popular spot for locals and tourists alike, offering a sweet escape with its variety of sugary treats.</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2480,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Cafe Journal located at VJ44+8VV Cafe Journal, Rue du Misk, Sousse. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-21:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Cafe Journal, a highly rated cafe with a 4.0 rating, is located in the bustling city of Sousse at the coordinates (35.8293001, 10.6406309). The cafe offers a cozy ambiance, as seen in its featured image, and is a popular spot for locals and tourists alike. Although its description is not available, the cafe's menu likely includes a variety of coffee, tea, and light snacks. With its convenient workday timing of 8 am to 9 pm, Cafe Journal is an ideal place to relax and unwind during your day.</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2583,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Cafe, Stories cafe-resto is a must-visit spot. Located at Av. 14 Janvier, Sousse 4000, this destination is perfect for a range of categories. With a rating of 4.0, it's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at https://www.google.com/maps/place/Stories+caf%C3%A9-resto/data=!4m7!3m6!1s0x12fd8bb9defd1697:0xb167e71fe1face78!8m2!3d35.848172!4d10.6180032!16s%2Fg%2F11t2_60lqx!19sChIJlxb93rmL_RIReM764R_nZ7E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 386 666.</t>
+          <t>Stories cafe-resto is a cafe located in Sousse, Tunisia. It has a 4.0 rating on Google Maps and is known for its friendly servers, affordable prices, and delicious sauces. It's open from 08:00-00:00 every day, except for Tuesdays and Sundays.</t>
         </is>
       </c>
     </row>
@@ -2699,9 +2686,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dip's Cafe &amp; Resto located at Dip's Cafe &amp; Resto, Parc Sahloul 4, Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:30-00:00, but closed on . To get there, use these GPS coordinates: 43.5961181, 1.4443475. For more details, visit their website at  or call them at 24 024 000.</t>
+          <t>Dip's Cafe &amp; Resto is a highly-rated cafe located in Parc Sahloul 4, Sousse, Tunisia, with a rating of 4.1 out of 5 based on 46 reviews. It specializes in serving delicious food and drinks and is open daily from 07:30 AM to midnight, except for when it is closed on specific days. Unfortunately, there is no description or additional information available at this time.</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2785,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great cafe, Caffe K West is a top-rated destination. Located at RJV3+XMQ Caffe K West, Av. Hassen Ibn Said, this cafe offers a range of options for cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:59. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Caffe K West, located in Sousse (35.8293001, 10.6406309), is a cafe that offers a cozy and inviting atmosphere for its patrons. With a 4.0 rating based on 37 reviews, it's a popular destination for those seeking a relaxing and enjoyable coffee experience.</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2888,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great cafe, check out Le Petit Cafe Maure Sousse Madin located at Souk el Caid, Sousse 4000. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-20:00. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at https://www.google.com/maps/place/Le+Petit+Cafe+Maure+Sousse+Madin/data=!4m7!3m6!1s0x130275723a4ed6af:0xc2f9f1bb7269c453!8m2!3d35.8250102!4d10.6374299!16s%2Fg%2F11g9px09lq!19sChIJr9ZOOnJ1AhMRU8Rpcrvx-cI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 607 306.</t>
+          <t>Le Petit Cafe Maure Sousse Madin is a cafe located in Souk el Caid, Sousse, Tunisia. It offers a cozy and welcoming atmosphere, perfect for enjoying a cup of coffee or tea. The cafe is known for its delicious the a la menthe and its friendly staff. It is open from 8am to 8pm, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -3010,7 +2995,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to relax and enjoy some coffee, head to Sweet Time located at RJJJ+HX6 Sweet Time, Av. de la Republique. This top-rated cafe is known for its cozy atmosphere and delicious coffee, and offers a range of pastries and snacks to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-21:30, but closed on Sundays. To get there, use these GPS coordinates: 35.83082910433, 10.635365271305. For more details, visit their website at https://www.facebook.com/Sweet-Time-caf%25C3%25A9-1394081377526531/ or call them at 73 211 866.</t>
+          <t>Sweet Time, a reputable Cafe in Sousse, Tunisia, invites coffee lovers to indulge in aromatic brews and delectable treats. Situated at coordinates (35.83082910433, 10.635365271305), this cozy establishment offers a serene ambiance to unwind and savor its offerings. Our website provides additional insight into Sweet Time's ambiance, menu, and customer feedback.</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3090,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out alcazar cafe located at alcazar cafe, Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Alcazar cafe is located in sousse, Tunisia. It has a 4.4-star rating based on 26 reviews and is categorized as a Cafe. it offers a great brunch experience, as mentioned in 4 reviews. Its exact coordinates are (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -3204,9 +3189,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Cafe CLassico located at RHF6+8XC Cafe CLassico, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.795322817655, 10.589047712548.</t>
+          <t>Cafe CLassico is a renowned cafe located at Av. Habib Bourguiba, RHF6+8XC Cafe CLassico in Sousse. It holds a 4.5-star rating based on 22 reviews and operates from 10:00-18:00 daily. While specific menu details are unavailable, the cafe is known for its cozy ambiance and exceptional coffee.</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3292,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Contigo cafe&amp;resto located at Contigo cafe&amp;resto, sousse khzema Sousse, 4000. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the, Cafe, Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 9.984703, -84.371223. For more details, visit their website or call them at 29 404 878.</t>
+          <t>Contigo café &amp; resto is a charming establishment in the heart of Sousse. Nestled at (9.984703, -84.371223), it offers a cozy atmosphere to enjoy delicious meals, sip fragrant teas, and savor aromatic coffees.</t>
         </is>
       </c>
     </row>
@@ -3412,9 +3395,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Cafe de Rome located at RJJJ+RCC Cafe de Rome, Rue Dr Moreau, Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at  or call them at 50 883 443.</t>
+          <t>Cafe de Rome is a popular cafe in the city of Sousse, Tunisia, known for offering a memorable dining experience. It is conveniently located at coordinates (35.8293001, 10.6406309) and can be easily reached by locals and tourists alike. With a rating of 4.3 out of 5 and positive customer feedback, the cafe has earned a reputation for quality and customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -3521,9 +3502,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Cafe Sidi Bouraoui located at Rue el Aghalba, Sousse.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 04:00-00:00, but closed on None. To get there, use these GPS coordinates: 35.826320016071, 10.636878551754. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-Sidi-Bouraoui-605987959445850/ or call them at 73 201 184.</t>
+          <t>Cafe Sidi Bouraoui is a highly-rated cafe located in Sousse, Tunisia. It offers a wide selection of beverages and snacks, and its cozy atmosphere makes it a great place to relax and socialize. The cafe is also conveniently located near the city center, making it easy to get to.</t>
         </is>
       </c>
     </row>
@@ -3626,9 +3605,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out copa cafe located at Av. la Perle du Sahel, Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.84953083656, 10.608262569849. For more details, visit their website at https://www.google.com/maps/place/copa+caf%C3%A9/data=!4m7!3m6!1s0x12fd8be85ecd4bb5:0xe3d975d97a12c163!8m2!3d35.8482763!4d10.6097453!16s%2Fg%2F11p9lz_g5k!19sChIJtUvNXuiL_RIRY8ESetl12eM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 250 050.</t>
+          <t>copa cafe is a Cafe located in sousse. It's address is Av. la Perle du Sahel. It's ratings is 4.3 based on 8 reviews. It is opened from 07:00 to 00:00. You can contact them at 73 250 050.</t>
         </is>
       </c>
     </row>
@@ -3731,9 +3708,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Leopold cafe located at Espace Ayachi, 5 Av. Leopold Senghor, Sousse 4000. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on []. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at  or call them at 73 210 333.</t>
+          <t>Leopold cafe is a Cafe located in Leopold cafe, Espace Ayachi, 5 Av. Leopold Senghor, Sousse 4000. It is open everyday from 06:30-00:00 and has a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3815,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great hotel, check out Hotel Iberostar SELECTION Diar El Andalous, located at Hotel Iberostar SELECTION Diar El Andalous, 40 Port El Kantaoui BP, Sousse 4089. 
-This top-rated destination is perfect for hotel lovers and offers a range of services to choose from. 
-With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.8867247, 10.5908411. 
-For more details, visit their website at https://www.iberostar.com/en/hotels/sousse/iberostar-diar-el-andalous/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_TUN_TUN_SOU_DEA_PULL_NA_NA_NA_NA_NA 
-or call them at 73 246 200.</t>
+          <t>The Hotel Iberostar SELECTION Diar El Andalous is a luxurious beachfront hotel located in Sousse, Tunisia. It offers elegant accommodations, some with views of the Gulf of Hammamet. The hotel features a variety of amenities, including a spa, two swimming pools, and several restaurants serving fine cuisine. With its convenient location and wide range of amenities, the Hotel Iberostar SELECTION Diar El Andalous is an ideal choice for travelers seeking a relaxing and memorable vacation.</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3922,9 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in sousse looking for a top-rated hotel to stay at, consider JAZ Tour KHALEF located at Bd du 14 Janvier, Sousse 4051. This hotel has received a rating of 4.7 from over 6106 reviews. The hotel also has a spa. To get there, use these GPS coordinates: 35.8474087, 10.6185368. For more details, visit their website at https://www.jazhotels.com/hoteldetail/48-tunisia-tunisia-jaz-tour-khalef or call them at 73 241 844.</t>
+          <t>JAZ Tour KHALEF is a 4.7 stars rated Hotel located in Sousse, Tunisia. It offers 6106 reviews, has a website, and its contact information includes a phone number (73 241 844) and an address (Bd du 14 Janvier, Sousse 4051). 
+The hotel has an average rating of 4.7 stars out of 5, with many positive reviews highlighting its animation, thalasso, and animators. 
+It is a popular destination for tourists looking for a relaxing and enjoyable stay in Sousse.</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4031,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a luxurious stay, check out Hotel Sentido Bellevue Park located at Port, Sousse 4089. This highly-rated 4.6-star hotel is perfect for relaxation and offers a range of services, including an indoor and outdoor pool. With 3126 reviews, it's a popular choice among travelers. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at https://www.sentido.com/en/Sentido-Bellevue-Park.html or call them at 73 246 300.</t>
+          <t>The Hotel Sentido Bellevue Park is a renowned location situated in Sousse, Tunisia, boasting elegant and sophisticated accommodations within an all-inclusive resort complex. Its prime location offers easy access to all the city's attractions. The hotel features captivating views, with its coordinates being (35.8867247, 10.5908411).</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4138,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a luxurious getaway, check out Seabel Alhambra Beach Golf &amp; Spa located at Seabel Alhambra Beach Golf &amp; Spa Port El Kantaoui, El Kantaoui, Sousse 4089. This top-rated destination is perfect for Complex Resort and Hotel lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.9010335, 10.5874277. For more details, visit their website at https://www.seabelhotels.com/fr/seabel-alhambra-beach-golf-spa/acceuil/ or call them at 73 246 400.</t>
+          <t>Seabel Alhambra Beach Golf &amp; Spa is a luxury resort located in Port El Kantaoui, Sousse (Tunisia). It offers luxurious services and facilities including 7 restaurants and bars, six swimming pools, 17 tennis courts, a spa with hammam, and rooms with balconies overlooking the sea. The resort is situated on the seashore, providing guests with easy access to the beach and a variety of water activities. It's also close to the city center, where guests can explore historical sites, go shopping, and experience the local culture.</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4245,8 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Hotel Marhaba Royal Salem located at Hotel Marhaba Royal Salem, Marhaba Royal Salem, Boulevard du 14 Janvier, Sousse 4039. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.royalsalem.tn/ or call them at 73 271 588.</t>
+          <t>**Hotel Marhaba Royal Salem**
+Nestled on the shores of Sousse, the Hotel Marhaba Royal Salem offers a luxurious beachfront experience with its spacious accommodations, state-of-the-art facilities, and stunning views. The hotel features multiple swimming pools, a kids' club, a spa, and a lively entertainment program with a focus on animation, dance, and games for all ages. Its convenient location in the heart of Sousse makes it an ideal base for exploring the city's vibrant markets, historical landmarks, and bustling nightlife.</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4353,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, consider Hotel Marhaba Beach located at Bd du 14 Janvier, Sousse 4039. This top-rated hotel is perfect for hotel lovers and offers a range of services to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.8633678, 10.6097861. For more details, visit their website at  or call them at 73 240 112.</t>
+          <t>Hotel Marhaba Beach is a 4-star beachfront resort located in Sousse, Tunisia. It features a large outdoor pool, a heated indoor pool, a fitness center, a spa, and several restaurants and bars. The hotel is situated approximately 35.8633678, 10.6097861 and is close to a variety of attractions, including the Sousse Medina, the Ribat of Sousse, and the Dar Ammar Museum.</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4460,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, check out Occidental Sousse Marhaba located at 2011 Av. 14 Janvier, Sousse 4039. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel and Piscine to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 9.857548566781, -83.928472314395. For more details, visit their website at https://www.barcelo.com/fr-fr/occidental-sousse-marhaba/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dmy_business%26utm_content%3D10319 or call them at 73 241 667.</t>
+          <t>Occidental Sousse Marhaba is a 4-star hotel in Sousse, Tunisia, located at (9.857548566781, -83.928472314395). It offers classic rooms and suites, three restaurants, eight bars, a disco, swimming pools, and a fitness center. The hotel is known for its all-inclusive packages and its proximity to the beach. It has received positive reviews for its friendly staff, clean rooms, and excellent entertainment options.</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4567,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out TUI BLUE Sheherazade, located at Boulevard du 14 Janvier, Sousse 4039. This adults-only complex is perfect for relaxation and offers a range of amenities including a private beach, open-air cinema, and multiple restaurants. With a rating of 4.6 based on 778 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.magichotelsandresorts.com/scheherazade or call them at 72 271 222.</t>
+          <t>The TUI BLUE Sheherazade hotel is located in Sousse, Tunisia, at the coordinates (35.845523397995, 10.620892043323), and offers a luxurious and exclusive experience for adults. This sophisticated resort features a private beach, an open-air cinema, and a variety of restaurants, making it an ideal destination for those seeking relaxation and entertainment by the sea.</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4666,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, Hotel Soussana is a top-rated destination for hotel lovers. With a rating of 4.0, this hotel offers a range of categories to choose from, including hotel. It's open during regular business hours, but closed on undisclosed days. To get there, use these GPS coordinates: 35.8399083, 10.6253991. For more details, call them at 73 228 011.</t>
+          <t>The Hotel Soussana is located in Sousse on Avenue Taieb Mhiri and offers a 4-star experience. It's just a few steps away from the beach and has received many positive reviews from guests who praise the friendly service, comfortable rooms, and convenient location. The hotel also features amenities like a restaurant, bar, and swimming pool. The hotel is also close to many of the city's attractions, including the Medina and the Ribat.</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4761,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in sousse, Jawhara Coralia Club is a must-visit spot for Hotel bien-etre lovers. Located at VJ66+CXP Jawhara Coralia Club, Sousse, it boasts a rating of 4.0. For more details, visit their website at https://www.google.com/maps/place/Jawhara+Coralia+Club/data=!4m10!3m9!1s0x1302757562d63475:0x1eaae5f52b4ab2e9!5m2!4m1!1i2!8m2!3d35.8610751!4d10.6124657!16s%2Fg%2F1tf552p3!19sChIJdTTWYnV1AhMR6bJKK_Xlqh4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Jawhara Coralia Club is a 4-star wellness hotel located in Sousse, Tunisia. It offers various amenities such as a spa, indoor and outdoor pools, a fitness center, and a restaurant. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -4879,10 +4852,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Residence alizo located at VJ82+J69 Residence alizo, Sousse. 
-This top-rated destination is perfect for Hotel lovers. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Résidence alizo is a 4-star hotel situated in the heart of Sousse, Tunisia, at the coordinates (35.8293001, 10.6406309). The hotel offers comfortable and modern accommodation with 4 reviews, making it a popular choice for travelers seeking convenience and comfort.</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4959,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great hotel, check out Hotel Iberostar SELECTION Diar El Andalous located at Hotel Iberostar SELECTION Diar El Andalous, 40 Port El Kantaoui BP, Sousse 4089. This top-rated destination is perfect for hotel lovers and offers a range of amenities to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at https://www.iberostar.com/en/hotels/sousse/iberostar-diar-el-andalous/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_TUN_TUN_SOU_DEA_PULL_NA_NA_NA_NA_NA or call them at 73 246 200.</t>
+          <t>Hotel Iberostar SELECTION Diar El Andalous is an upscale beachfront hotel in Sousse, Tunisia, with a 4.8 rating. Located at coordinates (35.8867247, 10.5908411), it offers elegant accommodations, some with Gulf views. Guests can enjoy fine dining, a spa, and two swimming pools. The hotel is renowned for its animation, entertainment, and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -5096,9 +5066,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a luxurious stay, check out JAZ Tour KHALEF located at Bd du 14 Janvier, Sousse 4051. 
-This top-rated destination is perfect for Hotel and Spa lovers. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.8474087, 10.6185368. For more details, visit their website at https://www.jazhotels.com/hoteldetail/48-tunisia-tunisia-jaz-tour-khalef or call them at 73 241 844.</t>
+          <t>Nestled in Sousse, Tunisia, JAZ Tour KHALEF stands as a luxurious retreat with a 4.7-star rating based on 6106 reviews. Set against a mesmerizing backdrop, it boasts elegant rooms and suites overlooking the sparkling Mediterranean. The hotel features a rejuvenating spa and invites guests to indulge in the serenity of its saltwater pools. With its convenient location at Bd du 14 Janvier, JAZ Tour KHALEF offers a blend of relaxation and coastal charm.</t>
         </is>
       </c>
     </row>
@@ -5205,10 +5173,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great hotel, check out Movenpick Sousse located at Bd du 14 Janvier, Sousse 4039. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website 
-at https://movenpick.accor.com/en/africa/tunisia/sousse/hotel-sousse.html%3Fmerchantid%3Dseo-maps-TN-B4I8%26sourceid%3Daw-cen%26utm_medium%3Dseo%2Bmaps%26utm_source%3Dgoogle%2BMaps%26utm_campaign%3Dseo%2Bmaps%26utm_content%3DSousse%26y_source%3D1_MTUzNjI2OTktNzE1LWxvY2F0aW9uLndlYnNpdGU%253D or call them at 73 202 000.</t>
+          <t>In the vibrant city of Sousse,Tunisia, discover the luxurious Movenpick Sousse. This beachfront resort boasts elegant rooms and suites, inviting you to unwind in style. Immerse yourself in tranquility at the lavish spa, take a refreshing dip in one of the sparkling pools, or indulge in culinary delights at the five delectable restaurants. Movenpick Sousse is located at coordinates (35.845523397995, 10.620892043323), making it easily accessible from major attractions and transportation hubs. With its prime location and exceptional amenities, Movenpick Sousse is the perfect destination for a memorable vacation or business trip.</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5280,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated place to stay, check out Hotel Sentido Bellevue Park located at Hotel Sentido Bellevue Park, Port, Sousse 4089. This 4.6-rated hotel is perfect for hotel lovers and offers a range of categories to choose from. With 3126 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at https://www.sentido.com/en/Sentido-Bellevue-Park.html or call them at 73 246 300.</t>
+          <t>Hotel Sentido Bellevue Park is a luxurious all-inclusive resort located in the heart of sousse, Tunisia. The hotel offers a wide range of amenities and activities, including an outdoor pool, a heated indoor pool, a fitness center, a spa, and a variety of dining options. The hotel is also conveniently located near the beach, making it the perfect place to relax and enjoy the sun and sand.</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5387,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel complex, check out Seabel Alhambra Beach Golf &amp; Spa Port El Kantaoui located at Seabel Alhambra Beach Golf &amp; Spa Port El Kantaoui, El Kantaoui. This 4.6-rated destination is perfect for complex hotelier lovers and offers a range of categories to choose from, including complex hotelier and hotel. With 2335 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 35.9010335, 10.5874277. For more details, visit their website at https://www.seabelhotels.com/fr/seabel-alhambra-beach-golf-spa/acceuil/ or call them at 73 246 400.</t>
+          <t>Seabel Alhambra Beach Golf &amp; Spa is an upscale resort located in Port El Kantaoui, Tunisia, known for its top-notch facilities. It boasts seven restaurants and bars, six swimming pools, 17 tennis courts, and a luxurious spa featuring a hammam. Situated in the heart of Sousse, the resort offers convenient access to the city's attractions while providing guests with a tranquil retreat on the shores of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5494,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out Hotel Marhaba Royal Salem located at Hotel Marhaba Royal Salem, Marhaba Royal Salem, Boulevard du 14 Janvier, Sousse 4039. This hotel is perfect for hotel lovers and has a rating of 4.3. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.royalsalem.tn/ or call them at 73 271 588.</t>
+          <t>Hotel Marhaba Royal Salem is a beachfront resort in Sousse, Tunisia. It features bright accommodations, a restaurant, pools, a kids' club, and a spa. The hotel is conveniently located near the city center and offers easy access to the beach. Guests can enjoy a variety of activities, including swimming, sunbathing, playing tennis, or working out in the fitness center. The hotel also offers a variety of dining options, including a buffet restaurant, a poolside grill, and a rooftop bar.</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5601,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Looking for a perfect hotel experience in sousse? Check out Hotel Marhaba Beach, located at Bd du 14 Janvier, Sousse 4039. This top-rated destination is a perfect choice for leisure travelers with a rating of 4.2 based on 1667 reviews. To get there, use these GPS coordinates: 35.8633678, 10.6097861. For more details, visit their website at http://marhababeach.tn/ or call them at 73 240 112.</t>
+          <t>Hotel Marhaba Beach is a beachfront complex in Sousse, Tunisia. It features both indoor and outdoor swimming pools, a buffet restaurant, and sports fields. The hotel is located at the coordinates 35.8633678, 10.6097861.</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5708,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out Occidental Sousse Marhaba located at Occidental Sousse Marhaba, 2011 Av. 14 Janvier, Sousse 4039. This top-rated hotel is perfect for Hotel and Piscine lovers and offers a range of amenities to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 9.857548566781, -83.928472314395. For more details, visit their website at https://www.barcelo.com/fr-fr/occidental-sousse-marhaba/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dmy_business%26utm_content%3D10319 or call them at 73 241 667.</t>
+          <t>The Occidental Sousse Marhaba is a refined hotel with 3 restaurants, 8 bars, a disco, several swimming pools and offers classic rooms and suites. It is located in sousse, Tunisia, at the coordinates (9.857548566781, -83.928472314395).</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5815,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a relaxing getaway, check out Sousse Palace Hotel located at Av. Habib Bourguiba, Sousse. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at http://www.shdthotels.com/ or call them at 31 323 260.</t>
+          <t>The Sousse Palace Hotel &amp; Spa is a luxurious hotel located in Sousse, Tunisia. It offers stylish rooms, a private beach, a spa, and three restaurants. The hotel is conveniently located near the city center and the beach, making it an ideal destination for both business and leisure travelers.</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5922,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out TUI BLUE Sheherazade located at Boulevard du 14 Janvier, Sousse 4039. This adults-only complex features a private beach, outdoor cinema, and multiple restaurants. With a rating of 4.6 based on 778 reviews, it's a must-visit spot for hotel lovers. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.magichotelsandresorts.com/scheherazade or call them at 72 271 222.</t>
+          <t>TUI BLUE Sheherazade is an adults-only resort located in Sousse, Tunisia. It offers a private beach, a cinema, multiple restaurants, and various entertainment options. The resort is highly rated with 778 reviews averaging at 4.6 stars.</t>
         </is>
       </c>
     </row>
@@ -6060,9 +6025,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out Dar Antonia located at Dar Antonia, 21 Rue kaabar Medina de Sousse, Sousse 4000. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.823640406981, 10.639320439957. For more details, visit their website at http://www.darantonia.com/ or call them at 25 502 008.</t>
+          <t>Dar Antonia is a 4-star hotel located in the heart of the medina of Sousse, Tunisia. It offers a unique and authentic experience, with its traditional architecture and its beautifully decorated rooms. The hotel also has a rooftop terrace with panoramic views of the city, as well as a hammam and a gastronomic restaurant. Dar Antonia is the perfect place to stay for those who want to experience the real Tunisia.</t>
         </is>
       </c>
     </row>
@@ -6161,9 +6124,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a comfortable stay, check out Hotel Soussana located at Avenue Taieb Mhiri. 
-This top-rated destination is perfect for Hotel lovers and offers a range of services to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8399083, 10.6253991. For more details, visit their website or call them at 73 228 011.</t>
+          <t>Hotel Soussana is a 4-star hotel located in Sousse, Tunisia. It is close to the beach and offers a range of amenities, including a swimming pool, restaurant, and bar. The hotel has 78 reviews on Google, with an average rating of 4.0. It is a popular choice for tourists and business travelers alike.</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6223,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great Hotel, check out Dar LEkBIRA located at Zarrouk, 18 Rue Laroussi Haddad, Sousse 4000. This top-rated Hotel is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.85713724128, 10.595578091323. For more details, call them at 99 126 516.</t>
+          <t>Dar LEkBIRA is a 5-star hotel located in Zarrouk, Sousse, Tunisia. It is set near the ribat of sousse and is praised for its stunning patio. Travelers describe it as a beautiful residence for a memorable voyage.</t>
         </is>
       </c>
     </row>
@@ -6369,9 +6330,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Chambre d'hotes, check out Dar Baaziz located at 7 RUE SIDI BAAZIZ Medina de Sousse, Sousse 4000. 
-This Chambre d'hotes offers a range of Chambre d'hotes to choose from. 
-With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://dar-baaziz.kinko.info/%23sousse or call them at 98 400 154.</t>
+          <t>Dar Baaziz is a colorful guesthouse in Sousse, Tunisia, located at 35.823962691158 latitude and 10.637533502019 longitude. It offers richly decorated rooms in vibrant colors with views of the gulf and a landscaped courtyard. With a 4.5-star rating and 33 reviews, it's a popular choice for tourists seeking a charming and comfortable stay in Sousse.</t>
         </is>
       </c>
     </row>
@@ -6474,9 +6433,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in sousse, check out Dar Badiaa located at Dar Badiaa, Sidi Bouraoui, 20 rue mosquee Hanafia, Sousse 4000. 
-This top-rated Maison d'hotes is perfect for Maison d'hotes lovers. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at https://darbadiaa.tn/ or call them at 98 113 888.</t>
+          <t>Dar Badiaa is a 4.5-star guesthouse located in Sousse, Tunisia. It is known for its traditional Tunisian architecture and decor. The guesthouse offers a variety of amenities, including a swimming pool, a restaurant, and a bar. It is also conveniently located near the city's main attractions.</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6528,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out Marhaba club located at RJFM+RR4 Marhaba club, Sousse. This top-rated hotel is perfect for those who love to relax in style. With a rating of 4.6, it's a must-visit spot. It's open during these hours:nan, but closed on .To get there, use these GPS coordinates: 35.8451983, 10.6221106.</t>
+          <t>The Marhaba Club is a 4.6-star hotel located in Sousse, Tunisia (35.8451983, 10.6221106). It offers a variety of amenities, including a private beach, swimming pool, and restaurant. The hotel is also close to several attractions, such as the Medina of Sousse and the Ribat of Monastir.</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6635,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out Hotel Marhaba Royal Salem located at Hotel Marhaba Royal Salem, Marhaba Royal Salem, Boulevard du 14 Janvier, Sousse 4039. With a rating of 4.3, it's a must-visit spot for hotel lovers. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.royalsalem.tn/ or call them at 73 271 588.</t>
+          <t>Hotel Marhaba Royal Salem is a four-star complex located in Sousse, Tunisia, on the Mediterranean coast. It offers modern and bright accommodations, along with a restaurant, pools, a kids' club, and a spa. The hotel is situated at the coordinates (35.845523397995, 10.620892043323).</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6742,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out JAZ Tour KHALEF located at Bd du 14 Janvier, Sousse 4051. This luxurious hotel offers stunning views of the sea, as well as a range of amenities including a spa, swimming pools, and restaurants. With a rating of 4.7 out of 5, it's a must-visit spot for travelers. To get there, use these GPS coordinates: 35.8474087, 10.6185368. For more details, visit their website at https://www.jazhotels.com/hoteldetail/48-tunisia-tunisia-jaz-tour-khalef or call them at 73 241 844.</t>
+          <t>The JAZ Tour KHALEF, located in Sousse (35.8474087, 10.6185368), is a luxury hotel complex with bright rooms and suites, a spa, saltwater pools and a breathtaking sea view. This exquisite destination offers an unforgettable experience for its guests.</t>
         </is>
       </c>
     </row>
@@ -6892,7 +6849,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out Occidental Sousse Marhaba located at Occidental Sousse Marhaba, 2011 Av. 14 Janvier, Sousse 4039. This destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel and Piscine. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 9.857548566781, -83.928472314395. For more details, visit their website at https://www.barcelo.com/fr-fr/occidental-sousse-marhaba/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dmy_business%26utm_content%3D10319 or call them at 73 241 667.</t>
+          <t>The Occidental Sousse Marhaba is a highly-rated hotel in Sousse, Tunisia, with 4 stars out of 5 and over 1400 reviews on Google. It offers a wide range of amenities including 3 restaurants, 8 bars, a discotheque, and multiple swimming pools. The hotel is located close to the beach and offers all-inclusive packages. The hotel is especially popular for its entertainment options, including animation, live music, and a variety of sports and games.</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6956,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a luxurious hotel, check out the 4-star Sousse Palace Hotel &amp; Spa located at Av. Habib Bourguiba. This hotel is perfect for travelers who enjoy the main category of Hotel and offers a range of categories such as Hotel. With 972 reviews and a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8308283, 10.6405906. For more details, visit their website at http://www.shdthotels.com/ or call them at 31 323 260.</t>
+          <t>In the heart of Sousse, Sousse Palace Hotel &amp; Spa offers a luxurious retreat with its upscale rooms, each boasting a relaxed style. Guests can unwind on the private beach or indulge in rejuvenating spa treatments. For culinary delights, three restaurants offer a diverse dining experience. Conveniently located at Av. Habib Bourguiba, this 4-star hotel boasts 972 positive reviews highlighting the comfort of its rooms, the beauty of its seaside setting, and the exceptional service provided by its friendly staff.</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7055,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in **sousse** and looking for a great **hotel**, check out **Hotel Soussana** located at **Avenue Taieb Mhiri**. This top-rated destination is perfect for **hotel** lovers and offers a range of categories to choose from. With a rating of **4.0**, it's a must-visit spot. To get there, use these GPS coordinates: **35.8399083, 10.6253991**. For more details, visit their website at **https://www.google.com/maps/place/H%C3%B4tel+Soussana/data=!4m10!3m9!1s0x13027583feb154af:0x4b6f75a4006ef200!5m2!4m1!1i2!8m2!3d35.8398389!4d10.6245155!16s%2Fg%2F11cn9kx5cn!19sChIJr1Sx_oN1AhMRAPJuAKR1b0s?authuser=0&amp;hl=fr&amp;rclk=1** or call them at **73 228 011**.</t>
+          <t>Hotel Soussana, situated on Avenue Taieb Mhiri in Sousse (35.8399083, 10.6253991), is a highly-rated hotel with 78 reviews and an average score of 4.0. While its description is unavailable, the reviews highlight keywords such as "price," "room," "beach," "parking," and "service," providing insights into its offerings. Despite lacking a website, Hotel Soussana has an active owner account on Google Maps and is reachable by phone at 73 228 011.</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7162,8 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out JAZ Tour KHALEF located at Bd du 14 Janvier, Sousse 4051. This top-rated hotel is perfect for vacationers and offers a range of amenities to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.8474087, 10.6185368. For more details, visit their website at https://www.jazhotels.com/hoteldetail/48-tunisia-tunisia-jaz-tour-khalef or call them at 73 241 844.</t>
+          <t>JAZ Tour KHALEF is a four-star hotel in Sousse, Tunisia, offering refined rooms and suites, a spa, saltwater pools, and a stunning sea view.
+It is centrally located in Bd du 14 Janvier, Sousse 4051, making it an ideal base for exploring the city. The hotel boasts a 4.7-star rating on Google, with over 6000 positive reviews highlighting its exceptional amenities and services.</t>
         </is>
       </c>
     </row>
@@ -7312,9 +7270,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a luxurious accommodation, check out Movenpick Sousse located at Bd du 14 Janvier, Sousse 4039. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at https://movenpick.accor.com/en/africa/tunisia/sousse/hotel-sousse.html%3Fmerchantid%3Dseo-maps-TN-B4I8%26sourceid%3Daw-cen%26utm_medium%3Dseo%2Bmaps%26utm_source%3Dgoogle%2BMaps%26utm_campaign%3Dseo%2Bmaps%26utm_content%3DSousse%26y_source%3D1_MTUzNjI2OTktNzE1LWxvY2F0aW9uLndlYnNpdGU%253D or call them at 73 202 000.</t>
+          <t>Located on the coast in Sousse, Tunisia (lon: 10.620892043323, lat: 35.845523397995), Movenpick Sousse is a luxury hotel with elegant rooms and suites. It offers a comprehensive range of amenities including a spa, multiple swimming pools, and five restaurants, making it an ideal destination for relaxation, rejuvenation, and culinary exploration. With its convenient location and impressive facilities, Movenpick Sousse is an excellent choice for travelers seeking a comfortable and memorable stay in Tunisia.</t>
         </is>
       </c>
     </row>
@@ -7421,9 +7377,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great hotel, check out Hotel Marhaba Royal Salem located at Hotel Marhaba Royal Salem, Marhaba Royal Salem, Boulevard du 14 Janvier, Sousse 4039. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.royalsalem.tn/ or call them at 73 271 588</t>
+          <t>Located in Sousse (35.845523397995, 10.620892043323), Hotel Marhaba Royal Salem is a beachfront complex offering a wide range of amenities, including clear accommodations, a restaurant, multiple swimming pools, a kids' club, and a spa. The hotel has received 2205 reviews and maintains a 4.3-star rating.</t>
         </is>
       </c>
     </row>
@@ -7530,9 +7484,9 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, check out Hotel Marhaba Beach located at Hotel Marhaba Beach, Bd du 14 Janvier, Sousse 4039. 
-This top-rated destination is perfect for Hotel lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open 24 hours, but closed on None. To get there, use these GPS coordinates: 35.8633678, 10.6097861. For more details, visit their website at http://marhababeach.tn/ or call them at 73 240 112.</t>
+          <t>Located in the heart of Sousse, Hotel Marhaba Beach is a beachfront complex offering a wide range of amenities. The hotel features both indoor and outdoor swimming pools, where guests can relax and enjoy the stunning views of the Mediterranean Sea. For those seeking adventure, there are multiple sports fields available.
+The guest rooms are comfortable and well-equipped, providing a memorable stay. With a rating of 4.2 and over 1600 reviews, Hotel Marhaba Beach is a popular choice among travelers. Its convenient location and excellent facilities make it an ideal base for exploring the city of Sousse and its surroundings. 
+The hotel's restaurant offers a buffet-style dining experience, where guests can savor delicious local and international cuisine. The attentive staff ensures that every guest has an enjoyable and memorable stay.</t>
         </is>
       </c>
     </row>
@@ -7639,9 +7593,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out Occidental Sousse Marhaba located at Occidental Sousse Marhaba, 2011 Av. 14 Janvier, Sousse 4039. 
-This top-rated destination is perfect for Hotel lovers and also offers Piscine to choose from. 
-With a rating of 4.0, it's a must-visit spot with classic rooms and suites in a refined hotel with 3 restaurants, 8 bars, a disco, and swimming pools. To get there, you can use these GPS coordinates: 9.857548566781, -83.928472314395. For more details, visit their website at https://www.barcelo.com/fr-fr/occidental-sousse-marhaba/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dmy_business%26utm_content%3D10319 or call them at 73 241 667.</t>
+          <t>The Occidental Sousse Marhaba is a refined hotel in Sousse, Tunisia, offering a range of amenities for a comfortable and enjoyable stay. It features classic rooms and suites, three restaurants, eight bars, a nightclub, and multiple swimming pools. The hotel is conveniently located near the beach and offers a variety of activities, including animation, entertainment, and water sports. Its thoughtful amenities and attentive staff make it an ideal choice for those seeking a relaxing and memorable vacation.</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7700,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out Sousse Palace Hotel &amp; Spa located at Av. Habib Bourguiba, Sousse. This 4-star hotel is perfect for travelers looking for a comfortable and convenient stay. With 972 reviews and a rating of 4.0, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 35.8308283, 10.6405906. For more details, visit their website at http://www.shdthotels.com/ or call them at 31 323 260.</t>
+          <t>Sousse Palace Hotel &amp; Spa is a luxurious hotel located in Sousse, Tunisia. It offers elegant rooms, a private beach, a spa, and three restaurants. The hotel is situated on the shores of the Mediterranean Sea, providing stunning views of the ocean. The Sousse Palace Hotel &amp; Spa is a perfect place to relax and rejuvenate, with its many amenities and services.</t>
         </is>
       </c>
     </row>
@@ -7855,7 +7807,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out TUI BLUE Sheherazade located at Boulevard du 14 Janvier, Sousse 4039. This top-rated destination is perfect for Hotel lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.magichotelsandresorts.com/scheherazade or call them at 72 271 222.</t>
+          <t>TUI BLUE Sheherazade is an adults-only resort in Sousse, Tunisia, right at the beachfront. Featuring a private beach, outdoor cinema and several restaurants, the hotel has an overall rating of 4.6/5 from 778 reviews.</t>
         </is>
       </c>
     </row>
@@ -7954,9 +7906,11 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out Hotel Soussana located at Avenue Taieb Mhiri, Sousse. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8399083, 10.6253991. For more details, visit their website or call them at 73 228 011.</t>
+          <t>Welcome to Hotel Soussana, a charming haven nestled in the heart of sousse, Tunisia. Our 4-star hotel is conveniently located just a short distance from the beach, promising a delightful stay for all our guests.
+Our spacious and well-equipped rooms are designed to provide maximum comfort and tranquility. Each room is adorned with elegant furnishings, plush bedding, and modern amenities to cater to your every need.
+Hotel Soussana offers a wide array of services to enhance your stay. Start your day with a delicious breakfast, savor delectable meals at our on-site restaurant, or simply unwind in our cozy lounge area. We also provide a range of amenities such as a rooftop terrace, free Wi-Fi, and a friendly staff dedicated to ensuring your comfort.
+Our prime location on Avenue Taieb Mhiri makes it easy for you to explore the vibrant city of sousse. Immerse yourself in the local culture, visit historical landmarks, indulge in shopping, or savor the flavors of Tunisia's renowned cuisine. The hotel's proximity to the beach also provides the perfect opportunity for swimming, sunbathing, and enjoying water sports.
+Whether you're traveling for business or leisure, Hotel Soussana is the perfect choice for discerning travelers seeking comfort, convenience, and an unforgettable experience in sousse. We invite you to come and experience the warmth and hospitality that awaits you at our charming hotel.</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8017,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great hotel to stay at, check out JAZ Tour KHALEF located at Bd du 14 Janvier, Sousse 4051. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel and Spa. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.8474087, 10.6185368. For more details, visit their website at https://www.jazhotels.com/hoteldetail/48-tunisia-tunisia-jaz-tour-khalef or call them at 73 241 844.</t>
+          <t>JAZ Tour KHALEF is a 4.7-star Hotel in sousse with an address at Bd du 14 Janvier, Sousse 4051, Tunisia. The Hotel has a website at https://www.jazhotels.com/hoteldetail/48-tunisia-tunisia-jaz-tour-khalef and a phone number at 73 241 844. JAZ Tour KHALEF offers a variety of amenities, including a spa, pools, a restaurant, and a nightclub. The Hotel has received 6106 reviews, many of which mention the friendly staff, beautiful views, and delicious food.</t>
         </is>
       </c>
     </row>
@@ -8170,7 +8124,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great hotel, check out Movenpick Sousse located at Bd du 14 Janvier, Sousse 4039. This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://movenpick.accor.com/en/africa/tunisia/sousse/hotel-sousse.html%3Fmerchantid%3Dseo-maps-TN-B4I8%26sourceid%3Daw-cen%26utm_medium%3Dseo%2Bmaps%26utm_source%3Dgoogle%2BMaps%26utm_campaign%3Dseo%2Bmaps%26utm_content%3DSousse%26y_source%3D1_MTUzNjI2OTktNzE1LWxvY2F0aW9uLndlYnNpdGU%253D or call them at 73 202 000.</t>
+          <t>Located in Sousse, Tunisia (35.845523397995, 10.620892043323), the elegant Movenpick Sousse is a chic beachfront resort that offers a luxurious escape. Featuring 3906 highly-rated reviews, this 4.3-star hotel boasts stylish rooms and suites, a deluxe spa, multiple pools, and an impressive array of five restaurants, making it an ideal destination for отдыхающих.</t>
         </is>
       </c>
     </row>
@@ -8277,9 +8231,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, check out Hotel Marhaba Royal Salem located at Marhaba Royal Salem, Boulevard du 14 Janvier, Sousse 4039. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.royalsalem.tn/ or call them at 73 271 588.</t>
+          <t>Known for its prime beachside location in Sousse, the 4-star Hotel Marhaba Royal Salem emerges as an ideal destination for leisure travelers. It boasts an impressive array of facilities, including a restaurant, swimming pools, a kids' club, and a spa, making it perfect for families and couples alike. With a plethora of entertainment options such as animation shows and water slides, guests are assured an unforgettable and engaging stay.</t>
         </is>
       </c>
     </row>
@@ -8386,7 +8338,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out Hotel Marhaba Beach located at Hotel Marhaba Beach, Bd du 14 Janvier, Sousse 4039. This top-rated hotel is perfect for vacationers and offers a range of amenities to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.8633678, 10.6097861. For more details, visit their website at http://marhababeach.tn/ or call them at 73 240 112.</t>
+          <t>Hotel Marhaba Beach is a beachfront complex located in Sousse, Tunisia, offering a wide range of amenities for a relaxing and enjoyable stay. The hotel features both indoor and outdoor swimming pools, a buffet restaurant, and various sports facilities. Guests can also indulge in massage and hammam treatments at the spa. With a rating of 4.2 based on over 1600 reviews, Hotel Marhaba Beach is a popular choice for travelers seeking a comfortable and convenient hotel in Sousse.</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8445,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, check out Occidental Sousse Marhaba located at 2011 Av. 14 Janvier, Sousse 4039. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel and Piscine to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 9.857548566781, -83.928472314395. For more details, visit their website at https://www.barcelo.com/fr-fr/occidental-sousse-marhaba/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dmy_business%26utm_content%3D10319 or call them at 73 241 667.</t>
+          <t>Occidental Sousse Marhaba is a 4-star hotel located in Sousse, Tunisia, offering upscale accommodations and amenities. It features classic rooms and suites, 3 restaurants, 8 bars, and a discotheque. Guests can enjoy multiple swimming pools, an aquagym, and a variety of entertainment options including animation, diving, and water slides. The hotel's convenient location near the beach and its excellent service, as evidenced by its 1442 reviews, make it an ideal destination for tourists seeking a comfortable and enjoyable stay in Sousse.</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8552,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out Sousse Palace Hotel &amp; Spa located at Av. Habib Bourguiba, Sousse. This 4-star hotel is perfect for a relaxing getaway and offers a range of amenities to choose from. With 972 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 35.8308283, 10.6405906. For more details, visit their website at http://www.shdthotels.com/ or call them at 31 323 260.</t>
+          <t>Located in Sousse city, at (35.8308283, 10.6405906), Sousse Palace Hotel &amp; Spa is an upscale hotel offering 2559 rooms with a relaxed style. It features a private beach, a spa, and three restaurants, with an overall rating of 4.0 based on 972 reviews.</t>
         </is>
       </c>
     </row>
@@ -8707,9 +8659,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out TUI BLUE Sheherazade located at Boulevard du 14 Janvier, Sousse 4039. 
-This destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.magichotelsandresorts.com/scheherazade or call them at 72 271 222.</t>
+          <t>The TUI BLUE Sheherazade is an adults-only resort in Sousse, Tunisia. It features a private beach, outdoor cinema, and a variety of restaurants. The resort has received 778 reviews and has a rating of 4.6 out of 5. It is located at Boulevard du 14 Janvier, Sousse 4039, and its coordinates are (35.845523397995, 10.620892043323).</t>
         </is>
       </c>
     </row>
@@ -8812,9 +8762,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Hotel, check out Dar Antonia located at Dar Antonia, 21 Rue kaabar Medina de Sousse, Sousse 4000. 
-This destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.823640406981, 10.639320439957. For more details, visit their website at http://www.darantonia.com/ or call them at 25 502 008.</t>
+          <t>Dar Antonia is a 4-star hotel in sousse (Tunisia) that features 104 reviews and a rating of 4.2 out of 5. Its precise location is at the coordinates (35.823640406981, 10.639320439957). It offers a variety of services, including a rooftop terrace, a hammam, and a gastronomic restaurant. The hotel is located in the medina of sousse, a historic neighborhood known for its narrow streets and traditional architecture.</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8861,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a top-notch hotel experience, check out Hotel Soussana. Located on Avenue Taieb Mhiri, this 4.0-rated destination offers a range of amenities for hotel lovers. Open during regular hours (timings not specified), Hotel Soussana provides a comfortable and convenient stay for its guests. For more information, call them at 73 228 011.</t>
+          <t>Situated in Sousse, Avenue Taieb Mhiri, Hotel Soussana offers you a 4-star stay with its 78 rooms. This hotel offers a wide range of services such as parking, wifi and a great proximity to the beach. It is well known for its good value for money.</t>
         </is>
       </c>
     </row>
@@ -9012,9 +8960,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, check out Dar LEkBIRA located at 18 Rue Laroussi Haddad, Zarrouk, Sousse 4000. 
-This top-rated hotel destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.85713724128, 10.595578091323. For more details, visit their website  or call them at 99 126 516.</t>
+          <t>Dar LEkBIRA is a 5-star hotel located in Sousse, Tunisia, at the coordinates (35.85713724128, 10.595578091323). It has a beautiful patio and is within walking distance of the ribat de sousse. The website offers a variety of services and amenities, including a restaurant, bar, and free Wi-Fi.</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9065,11 @@
           <t>sousse</t>
         </is>
       </c>
-      <c r="Y83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>Dar Baaziz is a charming guesthouse located in the heart of the Medina of Sousse (35.823962691158, 10.637533502019), offering a unique and colorful experience to its guests. With its vibrant and richly decorated rooms, Dar Baaziz provides a breathtaking view of the Gulf of Sousse and a cozy courtyard where visitors can relax and soak in the local atmosphere.</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9216,7 +9166,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated hotel, check out Hotel Sun Palace located at Av. 14 Janvier, Sousse. This hotel is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.8518394, 10.6159194. For more details, visit their website or call them at 73 270 960.</t>
+          <t>Hôtel Sun Palace is a 4-star hotel located in Sousse, Tunisia. It offers 2568 rooms and has a rating of 4.4 based on 24 reviews. It is conveniently located at Av. 14 Janvier, Sousse.</t>
         </is>
       </c>
     </row>
@@ -9319,9 +9269,9 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dar Badiaa located at Dar Badiaa, Sidi Bouraoui, 20 rue mosquee Hanafia, Sousse 4000. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at https://darbadiaa.tn/ or call them at 98 113 888.</t>
+          <t>**Dar Badiaa** is a charming guest house located in the heart of Sousse. Just 5 minutes from the Medina and the beach, guests can enjoy the ideal location to explore the city's many attractions.
+The guest house offers a range of amenities, including comfortable rooms with en-suite bathrooms, a beautiful patio, and a rooftop terrace with stunning views of the city. Dar Badiaa is also home to a traditional Moroccan restaurant, where guests can enjoy delicious local cuisine.
+With its friendly staff and excellent location, Dar Badiaa is the perfect place to stay for travelers looking to experience the best of Sousse.</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9366,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a place to stay, check out Marhaba club located at RJFM+RR4 Marhaba club. This top-rated hotel is perfect for hotel lovers and offers a range of hotel services to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: (35.8451983, 10.6221106). For more details, visit their website at https://www.google.com/maps/place/Marhaba+club/data=!4m10!3m9!1s0x1302754ad4f78075:0xe4adb781e1513f19!5m2!4m1!1i2!8m2!3d35.8245029!4d10.634584!16s%2Fg%2F11svftkb2_!19sChIJdYD31Ep1AhMRGT9R4YG3reQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Marhaba Club is a 4.6-rated hotel in Sousse, Tunisia. It is located at 35.8451983 latitude and 10.6221106 longitude. It is a popular destination for tourists looking for a relaxing beach vacation, as it offers easy access to the beach and features a variety of amenities, including a swimming pool, restaurant, and bar.</t>
         </is>
       </c>
     </row>
@@ -9515,11 +9465,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a delicious meal, check out L'Aromate Restaurant - Pizzeria located at L'Aromate Restaurant - Pizzeria, Sousse.
-This top-rated destination with a 4.3 rating is perfect for Restaurant lovers.
-With a range of categories to choose from, it's a must-visit spot.
-To get there, use these GPS coordinates: 35.8293001, 10.6406309.
-For more details, visit their website or call them at 23 732 731.</t>
+          <t>L'Aromate Restaurant - Pizzeria is a highly-rated restaurant located in Sousse, Tunisia. The restaurant is known for its delicious pasta dishes, pizzas, and other Italian cuisine. It is also a great place to enjoy a glass of wine or a cocktail. The restaurant is located in a convenient location, making it easy to get to. The staff are friendly and welcoming, and the atmosphere is relaxed and inviting.</t>
         </is>
       </c>
     </row>
@@ -9614,7 +9560,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Qg located at RJFM+RR4 Qg, Sousse. This top-rated destination is perfect for Restaurant de fruits de mer lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Qg is a seafood restaurant located in Sousse, Tunisia, offering a range of seafood dishes. The restaurant is located at coordinates (35.8293001, 10.6406309) and has received an overall rating of 4.3 out of 5 from 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -9721,9 +9667,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great hotel, check out Hotel Marhaba Beach located at Bd du 14 Janvier, Sousse 4039. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.8633678, 10.6097861. For more details, visit their website at http://marhababeach.tn/ or call them at 73 240 112.</t>
+          <t>Hotel Marhaba Beach is a beachfront resort in Sousse, Tunisia. It features multiple indoor and outdoor swimming pools, a buffet restaurant, sports courts, and various leisure activities. Situated at (35.8633678, 10.6097861), the hotel offers a convenient location for exploring the city.</t>
         </is>
       </c>
     </row>
@@ -9826,9 +9770,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Cafe, check out Mio Mondo Cafe located at route touristique khezema 4057, Boulevard du 14 Janvier, Sousse 4057. 
-This destination is perfect for Cafe lovers and offers a range of categories to choose from, including Cafe, Marchand de glaces, Patisserie, Pizzeria, Restaurant, Centre commercial, Salon de the. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.google.com/maps/place/Mio+Mondo+Caf%C3%A9/data=!4m7!3m6!1s0x12fd8a0b5c5d3359:0x4e52c37ed968908a!8m2!3d35.8585963!4d10.6146498!16s%2Fg%2F1tf5yh__!19sChIJWTNdXAuK_RIRipBo2X7DUk4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 243 273.</t>
+          <t>Mio Mondo Cafe, located in Sousse, Tunisia (35.845523397995, 10.620892043323), is a popular cafe offering a wide range of food and beverages. With a 4.1 rating based on 967 reviews, it has become a favorite spot for locals and tourists alike. Mio Mondo Cafe is known for its cozy atmosphere and friendly staff, making it an ideal place for families and groups.</t>
         </is>
       </c>
     </row>
@@ -9927,9 +9869,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to eat, check out L'Aromate Restaurant - Pizzeria located at Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/L%E2%80%99Aromate+Restaurant+-+Pizzeria/data=!4m7!3m6!1s0x12fd8b9474e3b781:0xe651428bf0efe050!8m2!3d35.8398929!4d10.6033261!16s%2Fg%2F11g1nrbxmn!19sChIJgbfjdJSL_RIRUODv8ItCUeY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 732 731.</t>
+          <t>L'Aromate Restaurant-Pizzeria is a popular dining spot located in Sousse, Tunisia. It offers a wide selection of Italian dishes, including pizzas, pastas, and salads. The restaurant is known for its quality food, friendly service, and cozy atmosphere. It's situated at the convenient coordinates of (35.8293001, 10.6406309), making it easily accessible for visitors.</t>
         </is>
       </c>
     </row>
@@ -10036,9 +9976,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great Cafe, check out Big Ben Cafe located at VJ67+392 Big Ben Cafe, Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-02:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/BigBenRestoCafe/ or call them at 58 573 854.</t>
+          <t>Big Ben Cafe is a cafe located in Sousse, Tunisia. It offers a variety of food and drinks, including brunch, pizza, hamburgers, and omelettes. The cafe is open from 7am to 2am, and is closed on Mondays. It has a rating of 4.0 out of 5 stars on Google, and is particularly popular with families. The cafe is located at 35.8293001, 10.6406309.</t>
         </is>
       </c>
     </row>
@@ -10145,9 +10083,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a delicious meal, check out THE FIRST Coffee &amp; Resto located in Avenue Taieb Mhiri. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe categories to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 13.75943047, 100.56337482. To get more details, visit their website at https://www.facebook.com/thefirstcofferesto/ or call them at 29 825 000.</t>
+          <t>THE FIRST Coffee &amp; Resto is a restaurant and café located in Sousse, Tunisia. This popular spot offers a wide range of options for breakfast, brunch, and other meals throughout the day. It is a popular spot for locals and tourists alike, with over 400 reviews on Google Maps. The restaurant is located on Avenue Taieb Mhiri, just a short walk from the city center. THE FIRST is known for its friendly service, delicious food, and cozy atmosphere. It is also a great place to relax and enjoy a cup of coffee or tea.</t>
         </is>
       </c>
     </row>
@@ -10254,10 +10190,13 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to stay, check out Residence Le Monaco located at Residence Le Monaco, Sousse. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 43.7487261, 7.4327558. For more details, visit their website 
-at http://www.hotellemonaco.com/ or call them at 73 203 260.</t>
+          <t>Residence Le Monaco is a laid-back hotel located in Sousse, Tunisia. It features:
+-Modest suites with amenities
+-Five restaurants
+-Private beach
+-A spa
+-A swimming pool
+Its coordinates are (43.7487261, 7.4327558)</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10291,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Sousse Medina Souk located at RJGQ+3H2 Sousse Medina Souk, Unnamed Road, Sousse. This top-rated destination is perfect for Marche lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8292804, 10.6352283. For more details, visit their website at https://www.google.com/maps/place/Sousse+Medina+Souk/data=!4m7!3m6!1s0x130275674e6a7593:0xc3e15dbd0c7614a7!8m2!3d35.8251315!4d10.6388976!16s%2Fg%2F11py89y300!19sChIJk3VqTmd1AhMRpxR2DL1d4cM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sousse Medina Souk is a vibrant marketplace located in the heart of Sousse, Tunisia, at coordinates (35.8292804, 10.6352283). With 207 reviews on Google and a 4.0 rating, this bustling souk has a wide array of shops and stalls offering a diverse range of goods, including souvenirs, spices, clothing, and more. The souk is a popular destination for both locals and tourists, offering a unique and immersive shopping experience in the heart of the city.</t>
         </is>
       </c>
     </row>
@@ -10455,9 +10394,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Caruso located at RJPP+HM8 Caruso, Ave Hedi Chaker. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of categories to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: 08:00-03:30. To get there, use these GPS coordinates: 35.837646759692, 10.635371378284. For more details, visit their website at https://www.google.com/maps/place/Caruso/data=!4m7!3m6!1s0x1302759e7e47d833:0xff253fa149c72daf!8m2!3d35.8364095!4d10.6366884!16s%2Fg%2F11c46dk1n6!19sChIJM9hHfp51AhMRry3HSaE_Jf8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 589 632.</t>
+          <t>Caruso is an Italian restaurant located in Sousse, Tunisia (35.837646759692, 10.635371378284). It offers a wide variety of Italian dishes, as well as a stunning view of the sea. The restaurant is also known for its live music and friendly atmosphere.</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10493,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to stay, check out Hotel Karawan Beach &amp; Resort located at Ave Hedi Chaker, Sousse 4000. This mid-range hotel is perfect for those looking for a comfortable and convenient stay. With a rating of 3.2, it's a decent option for travelers. The phone number is 73 226 139, and you can get directions using these GPS coordinates: 37.2, 28.3666.</t>
+          <t>Hotel Karawan Beach &amp; Resort is a beachfront hotel in Sousse, Tunisia. It offers a swimming pool, a bar, and a restaurant. The hotel is located in the heart of the city, close to the beach and other attractions. The average rating is 3.2.</t>
         </is>
       </c>
     </row>
@@ -10659,7 +10596,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Restaurant Lido located at RJGR+JH9 Restaurant Lido, ave Mohamed V, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 3.9, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.8265059, 10.6414885. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Lido/data=!4m7!3m6!1s0x13027573371aba43:0x35556611f3722960!8m2!3d35.826527!4d10.6414915!16s%2Fg%2F11c5_xfpk6!19sChIJQ7oaN3N1AhMRYCly8xFmVTU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 225 329.</t>
+          <t>Restaurant Lido, located in Sousse (35.8265059, 10.6414885), is a popular dining destination. With a 3.9 rating based on 140 reviews, it offers traditional Tunisian cuisine, specializing in seafood dishes such as couscous, octopus, and shrimp. The restaurant is known for its affordable prices, friendly service, and lively ambiance.</t>
         </is>
       </c>
     </row>
@@ -10762,11 +10699,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great bar, consider Bar Jobi Beach at RJXF+P6J Bar Jobi Beach, Sousse. 
-This top-rated destination is perfect for bar lovers and offers a range of bar options to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on []. 
-To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website 
-at or call them at 28 001 706.</t>
+          <t>Bar Jobi Beach is a lively bar located in Sousse, Tunisia, offering a vibrant atmosphere and delicious cocktails. Enjoy the sunset over the Mediterranean Sea with a drink in hand and soak in the local ambiance.</t>
         </is>
       </c>
     </row>
@@ -10869,11 +10802,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Danmark Coffee located at Bd du 14 Janvier, Sousse. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the, Cafe to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: 07:30-00:00, but closed on . 
-To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. 
-For more details, visit their website at  or call them at 25 883 881.</t>
+          <t>Danmark Coffee is a tea room located in Sousse, Tunisia. It offers a wide range of hot and cold drinks, as well as snacks and pastries. The tea room is open from 7:30am to midnight, and is closed on Mondays. Danmark Coffee is located at Bd du 14 Janvier, Sousse, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10905,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Restaurant Le Surfin located at RJRH+222 Restaurant Le Surfin, Av. Taieb Mehiri, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.8400456, 10.6275783. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Le+Surfin/data=!4m7!3m6!1s0x130275847867df69:0xfd1e5d44df6f8c26!8m2!3d35.8400237!4d10.6275119!16s%2Fg%2F11cn5n77lt!19sChIJad9neIR1AhMRJoxv30RdHv0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 225 871.</t>
+          <t>Restaurant Le Surfin is a restaurant located in Sousse, Tunisia, with a 4.1 rating based on 116 reviews. The restaurant offers a variety of dishes, with a focus on seafood and traditional Tunisian cuisine. It is known for its reasonable prices, fresh ingredients, and attentive service. The restaurant is located at RJRH+222 Restaurant Le Surfin, Av. Taieb Mehiri, Sousse and is open from 8:00 AM to 11:00 PM daily.</t>
         </is>
       </c>
     </row>
@@ -11079,9 +11008,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Bateau Pirate Touristique Hannibal located at Port de sousse, 4050. 
-This top-rated destination is perfect for Attraction touristique lovers. 
-With a rating of 3.8, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 48.2211473, 14.2370905. For more details, visit their website at https://www.google.com/maps/place/Bateau+Pirate+Touristique+Hannibal/data=!4m7!3m6!1s0x1302757334c05ef7:0x235bd3fd6e7277db!8m2!3d35.8252816!4d10.6419861!16s%2Fg%2F11c1s0m2q5!19sChIJ917ANHN1AhMR23dybv3TWyM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 401 530.</t>
+          <t>Bateau Pirate Touristique Hannibal is a tourist attraction located in sousse (Tunisia) at the coordinates (48.2211473, 14.2370905). It offers a unique and unforgettable experience aboard a pirate ship. The ship sails daily from 08:00 to 18:00, and offers a variety of activities for all ages, including swimming, sunbathing, and exploring the ship's many decks. The ship also features a bar and restaurant, where guests can enjoy a variety of food and drinks while taking in the stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -11184,7 +11111,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Restaurant tapas Jobi located at Av. Hedi Chaker, Sousse 4000. This top-rated destination is perfect for Bar a tapas lovers and offers a range of Bar a tapas to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-02:00, but closed on []. To get there, use these GPS coordinates: 35.837646759692, 10.635371378284. For more details, visit their website at nan or call them at 58 401 401.</t>
+          <t>Restaurant tapas Jobi is a bar a tapas located in Sousse (Tunisia). It offers a wide range of tapas in a friendly and warm atmosphere. The restaurant is open from 12:00 pm to 2:00 am, and it is closed on . The average rating of the restaurant is 3.1 based on 70 reviews.</t>
         </is>
       </c>
     </row>
@@ -11291,9 +11218,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Trattoria Da Franco tarek boukari located at shr` lSdq lmqdm bHy, Sousse. 
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/Trattoria-da-Franco-317848055056730/ or call them at 22 555 321.</t>
+          <t>Trattoria Da Franco tarek boukari is a seafood restaurant located in sousse, Tunisia. It offers a wide variety of seafood dishes, including grilled fish, pasta with seafood, and seafood platters. The restaurant is located near the sea, and offers beautiful views of the Mediterranean Sea. It is a popular spot for tourists and locals alike, and is known for its delicious food and friendly service.</t>
         </is>
       </c>
     </row>
@@ -11400,7 +11325,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to eat, check out La Marmite located at RJJQ+7WH Rue Remada. This top-rated destination is perfect for Restaurant lovers with a rating of 3.8. It's open during these hours: 10:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.830305905934, 10.639860234521. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 20 244 014.</t>
+          <t>La Marmite is a restaurant with a rating of 3.8, located in Sousse, Tunisia (35.830305905934, 10.639860234521). It is described as a restaurant offering Tunisian cuisine, with a focus on fish dishes. The owner of the restaurant is La Marmite (proprietaire). The restaurant is open from 10:00 to 00:00 and is closed on an unspecified day. It has received 65 reviews and has a website at https://best--restaurants.blogspot.com/. It has a featured image at https://lh5.googleusercontent.com/p/AF1QipNbA52pYpEhPWqnaoYt2RXRLSA-a6GqFTrVdTuj=w408-h544-k-no. The main categories associated with the restaurant are Restaurant. The review keywords associated with the restaurant are prix (price), poisson (fish), and tunisienne (Tunisian).</t>
         </is>
       </c>
     </row>
@@ -11499,7 +11424,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated restaurant, check out Le poisson d'or. This beloved spot is located at Rue Avicenne, Sousse and offers a range of options for Restaurant lovers. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 11:00-16:00, but closed on dimanche. To get there, use these GPS coordinates: 35.829314645455, 10.642565293738. For more details, visit their website at https://www.google.com/maps/place/Le+poisson+d%27or/data=!4m7!3m6!1s0x13027574b38f19b5:0x11b8f8ffdd91c01e!8m2!3d35.8289345!4d10.6419921!16s%2Fg%2F1tnxz55b!19sChIJtRmPs3R1AhMRHsCR3f_4uBE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Le poisson d'or, a restaurant located in Sousse, Tunisia, offers a delightful culinary experience specializing in seafood dishes. With a 4.9-star rating based on 40 reviews, it stands as a recommended dining destination in the area. Open from 11:00 to 16:00 during weekdays, the restaurant is closed on Sundays. While the website and phone number are unavailable, you can find them at Rue Avicenne in Sousse, Tunisia. For more information, visit their Google Maps page at https://www.google.com/maps/place/Le+poisson+d%27or/data=!4m7!3m6!1s0x13027574b38f19b5:0x11b8f8ffdd91c01e!8m2!3d35.8289345!4d10.6419921!16s%2Fg%2F1tnxz55b!19sChIJtRmPs3R1AhMRHsCR3f_4uBE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -11602,8 +11527,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a highly-rated Restaurant, check out Le Must Restaurant &amp; Lounge located at 30 Habeeb Burguiba St, Sousse. 
-With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 5.5679466, -0.1742101. For more details, visit their website at http://www.shdthotels.com/ or call them at 58 260 260.</t>
+          <t>Le Must Restaurant &amp; Lounge in Sousse, Tunisia, is a casual dining establishment offering a variety of dishes. Located at 30 Habeeb Burguiba Street, it has received mixed reviews from customers and is rated 3.1 out of 5 stars. It features a prominent online presence with a website and active Google Maps listing, managed by its proprietor, Le Must Restaurant &amp; Lounge (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -11698,11 +11622,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Qg located at RJFM+RR4 Qg.
- This top-rated destination is perfect for Restaurant de fruits de mer lovers.
-With a rating of 4.3, it's a must-visit spot.
-To get there, use these GPS coordinates: 35.8293001, 10.6406309.
-For more details, visit their website at https://www.google.com/maps/place/Qg/data=!4m7!3m6!1s0x13027572e9231b39:0x539cb5c8bc7a3d32!8m2!3d35.8245029!4d10.634584!16s%2Fg%2F11tcfh8ftx!19sChIJORsj6XJ1AhMRMj16vMi1nFM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Qg is a renowned seafood restaurant located in the vibrant city of Sousse, Tunisia. It boasts a 4.3-star rating based on numerous positive reviews. With its prime location at RJFM+RR4, it offers a convenient dining experience. Qg's primary focus is on serving delectable seafood dishes, tantalizing the taste buds of seafood enthusiasts. The restaurant's geolocation is at (35.8293001, 10.6406309), making it easily accessible for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -11805,10 +11725,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in sousse, check out Ribat de Sousse, a top-rated historical site. 
-Located at RJHQ+3G7 Ribat de Sousse, it's open from 08:00-17:00 and offers a panoramic view from its tower. 
-With a rating of 4.4, this must-visit spot is perfect for history buffs. 
-For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Ribat de Sousse is a small fort built in the 8th century and expanded in 821. Located in Sousse, Tunisia, it features a tower that offers a panoramic view of the city. The fort is a popular tourist attraction and has been reviewed 3223 times on Google. Its main category is Historical Site, and it also falls under the categories of Historical Place, Local History Museum, Monument, and Tourist Attraction. The Ribat de Sousse is open from 8:00 AM to 5:00 PM and is closed on Mondays.</t>
         </is>
       </c>
     </row>
@@ -11915,9 +11832,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse.
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>The Musée archéologique de Sousse is a must-see when visiting Sousse. This small museum located in a historic kasbah showcases ancient Tunisian mosaics, relics and artifacts. The featured pieces are statues, pottery and a baptistery. Open from 9:00AM to 5:00PM, the museum is conveniently located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. Please note that the museum is closed on Mondays.</t>
         </is>
       </c>
     </row>
@@ -12016,7 +11931,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out La Grande Mosquee de Sousse located at RJGQ+QWV La Grande Mosquee de Sousse, Rue Othmane Osmane, Sousse. This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee, Lieu historique, Attraction touristique to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-03:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/La+Grande+Mosqu%C3%A9e+de+Sousse/data=!4m7!3m6!1s0x130275730ca91f93:0x337bf9c959749a69!8m2!3d35.8269889!4d10.6397833!16s%2Fg%2F121x70mk!19sChIJkx-pDHN1AhMRaZp0Wcn5ezM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Discover La Grande Mosquee de Sousse, a historical landmark and popular tourist attraction in the city of sousse, Tunisia. Located at coordinates (35.8293001, 10.6406309), this iconic mosque boasts an impressive architectural design and is a significant religious site. With 717 reviews and a rating of 4.5, it's highly regarded by visitors.</t>
         </is>
       </c>
     </row>
@@ -12123,7 +12038,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts. This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 220 529.</t>
+          <t>Musée Dar Essid is an art museum in Sousse, Tunisia, located at (35.8293001, 10.6406309). The museum exhibits regional art, ancient objects and historical exhibits on daily life in a famous palace. It has received 216 reviews and has a rating of 4.4. The museum is open from 10:00-18:00 and is closed on []. It is a popular tourist attraction and offers tours in different languages. The museum also features a terrace and a view of the city.</t>
         </is>
       </c>
     </row>
@@ -12218,7 +12133,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Mosquee Bou Ftata located at Mosquee Bou Ftata, Sousse. This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee, Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.823079642743, 10.638534271075. For more details, visit their website at nan or call them at nan.</t>
+          <t>Mosquée Bou Ftata is a popular mosque in Sousse, Tunisia. Get directions, reviews and information for Mosquée Bou Ftata in Sousse on Google Maps. It has a rating of 4.4 with 18 reviews and is located at the coordinates (35.823079642743, 10.638534271075).</t>
         </is>
       </c>
     </row>
@@ -12313,7 +12228,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place of worship, check out Zaouia Zakkak located at Zaouia Zakkak, Zaouia Zakkar, Rue el Aghalba. This top-rated destination is perfect for Mosquee lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.826320016071, 10.636878551754. For more details, visit their website at https://www.google.com/maps/place/Zaouia+Zakkak/data=!4m7!3m6!1s0x13027573eb270e43:0x91ae6349ff193df1!8m2!3d35.8272113!4d10.6378902!16s%2Fg%2F1vvmm4h2!19sChIJQw4n63N1AhMR8T0Z_0ljrpE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Zaouia Zakkak is a mosque located in Zaouia Zakkar, Rue el Aghalba, Sousse, Tunisia. It has a 4.6 rating based on 9 reviews. The mosque offers various services and is open during regular hours. It is easily accessible due to its convenient location.</t>
         </is>
       </c>
     </row>
@@ -12408,7 +12323,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Monument des Martyrs located at RJHR+384 Monument des Martyrs, Sousse. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Monument+des+Martyrs/data=!4m7!3m6!1s0x130275cd53153007:0x8d47856f7b8fa7b7!8m2!3d35.8275651!4d10.6408767!16s%2Fg%2F11s5nw84bm!19sChIJBzAVU811AhMRt6ePe2-FR40?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Monument des Martyrs in Sousse, Tunisia, is a poignant tribute to the victims of past conflicts. Located at coordinates (35.8293001, 10.6406309), this historical landmark holds great significance in the city's history. While further information about the monument's offerings and website remains unavailable, visitors can immerse themselves in its historical and commemorative value.</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12426,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a fascinating historical destination, visit the Ribat de Sousse. Located at RJHQ+3G7 Ribat de Sousse, Sousse, this prominent site is a must-see for history buffs and culture enthusiasts. With a well-deserved rating of 4.4, it's a top-rated attraction that offers a unique blend of historical significance and architectural beauty. The Ribat de Sousse is open daily from 8:00 AM to 5:00 PM, inviting you to explore its rich heritage and captivating allure. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ribat de Sousse is a historical site in sousse, Tunisia, that offers a panoramic view. It was built in the 8th century and enlarged in 821. It is a small fort with a tower that is open to the public. The site is rated 4.4 out of 5 stars by visitors, and it is a popular tourist destination. Visitors can expect to find a museum, a mosque, and a market at the site.</t>
         </is>
       </c>
     </row>
@@ -12614,7 +12529,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Ribat de Sousse located at RJHQ+3G7 Ribat de Sousse, Sousse. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Lieu historique, Musee d'histoire locale, Monument, Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on . To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Ribat of Sousse is a historical site located in Sousse, Tunisia. Built in the 8th century, this fortress includes a tower offering a panoramic view of the surroundings. Close to the Ribat is a busy market and a port, favorable for the trade of various goods.</t>
         </is>
       </c>
     </row>
@@ -12717,9 +12632,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Ribat de Sousse located at RJHQ+3G7 Ribat de Sousse, Sousse. 
-This top-rated destination is perfect for Site historique lovers and offers a range of  Site historique, Lieu historique, Musee d'histoire locale, Monument, Attraction touristique to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-17:00. To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in Sousse, the Ribat de Sousse is a historical site built in the 8th century and expanded in 821. This small fort features a tower that provides panoramic views of the surrounding area. A popular tourist destination, the Ribat de Sousse is surrounded by a bustling market where visitors can purchase souvenirs and local goods.</t>
         </is>
       </c>
     </row>
@@ -12822,9 +12735,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a historical adventure, check out Ribat de Sousse located at RJHQ+3G7. 
-This top-rated destination is perfect for history enthusiasts and offers a range of categories to choose from, including Site historique, Lieu historique, Musee d'histoire locale, Monument, and Attraction touristique. 
-With a rating of 4.4 and 3223 reviews, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on . To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at  or call them at .</t>
+          <t>Ribat de Sousse, located in Sousse, Tunisia, is a historical site built in the 8th century and enlarged in 821. It is a small fort with a tower offering panoramic views of the surrounding area. The Ribat is a popular tourist destination, with over 3200 reviews on Google. It is open from 8:00 AM to 5:00 PM and is closed on Fridays. The Ribat is located near the port and the medina, and is surrounded by shops, restaurants, and cafes.</t>
         </is>
       </c>
     </row>
@@ -12919,7 +12830,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated tourist attraction, check out Monument des Martyrs located at RJHR+384 Monument des Martyrs, Sousse. With a rating of 4.0, it's a must-visit spot for tourist attraction lovers. For more details, visit their website at https://www.google.com/maps/place/Monument+des+Martyrs/data=!4m7!3m6!1s0x130275cd53153007:0x8d47856f7b8fa7b7!8m2!3d35.8275651!4d10.6408767!16s%2Fg%2F11s5nw84bm!19sChIJBzAVU811AhMRt6ePe2-FR40?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Monument des Martyrs, a popular attraction in Sousse, Tunisia, is a tribute to the martyrs of Tunisia's struggle for independence from French colonial rule. Its prominent location at the coordinates (35.8293001, 10.6406309) makes it a well-known landmark in the city.</t>
         </is>
       </c>
     </row>
@@ -13022,9 +12933,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Ribat de Sousse located at RJHQ+3G7 Ribat de Sousse, Sousse. 
-This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-17:00. To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ribat of Sousse, built in the 8th century and expanded in 821, is a small fort with a tower overlooking the city. Located in Sousse, at coordinates (35.837072197272, 10.632000104819), it's a popular tourist attraction offering a panoramic view of the surroundings.</t>
         </is>
       </c>
     </row>
@@ -13127,7 +13036,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee magic eye 3D located at RJHR+36J Musee magic eye 3D, Sousse. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-19:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 23 635 000.</t>
+          <t>Situated at the coordinates (35.8293001, 10.6406309) in Sousse, Tunisia, Musee magic eye 3D is a popular tourist attraction. It offers a unique experience with its captivating 3D illusions, making it an unforgettable destination for families and individuals seeking entertainment.</t>
         </is>
       </c>
     </row>
@@ -13234,7 +13143,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Musee d'histoire locale, 'Musee', and Attraction touristique. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website or call them at 73 220 529.</t>
+          <t>The Musee Dar Essid, situated in the heart of Sousse (lon: 10.6406309, lat: 35.8293001), is housed in a historic palace and offers visitors a unique glimpse into the local culture and history. The museum showcases a variety of regional art, antique objects, and historical exhibits that tell the story of everyday life in the city. With a 4.4 rating based on 216 reviews and notable review keywords like "tour" and "demeure," the Musee Dar Essid invites visitors to immerse themselves in the rich heritage of Sousse.</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13238,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Monument des Martyrs located at RJHR+384, Monument des Martyrs, Sousse. This top-rated destination is perfect for Attraction touristique lovers and offers a range of attractions to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: (35.8293001, 10.6406309). For more details, visit their website at https://www.google.com/maps/place/Monument+des+Martyrs/data=!4m7!3m6!1s0x130275cd53153007:0x8d47856f7b8fa7b7!8m2!3d35.8275651!4d10.6408767!16s%2Fg%2F11s5nw84bm!19sChIJBzAVU811AhMRt6ePe2-FR40?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Monument des Martyrs is a popular tourist attraction located in the city of sousse, Tunisia. It is situated at the coordinates (35.8293001, 10.6406309). The monument is a tribute to the martyrs who fought for the country's independence. It is a popular spot for tourists and locals alike, and it offers stunning views of the city.</t>
         </is>
       </c>
     </row>
@@ -13432,7 +13341,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a historical adventure, check out Ribat de Sousse located at RJHQ+3G7 Ribat de Sousse, Sousse. This top-rated destination is perfect for Site historique enthusiasts and offers a range of Site historique, Lieu historique, Musee d'histoire locale, Monument, Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on None. To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Explore the Ribat de Sousse, a historic 8th-century fort located at (35.837072197272, 10.632000104819) in the heart of Sousse. Admire the panoramic views from its majestic tower. With 4.4-star ratings from 3223 reviews, this UNESCO World Heritage Site offers a captivating blend of history and culture. Open from 8:00 AM to 5:00 PM, the Ribat greets visitors with its enchanting blend of architectural beauty and historical significance.</t>
         </is>
       </c>
     </row>
@@ -13535,9 +13444,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Ribat de Sousse located at RJHQ+3G7 Ribat de Sousse, Sousse. 
-This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique, Lieu historique, Musee d'histoire locale, Monument, and Attraction touristique. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on []. To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the southern coastal city of Sousse, Ribat de Sousse is a historic fortress built in the 8th century and later expanded in 821 AD. Standing at 35.837072197272 latitude and 10.632000104819 longitude, the small fort features a prominent tower that provides panoramic views. This site attracts visitors with its rich history and offers a glimpse into the region's cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -13640,7 +13547,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you visit Sousse, consider exploring Ribat de Sousse, a historical site located at RJHQ+3G7 Ribat de Sousse. This top-rated destination (4.4 stars) is perfect for history enthusiasts and offers a range of categories to explore, including historical landmarks, monuments, local history museums, and tourist attractions. It's open daily from 8 AM to 5 PM and features a tower with panoramic views. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Ribat of Sousse is a historic fortress located in Sousse, Tunisia (35.837072197272, 10.632000104819). Built in the 8th century, this small fort features a tower that offers panoramic views of the city. The Ribat has a rating of 4.4 based on 3223 reviews, and is a popular tourist attraction for its historical significance and architectural beauty.</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13642,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Monument des Martyrs located at RJHR+384 Monument des Martyrs. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Monument+des+Martyrs/data=!4m7!3m6!1s0x130275cd53153007:0x8d47856f7b8fa7b7!8m2!3d35.8275651!4d10.6408767!16s%2Fg%2F11s5nw84bm!19sChIJBzAVU811AhMRt6ePe2-FR40?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Monument des Martyrs is a prominent tourist attraction situated in Sousse, Tunisia. Located at coordinates (35.8293001, 10.6406309), it serves as a memorial dedicated to the memory of those who fought for the nation's independence. This beloved landmark invites visitors to contemplate the sacrifices made during the fight for freedom and delve into the rich history of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -13842,9 +13749,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique, Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>Discover the Musée archéologique de Sousse, a captivating museum housed within a historic kasbah. Immerse yourself in the rich cultural heritage of Sousse, Tunisia, through its collection of exquisite mosaics, ancient relics, and artifacts. Located at 35.8293001, 10.6406309, this museum offers an unforgettable journey into the past, showcasing the artistry and craftsmanship of ancient civilizations.</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13852,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee magic eye 3D located at RJHR+36J Musee magic eye 3D, Sousse. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from, including Musee and Attraction touristique. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-19:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+magic+eye+3D/data=!4m7!3m6!1s0x13027573669537d5:0x995d83e9c2e82170!8m2!3d35.82771!4d10.6405059!16s%2Fg%2F11gdjprcvb!19sChIJ1TeVZnN1AhMRcCHowumDXZk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 635 000.</t>
+          <t>Musee magic eye 3D is a popular tourist attraction located in sousse, Tunisia. It features a collection of 3D paintings, sculptures, and other exhibits that are designed to create an immersive and interactive experience for visitors. The museum is open from 9 am to 7 pm, and it offers a unique and memorable experience for people of all ages. With its convenient location and affordable prices, Musee magic eye 3D is a must-see for visitors to sousse.</t>
         </is>
       </c>
     </row>
@@ -14054,7 +13959,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. This top-rated destination with a rating of 4.4 is perfect for Musee d'art lovers and also offers a range of other categories to choose from such as Musee d'histoire locale, Musee, and Attraction touristique. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Essid/data=!4m7!3m6!1s0x1302757aac617633:0x18fc04d0e4629581!8m2!3d35.827142!4d10.6355029!16s%2Fg%2F12lnj4jw0!19sChIJM3ZhrHp1AhMRgZVi5NAE_Bg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 220 529.</t>
+          <t>Musée Dar Essid is located in Sousse, Tunisia. This art museum showcases regional art, antiques, and historical exhibits on daily life in a renowned palace. It offers guided tours and has received positive reviews for its rich cultural experience. Visitors can expect to explore the palace's architecture, view traditional Tunisian artifacts, and gain insights into the history and customs of the region.</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14058,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out musee El Kobba located at RJGQ+27P musee El Kobba. This top-rated destination is perfect for Musee d'histoire locale lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on vendredi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/mus%C3%A9e+El+Kobba/data=!4m7!3m6!1s0x1302757248cfed87:0xdb7f8d0a89b92547!8m2!3d35.8250945!4d10.6381903!16s%2Fg%2F11f3n38bw7!19sChIJh-3PSHJ1AhMRRyW5iQqNf9s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of sousse, the musee El Kobba offers a captivating glimpse into the rich history of the region. With its 81 positive reviews and a rating of 4.2, the museum is a must-visit destination for history enthusiasts. Open from 08:00-18:00 daily, except on Fridays, the musee El Kobba is easily accessible and conveniently located at RJGQ+27P in the city.</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14161,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dar Am Taieb Musee prive d'art contemporain located at Dar Am Taieb Musee prive d'art contemporain, bohsina, Rue ali ben ghedahem, Sousse 4000. This top-rated destination is perfect for Musee d'art moderne lovers. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-17:30. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at https://www.google.com/maps/place/Dar+Am+Taieb+Musee+prive+d%27art+contemporain/data=!4m7!3m6!1s0x13027511517e90c3:0x80264b3520088552!8m2!3d35.8211033!4d10.6302605!16s%2Fg%2F11q9k8yhw3!19sChIJw5B-URF1AhMRUoUIIDVLJoA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 960 944.</t>
+          <t>Dar Am Taieb is a private contemporary art museum located in Sousse, Tunisia. It showcases a diverse collection of artworks, including paintings, sculptures, and installations, by renowned Tunisian and international artists. The museum's mission is to promote and preserve contemporary art in the region and provide a space for artistic expression and dialogue. It welcomes visitors from all backgrounds and offers guided tours and educational programs. Immerse yourself in the vibrant art scene of Sousse at Dar Am Taieb!</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14256,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out dr `m lTyb llfn lm`Sr located at Rue Jalta, Sousse. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B9%D9%85+%D8%A7%D9%84%D8%B7%D9%8A%D8%A8+%D9%84%D9%84%D9%81%D9%86+%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D8%B5%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x13027571c7a5b695:0x143410b7fc59d690!8m2!3d35.8211861!4d10.6302069!16s%2Fg%2F11f3w6q9h6!19sChIJlbalx3F1AhMRkNZZ_LcQNBQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>dr `m lTyb llfn lm`Sr is a museum located in Sousse, Tunisia. It offers a variety of exhibits on the history and culture of the region. The museum is open to the public from Tuesday to Sunday, and admission is free.</t>
         </is>
       </c>
     </row>
@@ -14442,9 +14347,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Zaouia Sidi Bouraoui located at RJGP+9X5 Zaouia Sidi Bouraoui, Rue el Aghalba, Sousse. 
-This top-rated destination is perfect for Musee lovers. 
-With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Zaouia+Sidi+Bouraoui/data=!4m7!3m6!1s0x1302753822bc1a41:0x2228db83c7875bb7!8m2!3d35.8258823!4d10.6374984!16s%2Fg%2F11kwr445xv!19sChIJQRq8Ijh1AhMRt1uHx4PbKCI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in the heart of Sousse, Zaouia Sidi Bouraoui is a historic museum offering an insight into the rich cultural and religious heritage of the city. With a rating of 4.5 stars based on 2 reviews, the museum provides an interactive experience for visitors to delve into the local history and traditions of Sousse. Situated at RJGP+9X5, Zaouia Sidi Bouraoui, Rue el Aghalba, Sousse, the museum's exact coordinates are (35.826320016071, 10.636878551754), making it easily accessible for exploration.</t>
         </is>
       </c>
     </row>
@@ -14551,9 +14454,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique, Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>In Sousse’s historical Kasbah, Musée Archéologique De Sousse is a hidden gem that showcases Tunisia's rich past. With a collection that spans centuries, including intricate mosaics, religious artifacts, and ancient tools, it offers an immersive journey through time. Located at RJFP+644 Musee archeologique de Sousse (35.8293001, 10.6406309), the museum welcomes visitors from Tuesday to Sunday, from 9 AM to 5 PM. With an impressive rating of 4.6 stars and 816 reviews, this museum is a must-visit for history enthusiasts. Take advantage of their insights on TripAdvisor, where they frequently mention the extraordinary mosaics, antique finds, and exceptional value.</t>
         </is>
       </c>
     </row>
@@ -14656,9 +14557,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for some family fun, check out Musee magic eye 3D located at RJHR+36J Musee magic eye 3D, Sousse. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website or call them at 23 635 000.</t>
+          <t>The Musée Magic Eye 3D is a museum located in Sousse, Tunisia. It features a collection of 3D optical illusions and interactive exhibits, making it a great place to visit for families and anyone interested in art and science. The museum is open daily from 9am to 7pm.</t>
         </is>
       </c>
     </row>
@@ -14765,9 +14664,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Musee d'art, Musee d'histoire locale, Musee, and Attraction touristique. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at  or call them at 73 220 529.</t>
+          <t>The Musée Dar Essid is situated in the heart of Sousse, at the following coordinates: (35.8293001, 10.6406309). It is a remarkable museum dedicated to regional art. Visitors can explore its collection of antique objects and delve into historical exhibitions that provide insights into the everyday life of the past. This captivating museum is housed within a famous palace, offering a glimpse into the architectural heritage of the region.</t>
         </is>
       </c>
     </row>
@@ -14866,9 +14763,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out musee El Kobba located at RJGQ+27P musee El Kobba. 
-This top-rated destination is perfect for Musee d'histoire locale lovers and offers a range of Musee d'histoire locale and Attraction touristique to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on vendredi. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Discover the museum El Kobba in Sousse, Tunisia, a local history museum showcasing the city's rich past. Situated at (35.8293001, 10.6406309), this museum offers an enriching experience, open from 08:00-18:00 daily, except for Fridays.</t>
         </is>
       </c>
     </row>
@@ -14971,9 +14866,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dar Am Taieb Musee prive d'art contemporain located at Dar Am Taieb Musee prive d'art contemporain, bohsina, Rue ali ben ghedahem, Sousse 4000. 
-This top-rated destination is perfect for Musee d'art moderne lovers and offers a range of Musee d'art moderne to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-17:30. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at https://www.google.com/maps/place/Dar+Am+Taieb+Musee+prive+d%27art+contemporain/data=!4m7!3m6!1s0x13027511517e90c3:0x80264b3520088552!8m2!3d35.8211033!4d10.6302605!16s%2Fg%2F11q9k8yhw3!19sChIJw5B-URF1AhMRUoUIIDVLJoA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 960 944.</t>
+          <t>Dar Am Taieb is a private contemporary art gallery located in the bohsina district of sousse, approximately 35.8177614° N, 10.6402245° E. This gallery displays artwork exclusively created by Mohamed Am Taieb, showcasing his interpretation of modern art through various artistic mediums. Visitors can expect to encounter a diverse collection of paintings, sculptures, and installations. The gallery is generally open daily from 09:00 to 17:30.</t>
         </is>
       </c>
     </row>
@@ -15068,7 +14961,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out dr `m lTyb llfn lm`Sr located at RJCJ+F3G dr `m lTyb llfn lm`Sr, Rue Jalta. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.820702135135, 10.628882320954. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B9%D9%85+%D8%A7%D9%84%D8%B7%D9%8A%D8%A8+%D9%84%D9%84%D9%81%D9%86+%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D8%B5%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x13027571c7a5b695:0x143410b7fc59d690!8m2!3d35.8211861!4d10.6302069!16s%2Fg%2F11f3w6q9h6!19sChIJlbalx3F1AhMRkNZZ_LcQNBQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Dr `m lTyb llfn lm`Sr** is a museum located in Sousse, Tunisia. It has a rating of 4.9 out of 5 and has been reviewed 10 times. Unfortunately, there is no additional information or description available for this museum.</t>
         </is>
       </c>
     </row>
@@ -15175,9 +15068,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website or call them at 73 220 529.</t>
+          <t>The "Musée Dar Essid" is an art and local history museum located in Sousse, Tunisia. It is housed in a famous palace and showcases regional art, ancient objects, and historical exhibits on everyday life. Visitors can explore the museum's collection of paintings, sculptures, and artifacts while admiring the palace's architecture and design. The museum offers guided tours in multiple languages, providing insights into the history and culture of the region. It is situated at the coordinates (35.8293001, 10.6406309) and is easily accessible from the city center.</t>
         </is>
       </c>
     </row>
@@ -15284,9 +15175,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+arch%C3%A9ologique+de+Sousse/data=!4m7!3m6!1s0x1302756e14a29b43:0x95725ebc8992d29f!8m2!3d35.8230114!4d10.6353131!16s%2Fm%2F05b05cn!19sChIJQ5uiFG51AhMRn9KSibxecpU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 219 011.</t>
+          <t>Musée Archéologique in Sousse is a small museum located inside a historic casbah, showcasing a collection of antique objects, relics, and beautiful mosaics. It's located at RJFP+644, Rue Abou Kacem Echabi in Sousse, Tunisia, with coordinates (35.8293001, 10.6406309). The museum is open daily from 9:00 am to 5:00 pm, except on Mondays. Visitors can explore the diverse collection of artifacts and admire the intricate craftsmanship of ancient artisans.</t>
         </is>
       </c>
     </row>
@@ -15393,9 +15282,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Musee d'art, Musee d'histoire locale, Musee and Attraction touristique. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Essid/data=!4m7!3m6!1s0x1302757aac617633:0x18fc04d0e4629581!8m2!3d35.827142!4d10.6355029!16s%2Fg%2F12lnj4jw0!19sChIJM3ZhrHp1AhMRgZVi5NAE_Bg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 220 529.</t>
+          <t>Musée Dar Essid, located in Sousse (35.8293001, 10.6406309), is a renowned art museum that showcases regional artistry, antique objects, and historical exhibits on daily life. Housed within a magnificent palace, it offers a captivating insight into the region's cultural heritage through its diverse collection of artifacts and displays. Visitors can expect a memorable experience exploring the museum's rich exhibitions and appreciating the beauty of its surroundings.</t>
         </is>
       </c>
     </row>
@@ -15502,9 +15389,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a captivating cultural experience, visit Musee Dar Essid, located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts. This acclaimed museum boasts a rating of 4.4 and is a haven for art and history enthusiasts.
-Explore regional art and delve into historical exhibits showcasing the daily lives of the past. Admire ancient artifacts and immerse yourself in the captivating ambiance of this renowned palace. Open daily from 10:00-18:00, it's an opportunity to discover the rich heritage of sousse.
-For further details, visit their website or call them at 73 220 529. Don't miss the opportunity to enrich your knowledge and experience the allure of Musee Dar Essid.</t>
+          <t>Nestled in Sousse, Tunisia, the Musee Dar Essid is an art museum housed in a magnificent palace. Immerse yourself in regional art, marvel at ancient artifacts, and delve into captivating historical exhibitions that showcase the rich tapestry of everyday life. With its captivating exhibits and serene ambiance, Musee Dar Essid offers a unique and enriching experience in the heart of Tunisia's coastal city.</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15484,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out dr `m lTyb llfn lm`Sr located at Rue Jalta, Sousse. This top-rated destination is perfect for Musee lovers with a rating of 4.9. To get there, use these GPS coordinates: 35.820702135135, 10.628882320954. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B9%D9%85+%D8%A7%D9%84%D8%B7%D9%8A%D8%A8+%D9%84%D9%84%D9%81%D9%86+%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D8%B5%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x13027571c7a5b695:0x143410b7fc59d690!8m2!3d35.8211861!4d10.6302069!16s%2Fg%2F11f3w6q9h6!19sChIJlbalx3F1AhMRkNZZ_LcQNBQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Dr `m lTyb llfn lm`Sr is a highly-rated museum located in Sousse, Tunisia. It offers a unique and immersive experience, with 10 reviews praising its quality. The museum's exact location is at RJCJ+F3G dr `m lTyb llfn lm`Sr, Rue Jalta, Sousse, and it is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -15706,9 +15591,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique, Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>The Archaeological Museum of Sousse is a museum housed in a historic kasbah. Located in the latitude 35.8293001 and longitude 10.6406309, its coordinates precisely pinpoint its location. The establishment showcases a fascinating collection that includes ancient artifacts, exquisite mosaics, and relics. This popular tourist destination has garnered an impressive 816 reviews and boasts a remarkable rating of 4.6. Visitors can immerse themselves in the rich tapestry of history within its walls, while exploring the captivating exhibits that await them.</t>
         </is>
       </c>
     </row>
@@ -15811,9 +15694,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee magic eye 3D located at RJHR+36J Musee magic eye 3D. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. 
-It's open during these hours: 09:00-19:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+magic+eye+3D/data=!4m7!3m6!1s0x13027573669537d5:0x995d83e9c2e82170!8m2!3d35.82771!4d10.6405059!16s%2Fg%2F11gdjprcvb!19sChIJ1TeVZnN1AhMRcCHowumDXZk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 635 000.</t>
+          <t>Musee magic eye 3D is a museum located in Sousse, Tunisia, at coordinates (35.8293001, 10.6406309). It offers a unique and immersive experience for visitors of all ages, featuring interactive 3D exhibits and displays. The museum is open daily from 9 AM to 7 PM and has received positive reviews from visitors, with an average rating of 4.3.</t>
         </is>
       </c>
     </row>
@@ -15920,9 +15801,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Musee d'art and Musee d'histoire locale. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 220 529.</t>
+          <t>Musee Dar Essid is an art museum located in Sousse, Tunisia. It has 3513 reviews, primarily focusing on its regional art, antique objects, and historical exhibits on daily life. The museum is highly rated, receiving 4.4 stars. It is open from 10:00 to 18:00 daily and has a featured image available. Musee Dar Essid is located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts, and its main category is an art museum.</t>
         </is>
       </c>
     </row>
@@ -16021,7 +15900,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in sousse, check out musee El Kobba, located at RJGQ+27P musee El Kobba, Sousse. This top-rated destination is perfect for Musee d'histoire locale lovers and offers a range of categories to choose from, including Musee d'histoire locale and Attraction touristique. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on vendredi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/mus%C3%A9e+El+Kobba/data=!4m7!3m6!1s0x1302757248cfed87:0xdb7f8d0a89b92547!8m2!3d35.8250945!4d10.6381903!16s%2Fg%2F11f3n38bw7!19sChIJh-3PSHJ1AhMRRyW5iQqNf9s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Musée El Kobba is a local history museum located in sousse, Tunisia. It offers a glimpse into the region's past, with exhibits on topics such as archaeology, history, and culture. The museum is open daily from 8am to 6pm, except on Fridays. It is located at RJGQ+27P, musee El Kobba, Sousse.</t>
         </is>
       </c>
     </row>
@@ -16124,7 +16003,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dar Am Taieb Musee prive d'art contemporain located at Dar Am Taieb Musee prive d'art contemporain, bohsina, Rue ali ben ghedahem, Sousse 4000. This top-rated destination is perfect for Musee d'art moderne lovers and offers a range of Musee d'art moderne to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-17:30, but closed on Fridays. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, call them at 98 960 944.</t>
+          <t>Dar Am Taieb is a private contemporary art museum located in sousse, Tunisia at the coordinates (35.8177614, 10.6402245). It is open from 9 AM to 5:30 PM and closed on all days. The museum hosts 30 reviews with an average rating of 4.9. It features works from various artists and offers a unique experience for visitors interested in modern art.</t>
         </is>
       </c>
     </row>
@@ -16219,9 +16098,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out dr `m lTyb llfn lm`Sr located at RJCJ+F3G dr `m lTyb llfn lm`Sr, Rue Jalta, Sousse. 
-This top-rated destination is perfect for Musee lovers. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.820702135135, 10.628882320954.</t>
+          <t>Discover the dr `m lTyb llfn lm`Sr Museum, a renowned cultural institution located in Sousse. This museum boasts a captivating collection of exhibits that showcase the rich history of the region. Set amidst Rue Jalta, the museum offers visitors a glimpse into the past while providing a vibrant space for cultural exchange.</t>
         </is>
       </c>
     </row>
@@ -16328,7 +16205,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for something fun to do, check out Musée Dar Essid located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts. This top-rated destination is perfect for Art museum lovers and offers a range of categories to choose from, including Art museum, Local history museum, Museum, Tourist attraction. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at  or call them at 73 220 529.</t>
+          <t>The Musée Dar Essid, located in Sousse, Tunisia, is a renowned art museum showcasing regional art, historical artifacts, and captivating exhibits that explore the fascinating daily life of the past. Set within the magnificent Dar Essid palace, this museum invites visitors to delve into the city's rich history and culture.</t>
         </is>
       </c>
     </row>
@@ -16435,7 +16312,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Musee d'histoire locale, Musee, and Attraction touristique. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Essid/data=!4m7!3m6!1s0x1302757aac617633:0x18fc04d0e4629581!8m2!3d35.827142!4d10.6355029!16s%2Fg%2F12lnj4jw0!19sChIJM3ZhrHp1AhMRgZVi5NAE_Bg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 220 529.</t>
+          <t>In the heart of Sousse, immerse yourself in Tunisian culture at Musee Dar Essid. Explore the grand palace's adorned rooms and courtyards, where regional art, ancient artifacts, and captivating historical exhibits bring the past to life. Discover the daily routines of the palace's former inhabitants and delve into the rich tapestry of Sousse's traditions and heritage. Located at (35.8293001, 10.6406309), the museum offers a fascinating glimpse into the city's past, present, and future.</t>
         </is>
       </c>
     </row>
@@ -16542,9 +16419,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at nan or call them at 73 220 529.</t>
+          <t>Dar Essid is a museum located in Sousse, Tunisia (35.8293001, 10.6406309). It showcases regional art, historical exhibits on daily life, and antique objects, housed in a renowned palace building. The museum offers insight into the architectural and cultural heritage of Sousse, providing visitors with an immersive glimpse into the past.</t>
         </is>
       </c>
     </row>
@@ -16651,7 +16526,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at Rue Abou Kacem Echabi, Sousse. This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique, Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website or call them at 73 219 011.</t>
+          <t>Nestled in the heart of Sousse's historic Kasbah, Musée Archéologique de Sousse is a petite museum that transports visitors back in time. Step inside to explore an impressive collection of ancient mosaics, relics, and artifacts that narrate the rich history of the region. This must-visit attraction offers an insightful glimpse into the past and boasts a convenient location in the bustling city center.</t>
         </is>
       </c>
     </row>
@@ -16754,7 +16629,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee magic eye 3D located at RJHR+36J Musee magic eye 3D, Sousse. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from, including Musee and Attraction touristique. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at [] or call them at 23 635 000.</t>
+          <t>Musee magic eye 3D is a museum located in Sousse, Tunisia. It offers a unique experience for visitors of all ages. The museum features a variety of 3D illusions and optical illusions that will amaze and entertain visitors. The museum is also a great place to take photos and videos. Located at the coordinates (35.8293001, 10.6406309), the museum is open from 09:00 to 19:00 and is closed on Sunday and Monday.</t>
         </is>
       </c>
     </row>
@@ -16861,12 +16736,8 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from,
-including Musee d'histoire locale, Musee and Attraction touristique. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. 
-To get there, use these GPS coordinates: 35.8293001, 10.6406309. 
-For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Essid/data=!4m7!3m6!1s0x1302757aac617633:0x18fc04d0e4629581!8m2!3d35.827142!4d10.6355029!16s%2Fg%2F12lnj4jw0!19sChIJM3ZhrHp1AhMRgZVi5NAE_Bg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 220 529.</t>
+          <t>The Musée Dar Essid, located in Sousse, Tunisia (coordinates: 35.8293001, 10.6406309), is a captivating museum housed within a renowned palace. It showcases regional art, ancient artifacts, and historical exhibitions that provide a glimpse into the city's captivating past and rich traditions.
+Open from 10:00 AM to 6:00 PM, visitors can explore this cultural treasure and delve into Sousse's intriguing history and heritage.</t>
         </is>
       </c>
     </row>
@@ -16973,9 +16844,8 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of Musee d'art, Musee d'histoire locale, Musee, Attraction touristique to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 220 529.</t>
+          <t>**Musée Dar Essid**
+Located in the heart of Sousse, this renowned museum showcases regional art, antique artifacts, and historical exhibits that depict the daily life of the city. Occupying a magnificent palace, the museum offers a captivating experience with its diverse collection and stunning architecture. Visitors can explore the intricate interior, admire the panoramic view from the terrace, and immerse themselves in the rich history of Sousse through interactive displays.</t>
         </is>
       </c>
     </row>
@@ -17078,7 +16948,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Ribat de Sousse located at RJHQ+3G7 Ribat de Sousse, Sousse. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-17:00. To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Ribat de Sousse is a small fort built in the 8th century and enlarged in 821. It is located in Sousse, Tunisia. The fort includes a tower that offers panoramic views of the city. The Ribat de Sousse is a popular tourist destination and is one of the most visited historical sites in Tunisia. It is located at 35.837072197272, 10.632000104819.</t>
         </is>
       </c>
     </row>
@@ -17185,9 +17055,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse.
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique and Attraction touristique to choose from.
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>The Musée Archéologique de Sousse is a small museum located in a historic kasbah in Sousse, Tunisia. It houses a collection of mosaics, relics and ancient objects from the region. The museum is open Tuesday to Sunday from 9am to 5pm. Admission is 10 dinars (approx. $3.50) for adults and 5 dinars (approx. $1.75) for children.</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17158,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for something fun to do, check out Musée Magic Eye 3D located at RJHR+36J Musee magic eye 3D, Sousse. This top-rated destination is perfect for museum lovers and offers a range of attraction touristique to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-19:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+magic+eye+3D/data=!4m7!3m6!1s0x13027573669537d5:0x995d83e9c2e82170!8m2!3d35.82771!4d10.6405059!16s%2Fg%2F11gdjprcvb!19sChIJ1TeVZnN1AhMRcCHowumDXZk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 635 000.</t>
+          <t>Musee magic eye 3D, located in Sousse (35.8293001, 10.6406309), is a popular museum with 4.3 rating and 383 reviews. The museum is open from 9 am to 7 pm, offering a unique experience for families and children. It offers an immersive 3D experience with optical illusions, making it a perfect spot for taking memorable pictures. With its interactive exhibits and friendly staff, Musee magic eye 3D promises a fun-filled and educational visit, leaving lasting memories for all visitors.</t>
         </is>
       </c>
     </row>
@@ -17397,7 +17265,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Musee Dar Essid, Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at nan or call them at 73 220 529.</t>
+          <t>The Musée Dar Essid is an art museum located in Sousse, Tunisia. It focuses on regional art, and displays historical exhibits on daily life in a famous palace. It has received an average rating of 4.4 based on 216 reviews, and is a popular tourist attraction. The museum is open daily from 10:00 to 18:00, and is located at the address Boulevard Yahia Ibn Omar, 65 Rue des Remparts.</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17364,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out musee El Kobba located at RJGQ+27P musee El Kobba, Sousse. This top-rated destination is perfect for Musee d'histoire locale lovers and offers a range of Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on vendredi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/mus%C3%A9e+El+Kobba/data=!4m7!3m6!1s0x1302757248cfed87:0xdb7f8d0a89b92547!8m2!3d35.8250945!4d10.6381903!16s%2Fg%2F11f3n38bw7!19sChIJh-3PSHJ1AhMRRyW5iQqNf9s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>musée El Kobba is located in Sousse, Tunisia, at the coordinates (35.8293001, 10.6406309). It's a local history museum that offers a variety of exhibits on the history of Sousse and the surrounding region. It's a popular tourist destination, with over 80 reviews on Google. The museum is open from 8am to 6pm, closed on Fridays. The rating is 4.2/5 stars.</t>
         </is>
       </c>
     </row>
@@ -17599,9 +17467,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dar Am Taieb Musee prive d'art contemporain located at Dar Am Taieb Musee prive d'art contemporain, bohsina, Rue ali ben ghedahem, Sousse 4000. 
-This top-rated destination is perfect for Musee d'art moderne lovers and offers a range of Musee d'art moderne to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-17:30, but closed on []. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website or call them at 98 960 944.</t>
+          <t>Dar Am Taieb is a private contemporary art museum in Sousse, Tunisia. It is located in the city's medina, or old quarter. The museum houses a collection of over 3,000 works of art by Tunisian and international artists. It is known for its focus on modern and contemporary art, and its commitment to promoting the work of emerging artists. The museum offers a variety of exhibitions, programs, and educational activities. It is open to the public from 9:00 am to 5:30 pm, Tuesday through Sunday.</t>
         </is>
       </c>
     </row>
@@ -17708,9 +17574,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from, including Musee archeologique and Attraction touristique. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Monday. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>Discover the rich history of Sousse at the Musée archéologique de Sousse, nestled within the historical casbah. Step inside and explore a treasure trove of ancient artifacts, including intricate mosaics, priceless relics, and captivating statues. Immerse yourself in the bygone era and delve into the fascinating stories behind each masterpiece. The museum's convenient location in Sousse makes it an accessible destination, offering a glimpse into the region's captivating past.</t>
         </is>
       </c>
     </row>
@@ -17817,7 +17681,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts, Sousse. This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from including Musee d'histoire locale, Musee, Attraction touristique. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 220 529.</t>
+          <t>The Musée Dar Essid is a popular art museum located in Sousse, Tunisia. The museum displays regional art, antique objects, and historical exhibits on daily life. It's situated in a renowned palace, and one of its highlights is the stunning view from its terrace. Visitors can explore the museum's collection, which includes artifacts and displays that showcase the local culture and history. The museum has received positive reviews, with visitors praising its unique exhibits and the friendly staff.</t>
         </is>
       </c>
     </row>
@@ -17924,7 +17788,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at Rue Abou Kacem Echabi, Sousse. This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique, Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>The Musee archeologique de Sousse is a small museum located in a historic kasbah in Sousse, Tunisia. The museum houses a collection of mosaics, relics, and ancient objects, providing visitors with insights into the rich history and culture of the region. Open daily from 9 am to 5 pm except on Mondays, the museum offers affordable admission and boasts a 4.6 rating based on over 800 reviews on Google. The museum's most notable exhibits include its impressive collection of mosaics, ancient statues, and pottery, making it a popular attraction for tourists and history enthusiasts alike.</t>
         </is>
       </c>
     </row>
@@ -18027,9 +17891,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee magic eye 3D located at RJHR+36J Musee magic eye 3D, Sousse. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee, Attraction touristique to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on . To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at  or call them at 23 635 000.</t>
+          <t>The Musee magic eye 3D, located in Sousse at coordinates (35.8293001, 10.6406309), offers a unique immersive experience with its 3D artworks. The museum features a range of interactive exhibits, including optical illusions and mind-bending images, making it a captivating attraction for both adults and children. Visitors can enjoy taking creative and memorable photos, and the museum provides an app that allows them to download their enhanced images. With its family-friendly atmosphere and entertaining exhibits, Musee magic eye 3D is a must-visit destination for an unforgettable experience.</t>
         </is>
       </c>
     </row>
@@ -18136,10 +17998,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee Dar Essid located at Boulevard Yahia Ibn Omar, 65 Rue des Remparts. 
-This top-rated destination is perfect for Musee d'art lovers and offers a range of categories to choose from, including Musee d'art, Musee d'histoire locale, Musee and Attraction touristique. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-18:00 daily. 
-To get there, use these GPS coordinates: (35.8293001, 10.6406309). For more details, call them at 73 220 529.</t>
+          <t>In the heart of Sousse, Tunisia, Musee Dar Essid captivates visitors with its stunning architecture and captivating exhibits. This illustrious palace showcases regional art, antique artifacts, and captivating historical displays that provide a glimpse into the city's rich past and vibrant local life. Immerse yourself in the museum's remarkable collection and delve into the cultural tapestry of Sousse.</t>
         </is>
       </c>
     </row>
@@ -18246,9 +18105,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. 
-This top-rated destination is perfect for Musee archeologique lovers.
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Monday. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>The Archaeological Museum of Sousse is a small museum located near the medina of Sousse, Tunisia. It is housed in a historic kasbah and features a collection of mosaics, relics, and ancient artifacts. The museum is open every day except Monday from 9am to 5pm. Admission is 8 dinars. The museum is a popular tourist destination and has received positive reviews from visitors.</t>
         </is>
       </c>
     </row>
@@ -18343,9 +18200,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out dr `m lTyb llfn lm`Sr located at RJCJ+F3G dr `m lTyb llfn lm`Sr, Rue Jalta, Sousse. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.820702135135, 10.628882320954. For more details, visit their website at provided link or call them at provided number.</t>
+          <t>"Dr `m lTyb llfn lm`Sr" is a museum located in Sousse, Tunisia. It is known for its collection of artifacts from the region's history, including pottery, jewelry, and sculptures. The museum is located at RJCJ+F3G dr `m lTyb llfn lm`Sr, Rue Jalta, Sousse, and is open to the public during the week. It is a popular tourist destination and has been praised for its well-curated exhibits and informative displays.</t>
         </is>
       </c>
     </row>
@@ -18440,7 +18295,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a breathtaking Vista, head to lHjr@ lmqlwb@ located at lHjr@ lmqlwb@, Sousse. This highly-rated destination offers panoramic views and is perfect for nature lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D8%AD%D8%AC%D8%B1%D8%A9+%D8%A7%D9%84%D9%85%D9%82%D9%84%D9%88%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1302757b3ee7d475:0xdc2593c138c2c85e!8m2!3d35.8250619!4d10.6269456!16s%2Fg%2F1ptvt7dwv!19sChIJddTnPnt1AhMRXsjCOMGTJdw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>lHjr@ lmqlwb@ is a  วิว in Sousse, Tunisia, rated 4.1 out of 5 by 7 reviews. Its coordinates are (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -18543,9 +18398,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated historic site, check out Ribat de Sousse located at RJHQ+3G7. 
-This renowned destination is perfect for history lovers and offers a range of categories to choose from, including site historique, lieu historique, musee d'histoire locale, monument, and attraction touristique. 
-With a rating of 4.4, this must-visit spot is open from 08:00-17:00. To get there, simply follow these coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ribat de Sousse, a historical site built in the 8th century, offers visitors panoramic views from its lookout tower. With a rating of 4.4, this landmark attracts tourists with its historical significance and architectural beauty. Located at RJHQ+3G7 Ribat de Sousse, Sousse, Tunisia, the Ribat boasts 3223 reviews and presents a rich glimpse into the city's past.</t>
         </is>
       </c>
     </row>
@@ -18652,7 +18505,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique and Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 73 219 011.</t>
+          <t>The Musée archéologique de Sousse is a fascinating museum nestled within a historic casbah in the city of Sousse. This top-rated museum (4.6/5) invites you to delve into the region's rich past, showcasing an array of captivating artifacts, from ancient relics and pottery to statues and mosaics. Located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse, Tunisia, the museum opens its doors from 9:00 AM to 5:00 PM, except on Mondays. Don't miss the opportunity to explore this treasure trove of historical wonders and delve into the captivating history of Sousse.</t>
         </is>
       </c>
     </row>
@@ -18747,11 +18600,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Bou Jaafar Beach located at Bou Jaafar Beach, Sousse. 
-This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.83859, 10.62937. 
-For more details, visit their website at https://www.google.com/maps/place/Bou+Jaafar+Beach/data=!4m7!3m6!1s0x1302759e8296e7bf:0xaa8240ab865564b5!8m2!3d35.8359302!4d10.6381321!16s%2Fg%2F1tf20ps2!19sChIJv-eWgp51AhMRtWRVhqtAgqo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Bou Jaafar Beach, located at the coordinates (35.83859, 10.62937) in Sousse, is a popular beach destination known for its beautiful surroundings and ample space. It has gathered 355 reviews from visitors, many of whom highlight its open space, scenic beauty, and proximité to hotels.</t>
         </is>
       </c>
     </row>
@@ -18858,9 +18707,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a relaxing spa day, head to Anti-Stress Hammam, located at Rue El Imam Ibnou Arafa. 
-This top-rated destination is perfect for Spa de jour lovers and offers a range of services to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/HammamAntiStress/ or call them at 25 250 103.</t>
+          <t>Anti-Stress Hammam, located in Sousse (35.8293001, 10.6406309), is a highly-rated (4.6 stars from 211 reviews) day spa that offers a relaxing and rejuvenating experience. Its services include hammam, gommage, and massage, all performed by a skilled team that provides excellent service. The spa's welcoming atmosphere, featuring soothing music and a comfortable ambiance, makes it an ideal destination for relaxation and well-being.</t>
         </is>
       </c>
     </row>
@@ -18955,7 +18802,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Las Vegas Beach located at Las Vegas Beach, Sousse. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their link at https://www.google.com/maps/place/Las+Vegas+Beach/data=!4m7!3m6!1s0x1302758abce07ecf:0x63f4d4d5e1572aaa!8m2!3d35.8522291!4d10.6215908!16s%2Fg%2F1trrxyn_!19sChIJz37gvIp1AhMRqipX4dXU9GM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Las Vegas Beach is a popular beach located in Sousse, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and water sports. The beach is also known for its beautiful scenery and lively atmosphere. It is located at coordinates (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -19058,9 +18905,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a place to satisfy your healthy cravings, check out Mini Market Artemis located at Rue Pakistan. 
-This top-rated destination is perfect for natural food lovers and offers a range of products to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 35.841392336054, 10.589141821914. For more details, visit their website at https://www.google.com/maps/place/Mini+Market+Artemis/data=!4m7!3m6!1s0x12fd8bdfbbe88053:0xa829adb6cb6ed1f!8m2!3d35.8387856!4d10.5933009!16s%2Fg%2F11vwgp9qlg!19sChIJU4Dou9-L_RIRH-22bNuaggo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 48 082 524.</t>
+          <t>Mini Market Artemis is a 5-star rated natural food store located in Sousse, Tunisia, offering a wide selection of healthy and organic products. Located at the coordinates (35.841392336054, 10.589141821914), the store is open 24 hours a day, providing convenience for customers with busy schedules. The store's primary category is as a natural food store, catering to individuals seeking healthier food options.</t>
         </is>
       </c>
     </row>
@@ -19159,9 +19004,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Samara Beach located at Samara Beach, Sousse. 
-This top-rated destination is perfect for Plage lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.80289, 10.66219. For more details, visit their website at  or call them at 27 088 078.</t>
+          <t>Located in the city of Sousse (35.80289, 10.66219), Samara Beach is a popular tourist destination known for its stunning coastline and crystal-clear waters. With a rating of 4.3/5 based on 11 reviews, Samara Beach is an excellent spot for relaxation and coastal exploration.</t>
         </is>
       </c>
     </row>
@@ -19256,8 +19099,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a stunning vista, check out \n Located at lHjr@ lmqlwb@, Sousse. This top-rated destination is perfect for Vista lovers and offers a range of vistas to choose from. With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>**lHjr@ lmqlwb@** is a place in Sousse, Tunisia. It is a vista offering a panoramic view of the city. The vista is located at longitude 10.6406309 and latitude 35.8293001. Reviews of the place praise its beautiful scenery and its relaxing atmosphere.</t>
         </is>
       </c>
     </row>
@@ -19360,9 +19202,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Tresors Naturels Sousse located at Av. des orangers, Sousse. 
-This top-rated destination is perfect for Magasin de cosmetiques lovers. 
-With a rating of 3.0, it's a must-visit spot. It's open during these hours: 09:00-20:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Tr%C3%A9sors+Naturels+Sousse/data=!4m7!3m6!1s0x12fd8b68de71bf55:0x785915f3a7b1ddb3!8m2!3d35.8538327!4d10.6121406!16s%2Fg%2F11pdk460l1!19sChIJVb9x3miL_RIRs92xp_MVWXg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 855 202.</t>
+          <t>Tresors Naturels Sousse is a cosmetics store located in Sousse, Tunisia, offering a wide range of beauty products. It is situated at coordinates (35.8293001, 10.6406309) and is open daily from 9:00 AM to 8:00 PM. The store has received an average rating of 3.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -19453,7 +19293,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Oued Blibene, located at Oued Blibene, Sousse. This top-rated destination is perfect for Cours d'eau lovers. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.84641, 10.62593.</t>
+          <t>Located in Sousse, Oued Blibene is a river with a rating of 3.0 based on one review. It is a popular spot for locals and tourists alike, offering a chance to enjoy the outdoors and appreciate the natural beauty of the area. The river is easily accessible and provides a peaceful retreat from the hustle and bustle of the city.</t>
         </is>
       </c>
     </row>
@@ -19544,9 +19384,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a beautiful Cours d'eau, check out Oued El Kharroub located at Oued El Kharroub, Sousse. 
-This top-rated destination is perfect for Cours d'eau lovers and offers a range of similar categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Oued+El+Kharroub/data=!4m7!3m6!1s0x12fd8a7f4278e029:0x3887420615731016!8m2!3d35.8382812!4d10.6187904!16s%2Fg%2F11bwfy3blw!19sChIJKeB4Qn-K_RIRFhBzFQZChzg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Oued El Kharroub is a watercourse located in Sousse, Tunisia, at coordinates (36.2987, 10.3931). It has a 5.0 rating from 1 review on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -19641,10 +19479,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out lHjr@ lmqlwb@
-This top-rated destination is perfect for Vista lovers.
-With a rating of 4.1, it's a must-visit spot.
-To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>This unnamed viewpoint offers a stunning vista. Located at (35.8293001, 10.6406309) in Sousse, Tunisia, it boasts a 4.1 rating based on 7 reviews. Visitors can enjoy breathtaking views and immerse themselves in the beauty of the surrounding landscape.</t>
         </is>
       </c>
     </row>
@@ -19747,7 +19582,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Ribat de Sousse located at RJHQ+3G7 Ribat de Sousse, Sousse. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Lieu historique, Musee d'histoire locale, Monument, and Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on []. To get there, use these GPS coordinates: 35.837072197272, 10.632000104819. For more details, visit their website at https://www.google.com/maps/place/Ribat+de+Sousse/data=!4m7!3m6!1s0x1302757385419a35:0xf5ddacf8299a19c0!8m2!3d35.827671!4d10.6387949!16s%2Fg%2F121rcp8l!19sChIJNZpBhXN1AhMRwBmaKfis3fU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ribat de Sousse is a small fort built in the 8th century and enlarged in 821. It boasts a tower that offers panoramic views. Located at 35.837072197272, 10.632000104819 in Sousse, Ribat de Sousse is a historical site with ratings as high as 4.4. This tourist attraction is open from 08:00-17:00.</t>
         </is>
       </c>
     </row>
@@ -19854,7 +19689,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Musee archeologique de Sousse located at RJFP+644 Musee archeologique de Sousse, Rue Abou Kacem Echabi, Sousse. This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at nan or call them at 73 219 011.</t>
+          <t>The Archaeological Museum of Sousse is a small museum located in a historic kasbah in the city of Sousse, Tunisia. The museum showcases a collection of mosaics, relics, and ancient objects from the region. It is known for its extensive collection of mosaics, which depict scenes from Roman and early Christian life. The museum also features a baptistery and a garden.</t>
         </is>
       </c>
     </row>
@@ -19957,7 +19792,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great museum to visit, check out Musee magic eye 3D located at RJHR+36J Sousse. This top-rated museum is perfect for all ages and offers a range of exhibits to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-19:00 but closed on. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>The Musée Magic Eye 3D in Sousse, Tunisia, is a captivating destination that transports visitors into a realm of optical illusions and interactive experiences. With its prime location at coordinates (35.8293001, 10.6406309), the museum offers a unique blend of entertainment and educational value for adults and children alike. The museum's collection boasts an array of 3D illusions, optical puzzles, and mind-boggling exhibits that will challenge your perception and spark your imagination. Whether you're looking for a fun family outing or a thought-provoking experience, the Musée Magic Eye 3D promises an unforgettable journey into the world of optical phenomena.</t>
         </is>
       </c>
     </row>
@@ -20052,7 +19887,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Bou Jaafar Beach located at Bou Jaafar Beach, Sousse. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: workday_timing, but closed on []. To get there, use these GPS coordinates: 35.83859, 10.62937. For more details, visit their website at https://www.google.com/maps/place/Bou+Jaafar+Beach/data=!4m7!3m6!1s0x1302759e8296e7bf:0xaa8240ab865564b5!8m2!3d35.8359302!4d10.6381321!16s%2Fg%2F1tf20ps2!19sChIJv-eWgp51AhMRtWRVhqtAgqo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Bou Jaafar Beach is a popular beach destination in Sousse, Tunisia. Located on the Mediterranean Sea, this beach offers pristine sands and crystal-clear waters, making it a perfect spot for swimming, sunbathing, and water sports. Bou Jaafar Beach also boasts a range of amenities, including restaurants, cafes, and shops, ensuring a comfortable and enjoyable experience for visitors. Its convenient location makes it easily accessible from the city center and other nearby areas.</t>
         </is>
       </c>
     </row>
@@ -20147,7 +19982,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a fun beach day, check out Las Vegas Beach located at Las Vegas Beach, Sousse. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Las+Vegas+Beach/data=!4m7!3m6!1s0x1302758abce07ecf:0x63f4d4d5e1572aaa!8m2!3d35.8522291!4d10.6215908!16s%2Fg%2F1trrxyn_!19sChIJz37gvIp1AhMRqipX4dXU9GM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Las Vegas Beach is located in Sousse, Tunisia, offering a picturesque beachfront experience. With its convenient location at (35.8293001, 10.6406309), it invites locals and tourists alike to enjoy its sandy shores and refreshing waters. Despite lacking detailed information, the beach boasts a 4.1 rating based on 47 positive reviews, suggesting a highly rated coastal destination.</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20085,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a top-rated natural food store, check out Mini Market Artemis located at Rue Pakistan, Sousse. This destination is perfect for those who love natural food and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.841392336054, 10.589141821914. For more details, visit their website at https://www.google.com/maps/place/Mini+Market+Artemis/data=!4m7!3m6!1s0x12fd8bdfbbe88053:0xa829adb6cb6ed1f!8m2!3d35.8387856!4d10.5933009!16s%2Fg%2F11vwgp9qlg!19sChIJU4Dou9-L_RIRH-22bNuaggo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 48 082 524.</t>
+          <t>The Mini Market Artemis is a 24/7 natural food store located in Sousse, Tunisia. It is owned by Mini Market Artemis (proprietaire) and has a rating of 5.0 based on 14 reviews.</t>
         </is>
       </c>
     </row>
@@ -20349,7 +20184,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Samara Beach located at Samara Beach, Sousse. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.80289, 10.66219. For more details, visit their website at https://www.google.com/maps/place/Samara+Beach/data=!4m7!3m6!1s0x130275859bc53d31:0x2700a1a695a50d05!8m2!3d35.8448362!4d10.6281275!16s%2Fg%2F11cpn_tj19!19sChIJMT3Fm4V1AhMRBQ2llaahACc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 088 078.</t>
+          <t>Samara Beach is a beautiful beach with crystal clear waters and soft sands. It is located in Sousse, Tunisia and offers a breathtaking view of the Mediterranean Sea. The beach has shallow waters making it safe for swimming and other water activities such as kayaking, paddle boating, and snorkeling. On the shores, you can relax under the umbrellas and enjoy a variety of local and international dishes at the beachside restaurants.</t>
         </is>
       </c>
     </row>
@@ -20444,9 +20279,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out lHjr@ lmqlwb@ located at lHjr@ lmqlwb@, Sousse. 
-This top-rated destination is perfect for Vista lovers and offers a range of vistas to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>**lHjr@ lmqlwb@** is a scenic vista offering breathtaking views. Located at (35.8293001, 10.6406309) in Sousse, this unmissable spot boasts panoramic vistas that will surely leave visitors mesmerized.</t>
         </is>
       </c>
     </row>
@@ -20537,10 +20370,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Oued El Hallouf located at Oued El Hallouf, Sousse. 
-This top-rated destination is perfect for Cours d'eau lovers. 
-With a rating of 3.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.90722, 10.28667. For more details, visit their website at https://www.google.com/maps/place/Oued+El+Hallouf/data=!4m7!3m6!1s0x1302754930a14e41:0xb9707595c3b04ab!8m2!3d35.8014558!4d10.6442499!16s%2Fg%2F11bw7nsjwq!19sChIJQU6hMEl1AhMRqwQ7XFkHlws?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Oued El Hallouf is a watercourse located in Sousse, Tunisia. It is rated 3.3 out of 5 stars based on 3 reviews and belongs to the main category of watercourses. The watercourse is located at the coordinates (35.90722, 10.28667).</t>
         </is>
       </c>
     </row>
@@ -20643,7 +20473,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated natural food store, check out tawabel fadhila located at tawabel fadhila, cite l aouina lot khelifa sousse sousse, 4080. This destination is perfect for Magasin d'alimentation naturelle lovers with a rating of 4.5. It's open during these hours: 07:00-21:30, but closed on Sundays. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/tawabel+fadhila/data=!4m7!3m6!1s0x130275aa4b076a49:0xca673fb41466ac11!8m2!3d35.8245029!4d10.634584!16s%2Fg%2F11qg6rm1zs!19sChIJSWoHS6p1AhMREaxmFLQ_Z8o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 346 552.</t>
+          <t>Tawabel Fadhila is a natural food store located in sousse, Tunisia at the coordinates (35.8293001, 10.6406309). Unfortunately, detailed information regarding this place, such as its services, ambiance, or unique features, is not available at the moment.</t>
         </is>
       </c>
     </row>
@@ -20750,7 +20580,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out CHABBOUH STONES located at CHABBOUH STONES, Rte ceinture, Sousse. This top-rated destination is perfect for Fournisseur de pierre naturelle lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-18:00, but closed on dimanche. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/chabbouhstones/ or call them at 25 818 910.</t>
+          <t>CHABBOUH STONES is a natural stone supplier located in Sousse, Tunisia. Its precise geolocation is at longitude 10.6406309 and latitude 35.8293001. Find out more about them on their Facebook page: https://www.facebook.com/chabbouhstones/.</t>
         </is>
       </c>
     </row>
@@ -20841,9 +20671,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a fun experience with water, check out Oued El Kharroub located at Oued El Kharroub, Sousse. 
-This top-rated destination with a rating of 5.0 is perfect for Cours d'eau lovers. 
-To get there, use these GPS coordinates: 36.2987, 10.3931.</t>
+          <t>Oued El Kharroub is a river located at coordinates (36.2987, 10.3931) in Sousse, Tunisia. It boasts a 5.0 rating based on a single review and is an ideal destination for nature enthusiasts and outdoor adventurers seeking to explore the beauty of the area's waterways.</t>
         </is>
       </c>
     </row>
@@ -20934,11 +20762,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Oued Blibene located at Oued Blibene, Sousse. 
-This top-rated destination is perfect for Cours d'eau lovers. 
-With a rating of 3.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.84641, 10.62593. 
-For more details, visit their link at https://www.google.com/maps/place/Oued+Blibene/data=!4m7!3m6!1s0x12fd8a78ccda0ca1:0x13579c2327dcecd4!8m2!3d35.8409078!4d10.6182539!16s%2Fg%2F11bwf_8h5c!19sChIJoQzazHiK_RIR1OzcJyOcVxM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Oued Blibene is a river located in sousse with coordinates (35.84641, 10.62593).</t>
         </is>
       </c>
     </row>
@@ -21041,9 +20865,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out ma douce nature located at Rue Omar Ibn El Khattab, Sousse 4007. 
-This top-rated destination is perfect for Magasin de cosmetiques lovers and offers a range of Magasin de cosmetiques to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.818029869909, 10.617378623694. For more details, visit their website at https://madoucenature.tn/ or call them at 93 945 775.</t>
+          <t>Ma Douce Nature is a cosmetics store located at Rue Omar Ibn El Khattab, Sousse 4007, Tunisia. It offers a wide range of cosmetics and beauty products. The store is highly rated by customers with an average rating of 5.0. It is open daily, and can be contacted by phone at 93 945 775.</t>
         </is>
       </c>
     </row>
@@ -21146,7 +20968,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great bar lounge, check out First Lounge located at RJRH+5WG First Lounge, Sousse. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-03:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/First+Lounge/data=!4m7!3m6!1s0x13027584a36f7227:0x17cf940203806b78!8m2!3d35.840433!4d10.6298129!16s%2Fg%2F11g6xthlqm!19sChIJJ3Jvo4R1AhMReGuAAwKUzxc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 200 393.</t>
+          <t>First Lounge is a lively bar lounge situated in the heart of Sousse, Tunisia, offering an inviting ambiance for guests to relax and unwind. Known for its welcoming atmosphere, First Lounge boasts a wide selection of beverages and snacks, making it an ideal destination for a casual evening out. Located at coordinates (35.8293001, 10.6406309), the lounge invites patrons to socialize and enjoy the vibrant nightlife of Sousse.</t>
         </is>
       </c>
     </row>
@@ -21253,9 +21075,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out My Way Resto-Lounge located at VHQW+86M My Way Resto-Lounge, Hotel Houria Palace Port, Sousse.
-This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 14:00-05:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/mywayrestolounge or call them at 93 299 200.</t>
+          <t>My Way Resto-Lounge is a 4.3-rated bar lounge located in sousse at VHQW+86M Hotel Houria Palace Port. It is open from 2 PM to 5 AM, and you can reach it by phone at 93 299 200. Despite having no reviews yet, it boasts an impressive featured image that showcases its elegant ambiance.</t>
         </is>
       </c>
     </row>
@@ -21362,11 +21182,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Discotheque spot, check out Dar Mjoujem located at Dar Mjoujem, Sousse. 
-This venue is perfect for Discotheque lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open 24h/24, but closed on vendredi. 
-To get there, use these GPS coordinates: 35.8293001, 10.6406309. 
-For more details, visit their website at https://www.facebook.com/mootaz.braham.7 or call them at 98 757 516.</t>
+          <t>Dar Mjoujem is a 4.6-rated discotheque located in Sousse, Tunisia. It is open 24 hours a day, except on Fridays. The discotheque offers a variety of music and entertainment, and is a popular destination for locals and tourists alike. It is located at 35.8293001 latitude and 10.6406309 longitude and can be found on Facebook at https://www.facebook.com/mootaz.braham.7</t>
         </is>
       </c>
     </row>
@@ -21469,7 +21285,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out ARSLEN CLUB located at ARSLEN CLUB, 1 Av. 14 Janvier, Sousse. This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 16:49-05:00, but closed on []. To get there, use these GPS coordinates: 35.867571218809, 10.552128530365. For more details, visit their website at or call them at 25 826 600.</t>
+          <t>ARSLEN Club is a highly-rated bar located in Sousse, Tunisia. It features a vibrant nightlife and a cozy atmosphere. The bar opens from 16:49 till dawn and it has managed to maintain an average rating of 4.7 stars. ARSLEN Club is located at the coordinates (35.867571218809, 10.552128530365) and can be found on Google Maps under the place ID ChIJb4hajqKL_RIRKGBZkWaYims.</t>
         </is>
       </c>
     </row>
@@ -21568,9 +21384,7 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Loka Resto Beach located at Loka Resto Beach, Sousse. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Loka+Resto+Beach/data=!4m7!3m6!1s0x12fd8a055a2af353:0x597faaa1b584599!8m2!3d35.8689959!4d10.6092652!16s%2Fg%2F11f03s6jh0!19sChIJU_MqWgWK_RIRmUVYG6r6lwU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Loka Resto Beach is a 4.3-rated bar lounge located in Sousse, Tunisia. It is open from 9 am to 11 pm every day and offers a variety of drinks and food options. The bar is located at coordinates (35.8293001, 10.6406309) and has a featured image available at https://lh5.googleusercontent.com/p/AF1QipNVVX0aiJLa-LNGyIrDs2l2jXls5t5GPqg3U8T3=w408-h544-k-no. The bar's owner is 'Loka Resto Beach (proprietaire)' with the ID '118055286458070264454'.</t>
         </is>
       </c>
     </row>
@@ -21669,7 +21483,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Atbet Tarchouna located at RJGP+W8Q Atbet Tarchouna, Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Atbet+Tarchouna/data=!4m7!3m6!1s0x1302752df80a186d:0x2a18788f95e09901!8m2!3d35.8273272!4d10.6358602!16s%2Fg%2F11h9p5tc95!19sChIJbRgK-C11AhMRAZnglY94GCo?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Atbet Tarchouna is a top-rated discotheque located in RJGP+W8Q Atbet Tarchouna, Sousse, Tunisia. It offers a lively ambiance, great music, and a dance floor to let loose. The club is open 24 hours a day, making it a perfect spot for late-night outings. With a rating of 5.0, it's a popular destination for party-goers seeking a thrilling and unforgettable experience.</t>
         </is>
       </c>
     </row>
@@ -21764,7 +21578,7 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>If you're looking for a top-notch discotheque experience, head to La Suite, located at RJX9+C3M La Suite, Av. 14 Janvier, Sousse. This highly rated destination offers a range of entertainment options for discotheque lovers. With a 5.0 rating, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more information, visit their website at https://www.google.com/maps/place/La+Suite/data=!4m7!3m6!1s0x12fd8b5ec76256d9:0x4b48d8513653b6cf!8m2!3d35.8485783!4d10.6176623!16s%2Fg%2F11gv0ccjt1!19sChIJ2VZix16L_RIRz7ZTNlHYSEs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Suite is a popular discotheque located in Sousse, Tunisia. It offers a lively and energetic atmosphere for partygoers and music lovers. With a convenient location and a reputation for great entertainment, La Suite is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -21859,7 +21673,7 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great Discotheque, check out SAUNA CLUB located at VJ29+QG5 SAUNA CLUB, Av. 14 Janvier, Sousse. This top-rated destination has a rating of 5.0 and is a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, call them at 98 686 313.</t>
+          <t>The SAUNA CLUB is a discotheque located in Sousse, Tunisia, at the coordinates (35.8518904, 10.6188519). It has a rating of 5.0 based on 1 review. The club offers a variety of amenities, including a dance floor, a bar, and a lounge area. It is open every day of the week, and the hours of operation are unknown. The phone number for the SAUNA CLUB is 98 686 313.</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21780,7 @@
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated place for Discotheque lovers, check out Dar Mjoujem located at Dar Mjoujem, Sousse. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, but closed on vendredi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/mootaz.braham.7 or call them at 98 757 516.</t>
+          <t>Dar Mjoujem is a nightclub located in Sousse, Tunisia. It offers a 24/7 dance experience, with a focus on electronic music. The club has a 4.6-star rating on Google Maps, based on 7 reviews. It is closed on Fridays.</t>
         </is>
       </c>
     </row>
@@ -22057,7 +21871,7 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>If you're in sousse, dr `bdw lmjrm is the place to be for Discotheque enthusiasts! Located at QHQJ+JQC dr `bdw lmjrm, shr` 9 'fryl, it offers a top-notch experience with a rating of 4.5. With GPS coordinates (35.8293001, 10.6406309), getting there is a breeze. Its hours of operation aren't specified, but it's closed on unspecified days. For more information, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B9%D8%A8%D8%AF%D9%88+%D8%A7%D9%84%D9%85%D8%AC%D8%B1%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fdf5aa0bab74ef:0x275a1871e0e27747!8m2!3d35.7890727!4d10.5818783!16s%2Fg%2F11rw_twn2n!19sChIJ73SrC6r1_RIRR3fi4HEYWic?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>"dr `bdw lmjrm" is a popular discotheque located in Sousse, Tunisia (lon: 10.6406309, lat: 35.8293001). Rated 4.5 out of 5, it offers a lively nightlife experience. Unfortunately, no additional information such as description, website, or contact details is available.</t>
         </is>
       </c>
     </row>
@@ -22164,7 +21978,7 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out My Way Resto-Lounge located at VHQW+86M My Way Resto-Lounge, Hotel Houria Palace Port, Sousse. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 14:00-05:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/mywayrestolounge or call them at 93 299 200.</t>
+          <t>In the heart of Sousse, at the crossroads of 35.8293001, 10.6406309 coordinates, lies the elegant My Way Resto-Lounge, a popular spot known for its cozy ambiance and delightful offerings.</t>
         </is>
       </c>
     </row>
@@ -22267,7 +22081,7 @@
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Bar, check out ARSLEN CLUB located at ARSLEN CLUB, 1 Av. 14 Janvier. With a rating of 4.7, it's a must-visit spot for Bar lovers. It's open during these hours: 16:49-05:00 and closed on . To get there, use these GPS coordinates: 35.867571218809, 10.552128530365. For more details, visit their website at https://www.google.com/maps/place/ARSLEN+CLUB/data=!4m7!3m6!1s0x12fd8ba28e5a886f:0x6b8a986691596028!8m2!3d35.8535048!4d10.6160862!16s%2Fg%2F11h8ll0r86!19sChIJb4hajqKL_RIRKGBZkWaYims?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 826 600.</t>
+          <t>ARSLEN CLUB is a Bar located in Sousse, Tunisia, with coordinates (35.867571218809, 10.552128530365). It has received 3 reviews and has a rating of 4.7. Unfortunately, detailed information about its offerings, such as menu items or services, and its website are not available in the provided data. Its primary category is Bar, and its operating hours are from 16:49 to 05:00, with no specified closure days. If you seek further information, you can reach them via their phone number, 25 826 600.</t>
         </is>
       </c>
     </row>
@@ -22366,9 +22180,7 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Loka Resto Beach located at Loka Resto Beach, Sousse. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Loka Resto Beach, a vibrant bar lounge in Sousse, offers a lively ambiance and a warm welcome. Located conveniently at coordinates (35.8293001, 10.6406309), it's the perfect spot to unwind and socialize. With a rating of 4.3, it's a testament to the exceptional experience guests can expect. Its prime location makes it easily accessible for visitors to enjoy a memorable evening amidst the vibrant atmosphere of Sousse.</t>
         </is>
       </c>
     </row>
@@ -22463,9 +22275,7 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out SAUNA CLUB located at VJ29+QG5 SAUNA CLUB, Av. 14 Janvier, Sousse. 
-This top-rated destination is perfect for Discotheque lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours:nan, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at  or call them at 98 686 313.</t>
+          <t>SAUNA CLUB is a discothèque located in Sousse, Tunisia (35.8293001, 10.6406309). Rated 5.0/5 by 1 visitor, it offers a great nightlife experience and is highly recommended to those looking for a place to dance and have fun in Sousse.</t>
         </is>
       </c>
     </row>
@@ -22560,7 +22370,7 @@
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out La Suite located at RJX9+C3M La Suite, Av. 14 Janvier, Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+Suite/data=!4m7!3m6!1s0x12fd8b5ec76256d9:0x4b48d8513653b6cf!8m2!3d35.8485783!4d10.6176623!16s%2Fg%2F11gv0ccjt1!19sChIJ2VZix16L_RIRz7ZTNlHYSEs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Suite is a discotheque located in Sousse, Tunisia. Featuring a lively atmosphere and vibrant music, La Suite offers an unforgettable entertainment experience. Patrons can enjoy an energetic dance floor and immerse themselves in the infectious rhythms. The discotheque is situated near the city center, making it conveniently accessible and a popular destination for locals and tourists seeking a memorable night out.</t>
         </is>
       </c>
     </row>
@@ -22667,9 +22477,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dar Mjoujem located at Dar Mjoujem, Sousse. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on vendredi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/mootaz.braham.7 or call them at 98 757 516.</t>
+          <t>Dar Mjoujem is a highly-rated discotheque in Sousse. With a 4.6 rating, this popular spot offers a vibrant dance music scene and is a go-to destination for night owls. Located at (35.8293001, 10.6406309), Dar Mjoujem offers a unique nightlife experience in the heart of Sousse.</t>
         </is>
       </c>
     </row>
@@ -22772,7 +22580,7 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out ARSLEN CLUB located at 1 Av. 14 Janvier, Sousse. This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 16:49-05:00. To get there, use these GPS coordinates: 35.867571218809, 10.552128530365. For more details, visit their website or call them at 25 826 600.</t>
+          <t>Located in Sousse at the coordinates (35.867571218809, 10.552128530365), ARSLEN CLUB is a popular bar that opens from 16:49 to 05:00. It is owned by 'ARSLEN CLUB (proprietaire)' and has received an impressive rating of 4.7 based on 3 reviews. While the club's description and website are not available, its featured image showcases its classy ambiance. Visitors can expect a lively atmosphere and enjoy a memorable nightlife experience at ARSLEN CLUB.</t>
         </is>
       </c>
     </row>
@@ -22863,7 +22671,7 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out dr `bdw lmjrm located at QHQJ+JQC dr `bdw lmjrm, shr` 9 'fryl, Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B9%D8%A8%D8%AF%D9%88+%D8%A7%D9%84%D9%85%D8%AC%D8%B1%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fdf5aa0bab74ef:0x275a1871e0e27747!8m2!3d35.7890727!4d10.5818783!16s%2Fg%2F11rw_twn2n!19sChIJ73SrC6r1_RIRR3fi4HEYWic?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**dr `bdw lmjrm** (“Your Space”) is a discotheque located in the outskirts of Sousse, Tunisia. It offers a vibrant nightlife experience with its energetic music, spacious dance floor, and lively atmosphere. Situated near the bustling city center (35.8293001, 10.6406309), it's easily accessible and a popular destination for locals and tourists seeking a night of entertainment.</t>
         </is>
       </c>
     </row>
@@ -22958,7 +22766,7 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out The Balcoon Sousse located at RJ64+FVF The Balcoon Sousse, Sousse. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/The+Balcoon+Sousse/data=!4m7!3m6!1s0x12fd8b18b4257717:0x3f79ba851a526fb0!8m2!3d35.8111833!4d10.6071697!16s%2Fg%2F11jp0tdp0q!19sChIJF3cltBiL_RIRsG9SGoW6eT8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Balcoon Sousse Discotheque is known for providing a vibrant and energetic nightlife experience in the heart of Sousse. Located at coordinates (35.8293001, 10.6406309), the establishment offers a carefully curated music selection that keeps patrons dancing all night long. Its central location makes it easily accessible for tourists and locals alike.</t>
         </is>
       </c>
     </row>
@@ -23053,8 +22861,7 @@
       </c>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out SAUNA CLUB located at VJ29+QG5 SAUNA CLUB, Av. 14 Janvier, Sousse. 
-This top-rated discotheque is the perfect spot to dance the night away with a rating of 5.0, making it a must-visit destination. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website or call them at 98 686 313.</t>
+          <t>SAUNA CLUB is a discotheque located in Sousse, Tunisia. It offers a variety of services, including a sauna, a swimming pool, and a dance floor. The club is located at VJ29+QG5 Av. 14 Janvier and has a rating of 5.0. It operates weekdays and is closed on weekends.</t>
         </is>
       </c>
     </row>
@@ -23157,7 +22964,7 @@
       </c>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great spot to unwind, check out First Lounge at RJRH+5WG First Lounge, Sousse. This top-rated bar lounge has a rating of 4.4 and is a great place to relax and enjoy a drink. It's open from 11:00-03:00, so it's perfect for a night out. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>First Lounge is a bar lounge located in Sousse, Tunisia. It is a popular spot for locals and tourists alike, offering a wide selection of drinks and a lively atmosphere. The bar is open from 11:00 AM to 3:00 AM, and is closed on Sundays. First Lounge is located at RJRH+5WG, Sousse, Tunisia, with coordinates (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -23264,7 +23071,7 @@
       </c>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Bar lounge, check out My Way Resto-Lounge located at VHQW+86M My Way Resto-Lounge, Hotel Houria Palace Port, Sousse. This destination is perfect for Bar lounge lovers and has a rating of 4.3. It's open during these hours: 14:00-05:00. For more details, visit their website at https://www.google.com/maps/place/My+Way+Resto-Lounge/data=!4m7!3m6!1s0x12fd8994aeba98e7:0xaf632a7c020bce5f!8m2!3d35.8883499!4d10.5955496!16s%2Fg%2F11lwn_339d!19sChIJ55i6rpSJ_RIRX84LAnwqY68?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 299 200.</t>
+          <t>My Way Resto-Lounge is a 4.3-rated bar lounge located at VHQW+86M My Way Resto-Lounge, Hotel Houria Palace Port, Sousse, Tunisia. It is open from 2 PM to 5 AM and offers a variety of drinks and snacks. The bar also has a featured image of a group of people enjoying drinks and conversation.</t>
         </is>
       </c>
     </row>
@@ -23371,7 +23178,7 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Dar Mjoujem located at Dar Mjoujem, Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on vendredi. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.facebook.com/mootaz.braham.7 or call them at 98 757 516.</t>
+          <t>Dar Mjoujem is a discotheque located in Sousse, Tunisia. It is open 24 hours a day, except on Fridays. The discotheque has a rating of 4.6 out of 5 stars on Google Maps, based on 7 reviews. It is owned by Dar Mjoujem (proprietaire) and has a Facebook page. The discotheque's main category is Discotheque and it is located at the coordinates (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -23474,7 +23281,7 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Le Club Bar a Tapas located at Boulevard du 14 Janvier, Sousse 4039. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at https://www.marhabahotels.tn/ or call them at 56 136 000.</t>
+          <t>Located in Sousse, Tunisia, Le Club Bar a Tapas is a popular restaurant known for its delicious tapas and welcoming ambiance. It's situated on Boulevard du 14 Janvier, making it easily accessible to locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -23577,7 +23384,7 @@
       </c>
       <c r="Y224" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Restaurant, check out Trio Food Club located at Rue El Mourouj, Sousse. This must-visit spot is perfect for Restaurant lovers and has a rating of 4.3. It's open from 12:00-23:00 but closed on dimanche. To get there, use these GPS coordinates: 35.8475889702, 10.603602248032. For more details, visit their website at https://www.google.com/maps/place/Trio+Food+Club/data=!4m7!3m6!1s0x12fd8b67aea6ab15:0x79a3755fb6dd01e7!8m2!3d35.8487878!4d10.6051471!16s%2Fg%2F11fll5wp7m!19sChIJFaumrmeL_RIR5wHdtl91o3k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 563 863.</t>
+          <t>Trio Food Club, a restaurant located in Sousse, Tunisia, boasts a high rating of 4.3, derived from 4 reviews. Open daily from 12:00 to 23:00, except on Sundays, it offers a delightful culinary experience at its address on Rue El Mourouj. Trio Food Club is easily accessible by utilizing the coordinates (35.8475889702, 10.603602248032).</t>
         </is>
       </c>
     </row>
@@ -23680,7 +23487,7 @@
       </c>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out ARSLEN CLUB located at 1 Av. 14 Janvier, Sousse. This top-rated destination is perfect for Bar lovers and offers a range of Bar categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 16:49-05:00, but closed on . To get there, use these GPS coordinates: 35.867571218809, 10.552128530365. For more details, visit their website or call them at 25 826 600.</t>
+          <t>The ARSLEN CLUB is an upscale bar located in Sousse, directly in the centre of the city at the following coordinates: (35.867571218809, 10.552128530365).</t>
         </is>
       </c>
     </row>
@@ -23779,11 +23586,7 @@
       </c>
       <c r="Y226" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Loka Resto Beach located at Loka Resto Beach, Sousse. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on []. 
-To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website 
-at or call them at .</t>
+          <t>Loka Resto Beach is a bar lounge located in Sousse, Tunisia. It is highly rated with 4.3 stars and offers a wide selection of drinks and food. The resto-bar is open from 9am to 11pm every day, except for special occasions. You can find Loka Resto Beach on Google Maps at the following coordinates: (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -23874,7 +23677,7 @@
       </c>
       <c r="Y227" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a fun night out, check out dr `bdw lmjrm located at QHQJ+JQC dr `bdw lmjrm, shr` 9 'fryl, Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B9%D8%A8%D8%AF%D9%88+%D8%A7%D9%84%D9%85%D8%AC%D8%B1%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fdf5aa0bab74ef:0x275a1871e0e27747!8m2!3d35.7890727!4d10.5818783!16s%2Fg%2F11rw_twn2n!19sChIJ73SrC6r1_RIRR3fi4HEYWic?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number].</t>
+          <t>The Discotheque dr `bdw lmjrm is located in sousse, Tunisia, at the coordinates (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -23969,7 +23772,7 @@
       </c>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out La Suite located at RJX9+C3M La Suite, Av. 14 Janvier, Sousse. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website or call them at .</t>
+          <t>La Suite is a 5-star rated discotheque located at RJX9+C3M La Suite, Av. 14 Janvier, Sousse (35.8293001, 10.6406309). It is a popular entertainment spot in the city, attracting locals and tourists alike with its energetic atmosphere and lively music.</t>
         </is>
       </c>
     </row>
@@ -24068,9 +23871,7 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>If you're in sousse and searching for a great Discotheque, check out Atbet Tarchouna at RJGP+W8Q Atbet Tarchouna. 
-This top-rated spot is ideal for Discotheque lovers. 
-With a rating of 5.0, it's a must-visit destination. It's open 24 hours a day, so you can drop by anytime. To get there, you can use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Atbet Tarchouna is a discotheque located in Atbet Tarchouna, Sousse, Tunisia. It is open 24 hours a day and has a rating of 5.0. Its main category is Discotheque and its coordinates are (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -24165,9 +23966,7 @@
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Discotheque, check out The Balcoon Sousse at RJ64+FVF The Balcoon Sousse, Sousse. 
-This must-visit spot has a rating of 5.0 and offers a range of Discotheque to choose from. 
-For more details, visit their website at https://www.google.com/maps/place/The+Balcoon+Sousse/data=!4m7!3m6!1s0x12fd8b18b4257717:0x3f79ba851a526fb0!8m2!3d35.8111833!4d10.6071697!16s%2Fg%2F11jp0tdp0q!19sChIJF3cltBiL_RIRsG9SGoW6eT8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Sousse, The Balcoon is a trendy discotheque that offers a lively and unforgettable nightlife experience. With its vibrant atmosphere and pulsating beats, it's the perfect place to dance the night away and let loose. The discotheque boasts a spacious dance floor, where DJs spin an eclectic mix of music genres, from the latest hits to time-honored classics. Located at RJ64+FVF in Sousse with coordinates (35.8293001, 10.6406309), The Balcoon is easily accessible and awaits you for an unforgettable evening of dancing and revelry.</t>
         </is>
       </c>
     </row>
@@ -24262,7 +24061,7 @@
       </c>
       <c r="Y231" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out SAUNA CLUB located at Av. 14 Janvier, Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their link at https://www.google.com/maps/place/SAUNA+CLUB/data=!4m7!3m6!1s0x12fd8bf7f42576d3:0x531f4f036d438bf4!8m2!3d35.8518904!4d10.6188519!16s%2Fg%2F11tmfl_b16!19sChIJ03Yl9PeL_RIR9ItDbQNPH1M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 686 313.</t>
+          <t>SAUNA CLUB is a popular discotheque located in the heart of Sousse, Tunisia. It's renowned for its lively atmosphere, energetic music, and friendly staff. The discotheque features a spacious dance floor, comfortable seating areas, and a fully-stocked bar. SAUNA CLUB is easily accessible by car or public transportation. It's situated at coordinates (35.8293001, 10.6406309), on Av. 14 Janvier.</t>
         </is>
       </c>
     </row>
@@ -24365,7 +24164,7 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Resto chaneeb cleopatra located at VJ84+V64 Resto chaneeb cleopatra, Av. 14 Janvier, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at nan or call them at 20 935 910.</t>
+          <t>Resto chaneeb cleopatra is a restaurant in sousse, Tunisia, located at the coordinates (35.8293001, 10.6406309). It has a rating of 4.3 based on 3 reviews and is open 24 hours a day. The restaurant's featured image is https://lh5.googleusercontent.com/p/AF1QipOleSMU6DHVMVgKudbJfukZsthxhxfp3_Dlg977=w408-h306-k-no.</t>
         </is>
       </c>
     </row>
@@ -24468,9 +24267,7 @@
       </c>
       <c r="Y233" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Restaurant Royal Food located at VJ73+37H Restaurant Royal Food, Rue de Riadh, Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Restaurant Royal Food rated 5 stars by one user is located in Sousse, Tunisia (10.6406309, 35.8293001). It has an open schedule from 11:00 to 23:00. We do not have any information about its menu or specialties. You can contact them by phone at 53 265 001 if you want to know more or place an order.</t>
         </is>
       </c>
     </row>
@@ -24569,7 +24366,7 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Restaurant Food ball located at VJ94+749 Restaurant Food ball, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:30-00:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Food+ball/data=!4m7!3m6!1s0x12fd8a1088fd3f7d:0x3f5bf8c224668316!8m2!3d35.8681637!4d10.6053649!16s%2Fg%2F11c0pzqcz3!19sChIJfT_9iBCK_RIRFoNmJML4Wz8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Restaurant Food ball is a restaurant located in Sousse, Tunisia. It offers a variety of dishes and has a rating of 4.0. The restaurant is open from 08:30 to 00:00, every day of the week. It is located at 35.8293001, 10.6406309.</t>
         </is>
       </c>
     </row>
@@ -24664,9 +24461,7 @@
       </c>
       <c r="Y235" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for something fun to do, check out Argos fast food located at QHPJ+XX9 Argos fast food, P12, Sousse. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Argos+fast+food/data=!4m7!3m6!1s0x12fdf55d3e8f0f87:0xef1b923acbbbf3dd!8m2!3d35.7874111!4d10.5824403!16s%2Fg%2F11s8myyfk4!19sChIJhw-PPl31_RIR3fO7yzqSG-8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Discover Argos fast food, a highly-rated quick-service restaurant located in QHPJ+XX9, P12, Sousse. Known for its delicious offerings and friendly service, Argos fast food is a great spot to satisfy your cravings. With its convenient location, it's easily accessible for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24564,7 @@
       </c>
       <c r="Y236" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Mio Mondo Cafe located at route touristique khezema 4057, Boulevard du 14 Janvier, Sousse 4057. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Marchand de glaces, Patisserie, Pizzeria, Restaurant, Centre commercial, Salon de the to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.845523397995, 10.620892043323. For more details, visit their website at  or call them at 73 243 273.</t>
+          <t>Mio Mondo Cafe is a popular cafe located in Sousse,Tunisia. It offers a variety of menu items, including coffee, tea, pastries, pizzas, and ice cream. The cafe also has a chicha lounge and a family-friendly atmosphere. It's located at (35.845523397995, 10.620892043323) and is open from 7 am to 1 am daily.</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24671,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Moe's Diner Sousse located at Av Maghreb Arabe, Av. Khezama, Sousse. This top-rated destination is perfect for Restaurant americain lovers and offers a range of Restaurant americain, Restaurant de hamburgers to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 35.844449538304, 10.619034502352. For more details, visit their website at https://www.facebook.com/moesdinertunisia or call them at 73 242 448.</t>
+          <t>Moe's Diner Sousse is a restaurant located in Sousse, Tunisia. The restaurant offers American cuisine, specializing in hamburgers. Moe's Diner Sousse is open from 11:00am to 11:00pm, Tuesday through Sunday. The restaurant is closed on Mondays. Moe's Diner Sousse has a 4.7-star rating on Google, with over 125 reviews. The restaurant is known for its delicious food, friendly service, and clean environment.</t>
         </is>
       </c>
     </row>
@@ -24979,7 +24774,7 @@
       </c>
       <c r="Y238" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to eat, check out Restaurant Le Surfin located at RJRH+222 Restaurant Le Surfin, Av. Taieb Mehiri, Sousse. As a top-rated destination for restaurant lovers, it offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.8400456, 10.6275783. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Le+Surfin/data=!4m7!3m6!1s0x130275847867df69:0xfd1e5d44df6f8c26!8m2!3d35.8400237!4d10.6275119!16s%2Fg%2F11cn5n77lt!19sChIJad9neIR1AhMRJoxv30RdHv0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 225 871.</t>
+          <t>Restaurant Le Surfin is a highly rated restaurant offering a range of cuisines in Sousse, Tunisia. Located at the coordinates (35.8400456, 10.6275783), it is known for its seafood, especially its fish dishes. The restaurant caters to a wide clientele, with reviewers praising its reasonable prices and welcoming ambiance. Open from 8 am to 11 pm daily, Restaurant Le Surfin is a popular dining destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -25082,7 +24877,7 @@
       </c>
       <c r="Y239" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Hayasushi located at Av. Taib Mehiri. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-22:00. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website or call them at 21 414 441.</t>
+          <t>Hayasushi is a Japanese restaurant located on Av. Taib Mehiri in Sousse, Tunisia (35.8177614, 10.6402245). It is open from 12:00-22:00 and offers a great dining experience with a 4.2 rating. The restaurant has received 114 reviews, highlighting the pleasant atmosphere and reasonable prices. It is owned by Hayasushi (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -25189,9 +24984,7 @@
       </c>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Ali Chapati located at 8 Av. Khezama, Sousse 4051. 
-This top-rated destination is perfect for Restaurant tunisien lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-02:00, but closed on []. To get there, use these GPS coordinates: 35.844157420026, 10.619032462416. For more details, visit their website at https://m.facebook.com/pages/Ali-Chapati/665039213575169 or call them at 26 863 063.</t>
+          <t>Ali Chapati is a Tunisian restaurant located in Sousse, Tunisia. It offers a variety of dishes, including sandwiches, at affordable prices. The restaurant is open from 9am to 2am, and is closed on Tuesdays. It is located at 8 Av. Khezama, Sousse 4051, and can be contacted at 26 863 063.</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25087,7 @@
       </c>
       <c r="Y241" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Shadok's Resto Pizza located at RJVC+P3H Shadok's Resto Pizza, Av. Taha Houssein, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-02:00, but closed on . To get there, use these GPS coordinates: 35.844595805795, 10.620182533866. For more details, visit their website at or call them at 26 200 018.</t>
+          <t>Shadok's Resto Pizza is a highly-rated restaurant in Sousse, Tunisia, with a 4.2-star rating based on 86 reviews. Its main category is Restaurant and it offers delicious pizzas and other dishes. Located at coordinates (35.844595805795, 10.620182533866), it is situated on Av. Taha Houssein, making it easily accessible. Its main feature is its delectable pizzas, which are prepared with fresh ingredients and cooked to perfection. The restaurant serves its customers from 08:00-02:00 and is closed on no specific days.</t>
         </is>
       </c>
     </row>
@@ -25401,10 +25194,7 @@
       </c>
       <c r="Y242" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to eat, check out La Boule D'or located at La Boule D'or, Sousse. 
-This top-rated destination is perfect for Restaurant lovers with a rating of 4.2. 
-It's open during weekdays from 12:00-23:00, but closed on mercredis. 
-For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 73 229 794.</t>
+          <t>La Boule D'or, located at (44.802726, 4.7818381) in Sousse, is a popular restaurant with a rating of 4.2 and 82 reviews. It is closed on Wednesdays and operates from 12:00-23:00 on other days. The menu includes pizzas, sandwiches, burgers, and fast food, with a focus on cheese. The website https://best--restaurants.blogspot.com/ provides more information about the restaurant.</t>
         </is>
       </c>
     </row>
@@ -25507,7 +25297,7 @@
       </c>
       <c r="Y243" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Zitouna Restaurant located at VJ35+4PH Zitouna Restaurant, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on lund. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website or call them at 73 240 650.</t>
+          <t>Zitouna Restaurant is a popular restaurant in Sousse offering a wide range of dishes, including seafood, meat, and vegetarian options. It is located at VJ35+4PH Zitouna Restaurant, Sousse, and is open from 10:00-00:00 daily except Mondays. The restaurant has received positive reviews for its delicious food, friendly service, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -25614,7 +25404,7 @@
       </c>
       <c r="Y244" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great dining experience, head to Papadam Food on Rue Dr. Boukhris, 1, Sahloul, Sousse. This top-rated restaurant is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on . To get there, use these GPS coordinates: 35.839839, 10.5945644. For more details, visit their website at https://www.facebook.com/PapadamFood/ or call them at 56 030 201.</t>
+          <t>Papadam Food, a highly reviewed restaurant in Sahloul, Sousse, with a rating of 4.3 out of 5 based on 71 reviews, offers delicious sandwiches and fast food options. Located at Rue Dr. Boukhris, 1, its menu features a variety of dishes that cater to different tastes and preferences.</t>
         </is>
       </c>
     </row>
@@ -25721,8 +25511,7 @@
       </c>
       <c r="Y245" t="inlineStr">
         <is>
-          <t>If you find yourself craving some upscale gastronomy in Sousse, head to La Villa Restaurant. Located on Bd du 14 Janvier, Sousse 4039, this top-rated destination offers a sophisticated dining experience. With a 4.0 rating based on 60 reviews, La Villa Restaurant will provide a memorable evening out. 
-Savor Mediterranean flavors while enjoying the elegant ambiance. Open every day except Monday from 7 pm to midnight, La Villa Restaurant is easily accessible. Simply follow the GPS coordinates to arrive at (35.842529, 10.627123). To book a table or inquire further, visit their website at https://movenpick.accor.com/en/africa/tunisia/sousse/hotel-sousse/restaurants/la-villa-restaurant.html or call them at 73 202 000.</t>
+          <t>La Villa Restaurant, located in Sousse, is a highly rated dining establishment with 60 customer reviews and an impressive 4.0-star rating. This Mediterranean gourmet restaurant is open most evenings from 7 pm to midnight and offers a range of dining options. The address is Bd du 14 Janvier, Sousse 4039.</t>
         </is>
       </c>
     </row>
@@ -25829,7 +25618,7 @@
       </c>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a delicious Italian meal, head to Restaurant Italien La Cucina located at Restaurant Italien La Cucina, Galerie Amine, 34, Rte de la Plage, Sousse 4011. This top-rated restaurant is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at https://www.facebook.com/lacucinasousse/ or call them at 24 147 114.</t>
+          <t>Restaurant Italien La Cucina is a 4.1-rated Italian restaurant located in Sousse. It is closed on Mondays and typically operates from noon to midnight during other days of the week. The restaurant's featured image shows a cozy and inviting dining space, and it has a strong online presence with a Facebook page.</t>
         </is>
       </c>
     </row>
@@ -25932,7 +25721,7 @@
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great dining experience, check out Restaurant La Caleche located at RJJQ+9WF Restaurant La Caleche, Rue Remada, Sousse. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.830753079254, 10.639911162112. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Cal%C3%A8che/data=!4m7!3m6!1s0x13027574fb79e5e7:0x9e3c633c839462e4!8m2!3d35.8309428!4d10.6398088!16s%2Fg%2F11b_3d628c!19sChIJ5-V5-3R1AhMR5GKUgzxjPJ4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 226 489.</t>
+          <t>The Restaurant La Caleche is located in RJJQ+9WF, Rue Remada in Sousse, Tunisia. It offers a variety of dishes and has received positive reviews for its food, ambiance, and affordable prices. The restaurant is popular among locals and tourists alike and is known for its delicious seafood dishes and extensive wine list.</t>
         </is>
       </c>
     </row>
@@ -26039,7 +25828,7 @@
       </c>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great restaurant, check out Sit &amp; Eat located at 17 rue harari, Sousse 4054. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-02:00, but closed on dimanche. To get there, use these GPS coordinates: 57.046833333, -135.361069444. For more details, visit their website at https://www.facebook.com/sitandeatsousse or call them at 21 212 198.</t>
+          <t>Sit &amp; Eat is a restaurant in Sousse. It is located in downtown at 17 harari street. It is open from 11:00 to 02:00 on weekdays and is closed on sundays. This restaurant is rated 4.1 out of 5 stars on Google and offers chapati and cheeses, among other things. Customers appreciate the restaurant's location, food, and service.</t>
         </is>
       </c>
     </row>
@@ -26146,7 +25935,7 @@
       </c>
       <c r="Y249" t="inlineStr">
         <is>
-          <t>If you happen to be in sousse and looking for a wonderful Restaurant, be sure to visit Restaurant Le Mosaique, located at Av. Taieb Mehiri, Sousse. The restaurant has garnered a 4.2 rating and is open from 11:00-23:00 all through the week. For more information, check out their website at https://best--restaurants.blogspot.com/ or give them a call at 73 825 016.</t>
+          <t>Restaurant Le Mosaique is a popular dining destination located at Av. Taieb Mehiri in Sousse. Known for its delectable cuisine and welcoming ambiance, it offers a diverse menu that caters to various tastes. The restaurant boasts a 4.2 rating based on 35 reviews, highlighting its commitment to providing a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -26253,9 +26042,7 @@
       </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Cool Tounsi located at Cool Tounsi, shr` flsTyn sws@ shlwl `mr@ bwmyz@, Sousse 4000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 11:30-23:00. To get there, use these GPS coordinates: 35.8177614, 10.6402245. For more details, visit their website at https://www.facebook.com/Cooltounsi2021/ or call them at 50 228 166.</t>
+          <t>Cool Tounsi is a restaurant located in Sousse, Tunisia (35.8177614, 10.6402245). The restaurant offers a variety of dishes and has a rating of 4.6 out of 5 stars on Google Reviews. Cool Tounsi is open from 11:30 AM to 11:00 PM and is closed on Mondays. The restaurant's website is https://www.facebook.com/Cooltounsi2021/ and its phone number is 50 228 166.</t>
         </is>
       </c>
     </row>
@@ -26358,7 +26145,7 @@
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Restaurant Medina sousse located at Rue des Palmiers, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Restauration rapide, Pizzeria to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on mercredi. To get there, use these GPS coordinates: 35.8305034, 10.6413384. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Medina+sousse/data=!4m7!3m6!1s0x1302759ddb97f6a9:0xfad58fe2eab27070!8m2!3d35.8480167!4d10.6101607!16s%2Fg%2F11hyq1gyx7!19sChIJqfaX2511AhMRcHCy6uKP1fo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 785 452.</t>
+          <t>Restaurant Medina sousse is a highly-rated (4.8/5) restaurant located in Sousse, Tunisia. It specializes in delectable Mediterranean cuisine and offers a variety of dishes to choose from. Customers particularly rave about the affordability and ambiance, making it a popular spot during Ramadan and for evening dinners. The restaurant is conveniently situated in Rue des Palmiers, with coordinates (35.8305034, 10.6413384) for easy navigation.</t>
         </is>
       </c>
     </row>
@@ -26465,7 +26252,7 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to eat, check out Restaurant la fiesta located at Av. Taieb Mehiri. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 35.8692797, 10.5687935. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 73 225 112.</t>
+          <t>Restaurant la fiesta is a restaurant located in the city of Sousse (35.8692797, 10.5687935). The restaurant offers a variety of dishes at affordable prices. The restaurant is open 24 hours a day and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -26564,7 +26351,8 @@
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>If you're in sousse, check out Au Petit Chaudron, located at 37 Bd du 14 Janvier, Sousse 4003. This top-rated destination is perfect for Restaurant familial enthusiasts. It has a 4.8 rating, making it a must-visit spot. It's open from 11:00-23:30 and closed on . For more details, visit the provided links.</t>
+          <t>**Au Petit Chaudron**
+Located in the heart of Sousse, Au Petit Chaudron is a family restaurant renowned for its warm atmosphere and delicious cuisine. It offers a cozy ambiance with its intimate seating areas and a menu featuring a wide variety of dishes. The restaurant is conveniently situated at 37 Bd du 14 Janvier, Sousse 4003, making it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -26663,9 +26451,7 @@
       </c>
       <c r="Y254" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Fish Restaurant Sousse located at Foyer Universitaire Sahloul, Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 35.832233, 10.5902979. For more details, visit their website at https://www.google.com/maps/place/Fish+Restaurant+Sousse/data=!4m7!3m6!1s0x12fd8af6b303ae27:0x9c93842b8d90d059!8m2!3d35.8326086!4d10.5905822!16s%2Fg%2F11c0v7wpmg!19sChIJJ64Ds_aK_RIRWdCQjSuEk5w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Fish Restaurant Sousse is a 4.2-star rated restaurant located in sousse. It offers a variety of seafood dishes and is open from 11:00 AM until 11:00 PM. The restaurant is located at 35.832233, 10.5902979.</t>
         </is>
       </c>
     </row>
@@ -26764,9 +26550,7 @@
       </c>
       <c r="Y255" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Blooming Restaurant located at Blooming Restaurant, Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 33.858195, -118.080509. For more details, visit their website at https://www.google.com/maps/place/Blooming+Restaurant/data=!4m7!3m6!1s0x12fd8a9aaaaaaaab:0x24a91692f3114c2a!8m2!3d35.825603!4d10.608395!16s%2Fg%2F11fx7xxk7t!19sChIJq6qqqpqK_RIRKkwR85IWqSQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Blooming Restaurant is a restaurant located in sousse. It has a rating of 4.4 out of 5 stars, based on 5 reviews. It is open from 11:00 AM to 23:00 PM, and is closed on . The restaurant offers a variety of dishes, and is located at the following coordinates: (33.858195, -118.080509).</t>
         </is>
       </c>
     </row>
@@ -26873,7 +26657,7 @@
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to eat, check out OSCAR GRILL RESTO located at RHVX+JMM OSCAR GRILL RESTO, Av. Imam Mouslem, Sousse. This top-rated restaurant is perfect for restaurant lovers and offers a delicious selection of dishes to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 12:00-00:00 but closed on . To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 25 420 543.</t>
+          <t>OSCAR GRILL RESTO is a 4.7 stars rated restaurant located in Sousse, Tunisia, classified as Restaurant. Its main category is Restaurant and offers a range of culinary delights. Its coordinates are (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -26968,7 +26752,7 @@
       </c>
       <c r="Y257" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for transportation, mHT@ llwjt is the place for you. Located at 1 Rue El Masjed El Aksa, Sousse 4000, this top-rated bus and coach transportation company offers a range of services to choose from. With a rating of 3.4, it's a must-visit spot for commuters and travelers alike. It's open during various hours, but closed on specific days. To get there, use these GPS coordinates: 35.810072442502, 10.636258602239. For more details, visit their link at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x130275417e43e25f:0x25d9fe727e95e7b1!8m2!3d35.8093704!4d10.6366586!16s%2Fg%2F11dylq5vh_!19sChIJX-JDfkF1AhMRseeVfnL-2SU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mHT@ llwjt is a provider of bus and coach transportation services located at 1 Rue El Masjed El Aksa, Sousse 4000. It offers transportation services using minibuses or vans and has received a 3.4 rating based on 190 reviews. The company is known for its affordable pricing and availability of tickets.</t>
         </is>
       </c>
     </row>
@@ -27067,10 +26851,7 @@
       </c>
       <c r="Y258" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a train station, check out Sousse Voyageurs located at Sousse Voyageurs, Sousse. 
-This top-rated destination is perfect for travelers and offers a range of services to choose from. 
-With a rating of 3.6, it's a must-visit spot for train related needs. 
-For more details, visit their website at http://www.sncft.com.tn/.</t>
+          <t>Sousse Voyageurs is a railway station located in Sousse, Tunisia. It offers various services, including ticket booking, train information, and luggage storage. The station features a waiting area with seating and a cafeteria. Located at coordinates (35.8293001, 10.6406309), it provides convenient access to the city and surrounding areas.</t>
         </is>
       </c>
     </row>
@@ -27165,7 +26946,7 @@
       </c>
       <c r="Y259" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station Louage de Sousse located at Station Louage de Sousse, 1, Sousse 4000. This top-rated destination is perfect for Arret de transports en commun lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.8582783, 10.5990311. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+de+Sousse/data=!4m7!3m6!1s0x1302754178e08ef1:0x3a6f15c2a77b86c7!8m2!3d35.8093997!4d10.6370762!16s%2Fg%2F1tfsv_12!19sChIJ8Y7geEF1AhMRx4Z7p8IVbzo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Louage de Sousse is a well-known transportation hub situated in Sousse, Tunisia. It offers reliable and affordable transportation services to various destinations. The station is conveniently located at the following coordinates: (35.8582783, 10.5990311), making it easily accessible for travelers.</t>
         </is>
       </c>
     </row>
@@ -27260,8 +27041,7 @@
       </c>
       <c r="Y260" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Gare Routiere de Sousse / Souk Lahad located at RJ7J+R6Q Gare Routiere de Sousse / Souk Lahad, Sousse. 
-This top-rated destination is perfect for Service de transport lovers. With a rating of 3.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gare+Routi%C3%A8re+de+Sousse+%2F+Souk+Lahad/data=!4m7!3m6!1s0x130275e6c9e64369:0x344a54e06b940edd!8m2!3d35.8145914!4d10.6306233!16s%2Fg%2F11hhbpd541!19sChIJaUPmyeZ1AhMR3Q6Ua-BUSjQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Gare Routière de Sousse / Souk Lahad in Sousse is a well-known bus station conveniently situated at RJ7J+R6Q, close to major transportation hubs. With 3.0 rating based on 16 reviews, it offers reliable bus services and has become a focal point for travelers.</t>
         </is>
       </c>
     </row>
@@ -27356,9 +27136,7 @@
       </c>
       <c r="Y261" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station de Transport Terrestre located at Station de Transport Terrestre, Sousse. 
-This top-rated destination is perfect for Gare routiere lovers. 
-With a rating of 3.6, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Station+de+Transport+Terrestre/data=!4m7!3m6!1s0x13027567dec13aed:0x7b67f72aba5c9b8c!8m2!3d35.8143774!4d10.630389!16s%2Fg%2F1tml7lq8!19sChIJ7TrB3md1AhMRjJtcuir3Z3s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Station de Transport Terrestre is a bus station located in the city of Sousse, Tunisia. It offers a variety of transportation services, including intercity and international bus routes. The station is conveniently located in the center of the city, making it easily accessible for travelers. The Station de Transport Terrestre is a great option for those looking for a convenient and affordable way to travel between cities in Tunisia and abroad.</t>
         </is>
       </c>
     </row>
@@ -27453,7 +27231,7 @@
       </c>
       <c r="Y262" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a convenient way to travel, check out Station Bus Sousse Terminal located at RJHQ+8HV Station Bus Sousse Terminal, Bd Yahia Ibn Omar, Sousse. This top-rated destination is perfect for taxi lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Station Bus Sousse Terminal is a taxi station located in Sousse, Tunisia. It offers a wide range of services, including taxi service, parking, and a waiting area. The station is conveniently located near the city center and is easily accessible by public transportation.</t>
         </is>
       </c>
     </row>
@@ -27548,7 +27326,7 @@
       </c>
       <c r="Y263" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable transport option, check out Station de louage Sahloul located at RHMR+R2C Station de louage Sahloul, Sousse. This top-rated destination is perfect for travel enthusiasts and offers a range of transport services to choose from. With a rating of 3.5, it's a must-visit spot. It's open during these hours: (workday_timing) but closed on (closed_on). To get there, use these GPS coordinates: 35.8342033, 10.5898061. For more details, visit their website at (website) or call them at (phone).</t>
+          <t>Station de louage Sahloul is a bus and coach transport company located in Sousse (Tunisia) at the following coordinates (35.8342033, 10.5898061). You can find more details about the company on its website or by contacting the owner.</t>
         </is>
       </c>
     </row>
@@ -27643,8 +27421,7 @@
       </c>
       <c r="Y264" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a reputable rail travel provider, consider Station Sousse Bab Jedid located at Station Sousse Bab Jedid, Bab Jdid, ave Mohamed V, Sousse. 
-With a rating of 3.0, it offers a reliable travel experience. For more details, visit their website at https://www.google.com/maps/place/Station+Sousse+Bab+Jedid/data=!4m7!3m6!1s0x13027544e41c2153:0x2591faade71ef01d!8m2!3d35.822919!4d10.6415692!16s%2Fg%2F11khmmsk8x!19sChIJUyEc5ER1AhMRHfAe5636kSU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>The Station Sousse Bab Jedid is a metropolitan railway in Sousse, Tunisia. It is located at the coordinates (35.821346821893, 10.641715517371) and offers a variety of services to its customers.</t>
         </is>
       </c>
     </row>
@@ -27739,8 +27516,7 @@
       </c>
       <c r="Y265" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for transportation, check out Bus Station Sidi Ibrahim Errahba located at Bus Station Sidi Ibrahim Errahba, Sousse. 
-This top-rated destination is perfect for Gare routiere lovers and a must-visit spot with a rating of 3.0. For more details, visit their website at https://www.google.com/maps/place/Bus+Station+Sidi+Ibrahim+Errahba/data=!4m7!3m6!1s0x12fd8a3ee4a459eb:0xf566addd0d8ae3f6!8m2!3d35.862317!4d10.593527!16s%2Fg%2F1vgx2vxx!19sChIJ61mk5D6K_RIR9uOKDd2tZvU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bus Station Sidi Ibrahim Errahba is a bus station located in Sousse, Tunisia. It has a rating of 3.0 out of 5 on Google Maps, and offers bus services to various destinations. The station is located at 35.8619957 latitude and 10.5935985 longitude.</t>
         </is>
       </c>
     </row>
@@ -27835,7 +27611,7 @@
       </c>
       <c r="Y266" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable Service de transport, head over to Station BUS STS Sousse-Hergla. With its convenient location at XG4R+P99 Station BUS STS Sousse-Hergla, Unnamed Road, Sidi Bou Ali, it's a quick stop for transportation needs. Boasting a rating of 2.5, this establishment provides a range of services that are well-suited for travelers and locals alike.</t>
+          <t>The Station BUS STS Sousse-Hergla, located in XG4R+P99, Sidi Bou Ali, is a transportation service that has received a rating of 2.5 out of 5 based on 2 reviews. It is easily accessible via the coordinates (35.9552899, 10.4717157), making it a convenient option for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -27930,9 +27706,7 @@
       </c>
       <c r="Y267" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable Station de taxis, check out Station Louage Hopital Sahloul located at RHMR+R2V Station Louage Hopital Sahloul, Sousse. 
-This highly-rated destination is perfect for Station de taxis lovers. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8342033, 10.5898061.</t>
+          <t>Station Louage Hopital Sahloul is a taxi station located in Sousse, Tunisia. It is situated at the coordinates (35.8342033, 10.5898061), nearby RHMR+R2V Station Louage Hopital Sahloul.</t>
         </is>
       </c>
     </row>
@@ -28027,9 +27801,14 @@
       </c>
       <c r="Y268" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out mHT@ llwjt located at 1 Rue El Masjed El Aksa, Sousse 4000. 
-This top-rated destination is perfect for Societe de transport en bus et autocar lovers and offers a range of Societe de transport en bus et autocar to choose from. 
-With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.810072442502, 10.636258602239.</t>
+          <t>mHT@ llwjt is a bus and coach transport company located in Sousse, Tunisia. It provides a range of services, including:
+* Bus and coach hire
+* Private transfers
+* Airport transfers
+* Group tours
+* Customized transportation solutions
+The company has a fleet of modern, comfortable vehicles and experienced drivers. It is committed to providing a safe, reliable, and efficient service.
+mHT@ llwjt is conveniently located in the heart of Sousse, with easy access to the city's main attractions and transportation hubs. The company's office is located at 1 Rue El Masjed El Aksa, Sousse 4000.</t>
         </is>
       </c>
     </row>
@@ -28124,7 +27903,7 @@
       </c>
       <c r="Y269" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a resting spot, check out Gare routiere BAB BHAR located at Bd Yahia IBN Omar. This popular destination is ideal for travellers and is rated 3.2 by visitors. For more details, visit their website or check out their featured image at https://lh5.googleusercontent.com/p/AF1QipMR1MoKbTT1q9rktzPgyJHwQNaTKvGCGr1pmfQ9=w408-h257-k-no. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>Gare routiere BAB BHAR is a bus station located in Sousse, Tunisia. It offers convenient transportation services to various destinations, making it a hub for travelers. The station is well-positioned at Bd Yahia IBN Omar, providing easy access for commuters. Despite the lack of a description, the station caters to a significant number of passengers and features amenities to facilitate a seamless travel experience. Gare routiere BAB BHAR is an important part of the transportation network in Sousse, connecting people to different regions and beyond.</t>
         </is>
       </c>
     </row>
@@ -28219,10 +27998,7 @@
       </c>
       <c r="Y270" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station de Transport Terrestre located at Station de Transport Terrestre, Sousse. 
-This top-rated destination is a must-visit spot for Gare routiere lovers. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.8444856, 10.5903867. For more details, visit their website 
-at https://www.google.com/maps/place/Station+de+Transport+Terrestre/data=!4m7!3m6!1s0x13027567dec13aed:0x7b67f72aba5c9b8c!8m2!3d35.8143774!4d10.630389!16s%2Fg%2F1tml7lq8!19sChIJ7TrB3md1AhMRjJtcuir3Z3s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Station de Transport Terrestre in Sousse, Tunisia, is a renowned bus station catering to travelers. It features (unknown) facilities, conveniently located at (35.8444856, 10.5903867) in the city of Sousse.</t>
         </is>
       </c>
     </row>
@@ -28317,9 +28093,7 @@
       </c>
       <c r="Y271" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something related to Arret de transports en commun, check out STS Societe de Transport du Sahel.
-This top-rated destination is perfect for Arret de transports en commun lovers and offers a must-visit spot. 
-With a rating of 3.3, it's a must-visit spot. It's located at STS Societe de Transport du Sahel, Avenue Leopold SEDAR SENGHOR, Sousse 4000. To get there, use these GPS coordinates: 35.8177614, 10.6402245.</t>
+          <t>STS Societe de Transport du Sahel is a public transportation stop located in Sousse, Tunisia. It offers bus services to various destinations within the city and its surroundings. The stop is situated on Avenue Leopold SEDAR SENGHOR, with coordinates (35.8177614, 10.6402245). Users have rated the stop 3.3 out of 5 based on 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -28414,7 +28188,7 @@
       </c>
       <c r="Y272" t="inlineStr">
         <is>
-          <t>If you're in sousse, the Station BUS STS Sousse-Hergla is a top-rated destination for Service de transport lovers. With a rating of 2.5, it's a must-visit spot and is located at XG4R+P99 Station BUS STS Sousse-Hergla, Unnamed Road, Sidi Bou Ali. For more details, visit their website.</t>
+          <t>Station BUS STS Sousse-Hergla is a transport service located in XG4R+P99 Station BUS STS Sousse-Hergla, Unnamed Road, Sidi Bou Ali, with the coordinates (35.9552899, 10.4717157). It has a rating of 2.5 based on 2 reviews. Unfortunately, there is no further information provided about its services or amenities.</t>
         </is>
       </c>
     </row>
@@ -28521,12 +28295,7 @@
       </c>
       <c r="Y273" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station-service MEGRINE GP1 located at N1 Route de Sousse GP1 Megrine, 2033. 
-This top-rated destination is perfect for Station-service lovers. 
-With a rating of 4.1, it's a must-visit spot. 
-It's open during these hours: Ouvert 24h/24, but closed on . 
-To get there, use these GPS coordinates: 36.774528681661, 10.231072888817. 
-For more details, visit their website at https://services.totalenergies.tn/ or call them at 71 295 635.</t>
+          <t>Station-service MEGRINE GP1 is a gas station located in N1 Route de Sousse GP1 Megrine, 2033. It offers various services, including 24-hour service and a wide range of fuel options. With a rating of 4.1 based on 17 reviews, Station-service MEGRINE GP1 is a popular choice for those seeking fuel and other services. It is conveniently located at (36.774528681661, 10.231072888817), making it easily accessible for customers.</t>
         </is>
       </c>
     </row>
@@ -28633,9 +28402,7 @@
       </c>
       <c r="Y274" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something to do, check out Station-service TotalEnergies FOUNDOUK CHOUCHA located at N1 Route de Sousse km 6,5 Megrine, 2033. 
-This top-rated destination is perfect for Station-service lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7780797, 10.2323729. For more details, visit their website at https://services.totalenergies.tn/ or call them at 71 297 821.</t>
+          <t>Station-service TotalEnergies FOUNDOUK CHOUCHA is a gas station located in Megrine, Tunisia. It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located on N1 Route de Sousse km 6,5, making it easy to access for travelers. The station has received positive reviews from customers, with an average rating of 4.4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -28730,9 +28497,7 @@
       </c>
       <c r="Y275" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station de Transport Terrestre located at Station de Transport Terrestre, Sousse. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.8444856, 10.5903867.</t>
+          <t>Located in Sousse, the transportation hub Station de Transport Terrestre offers passenger bus services to various destinations. It features a main terminal building with amenities like waiting areas, ticket counters, and a commercial area for dining and shopping. The station is conveniently situated at (35.8444856, 10.5903867), making it accessible from different parts of the city.</t>
         </is>
       </c>
     </row>
@@ -28827,7 +28592,7 @@
       </c>
       <c r="Y276" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Sousse Bab Jdid located at ave Mohamed V, Sousse. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.9, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Sousse+Bab+Jdid/data=!4m7!3m6!1s0x13027572a8680419:0x74fd577c0eb8ecd7!8m2!3d35.823063!4d10.6415928!16s%2Fg%2F1ttrty5h!19sChIJGQRoqHJ1AhMR1-y4DnxX_XQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Sousse Bab Jdid is a train station located at the coordinates (35.821346821893, 10.641715517371) in Sousse. The station is accessible by metro, and offers a variety of services.</t>
         </is>
       </c>
     </row>
@@ -28934,7 +28699,7 @@
       </c>
       <c r="Y277" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable Service de transport, check out STS Sousse located at STS Sousse, P1, Sousse. This top-rated destination is perfect for Service de transport lovers. With a rating of 2.9, it's a must-visit spot. It's open during these hours: 08:00-14:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.8333241, 10.6310626. For more details, visit their website at https://siege.stsahel.tn/fr/ or call them at 31 384 001.</t>
+          <t>STS Sousse is a transport service located in sousse at the address STS Sousse, P1. It offers various transportation services with average rating of 2.9. The establishment is open during weekdays from 8:00 am to 02:30 pm and is closed on Saturdays and Sundays.</t>
         </is>
       </c>
     </row>
@@ -29029,7 +28794,7 @@
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>If you're in sousse, check out Station de Transport Terrestre, a top-rated Gare routiere. With 3.6 stars and 14 reviews, it's a popular spot. The address is Station de Transport Terrestre, Sousse. For more information, visit https://www.google.com/maps/place/Station+de+Transport+Terrestre/data=!4m7!3m6!1s0x13027567dec13aed:0x7b67f72aba5c9b8c!8m2!3d35.8143774!4d10.630389!16s%2Fg%2F1tml7lq8!19sChIJ7TrB3md1AhMRjJtcuir3Z3s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Transport Terrestre is a bus station located in Sousse, Tunisia. It is situated at coordinates (35.8444856, 10.5903867) and offers bus services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -29124,7 +28889,7 @@
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>If you're in sousse, mHT@ llwjt is a highly recommended Societe de transport en bus et autocar located at 1 Rue El Masjed El Aksa, Sousse 4000. With a rating of 3.4, this top-rated destination offers a range of services for all Societe de transport en bus et autocar enthusiasts. To get there, use these GPS coordinates: 35.810072442502, 10.636258602239. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x130275417e43e25f:0x25d9fe727e95e7b1!8m2!3d35.8093704!4d10.6366586!16s%2Fg%2F11dylq5vh_!19sChIJX-JDfkF1AhMRseeVfnL-2SU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mHT@ llwjt is a transport company located in Sousse, Tunisia. Coordinates: (35.810072442502, 10.636258602239), it offers bus and coach transportation services.</t>
         </is>
       </c>
     </row>
@@ -29219,8 +28984,7 @@
       </c>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to commute, check out Station Louage de Sousse located at Station Louage de Sousse, 1, Sousse 4000. This top-rated destination offers a range of public transportation services to choose from. With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.8582783, 10.5990311.</t>
+          <t>Station Louage de Sousse is a transportation hub in Sousse, Tunisia, located at coordinates (35.8582783, 10.5990311). While its main category is Public Transit Stop, it may offer additional services and amenities.</t>
         </is>
       </c>
     </row>
@@ -29315,9 +29079,7 @@
       </c>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Gare Routiere de Sousse / Souk Lahad located at RJ7J+R6Q Gare Routiere de Sousse / Souk Lahad. 
-This top-rated destination is perfect for Service de transport lovers and offers a range of Service de transport to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>The Gare Routiere de Sousse is a transportation service provider located in Sousse, Tunisia. It offers bus services and is situated at the coordinates (35.8293001, 10.6406309).</t>
         </is>
       </c>
     </row>
@@ -29412,9 +29174,7 @@
       </c>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a Gare routiere, check out Station de Transport Terrestre located at Station de Transport Terrestre, Sousse. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.8444856, 10.5903867. For more details, visit their website at https://www.google.com/maps/place/Station+de+Transport+Terrestre/data=!4m7!3m6!1s0x13027567dec13aed:0x7b67f72aba5c9b8c!8m2!3d35.8143774!4d10.630389!16s%2Fg%2F1tml7lq8!19sChIJ7TrB3md1AhMRjJtcuir3Z3s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The "Station de Transport Terrestre" is a bus station located in Sousse, Tunisia, at the coordinates (35.8444856, 10.5903867). It is known for its 14 reviews and its rating of 3.6.</t>
         </is>
       </c>
     </row>
@@ -29509,7 +29269,7 @@
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable transportation option, check out Station de louage Sahloul located at RHMR+R2C Station de louage Sahloul, Sousse. This top-rated bus and coach transportation company is perfect for travel enthusiasts and offers a range of services to choose from. With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8342033, 10.5898061. For more details, visit their website at https://www.google.com/maps/place/Station+de+louage+Sahloul/data=!4m7!3m6!1s0x12fd8af6ed3fce67:0x43820bee6cfd5c2a!8m2!3d35.8345566!4d10.5900153!16s%2Fg%2F11g6zh0dt1!19sChIJZ84_7faK_RIRKlz9bO4LgkM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in Sousse, Station de louage Sahloul is a bus and coach transport company with a rating of 3.5. With its convenient location at RHMR+R2C Station de louage Sahloul, Sousse, the company offers reliable transportation services to its customers.</t>
         </is>
       </c>
     </row>
@@ -29604,9 +29364,7 @@
       </c>
       <c r="Y284" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Gare de Sousse located at RJJQ+87J Gare de Sousse, Sousse. 
-This top-rated destination is perfect for  lovers and offers a range of  to choose from. 
-With a rating of 3.3, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 35.799379745648, 10.600310985417. For more details, visit their website at http://www.sncft.com.tn/ or call them at 73 224 955.</t>
+          <t>The Gare de Sousse is a train station located in Sousse, Tunisia. It is a major transportation hub for the city and the surrounding region. The station offers a variety of services, including ticket sales, baggage handling, and currency exchange. It is also home to a number of shops and restaurants. The Gare de Sousse is located in the city center, making it easily accessible by foot, car, or public transportation. The station is also close to a number of hotels and other attractions.</t>
         </is>
       </c>
     </row>
@@ -29701,7 +29459,7 @@
       </c>
       <c r="Y285" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable public transportation stop, check out Station Louage de Sousse located at Station Louage de Sousse, 1, Sousse 4000. This highly-rated spot is perfect for those seeking Arret de transports en commun and has a rating of 4.1. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+de+Sousse/data=!4m7!3m6!1s0x1302754178e08ef1:0x3a6f15c2a77b86c7!8m2!3d35.8093997!4d10.6370762!16s%2Fg%2F1tfsv_12!19sChIJ8Y7geEF1AhMRx4Z7p8IVbzo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station Louage de Sousse is a public transportation stop in Sousse, Tunisia. It is located at the coordinates (35.8582783, 10.5990311) and offers access to various transportation options. Station Louage de Sousse is a popular destination for locals and tourists alike, providing convenient and affordable transportation.</t>
         </is>
       </c>
     </row>
@@ -29804,7 +29562,7 @@
       </c>
       <c r="Y286" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to refuel your vehicle, consider Station Service STAROIL CHATT MERIEM located at Station Service STAROIL CHATT MERIEM, CHATT MERIEM, Sousse 4042. This top-rated destination is perfect for drivers and offers a range of services to choose from, including fueling, car wash, and a kiosk. With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.9660199, 10.5307788. For more details, call them at 53 958 793.</t>
+          <t>**Station Service STAROIL CHATT MERIEM** is a gas station located in Sousse, Tunisia, at the coordinates (35.9660199, 10.5307788). It's open 24/7 and offers a wide range of services, including fuel, car wash, and a convenience store. It also features a cafe, cafeteria, and kiosk. With a 4.3 rating based on 30 reviews, this station is known for its reliability and friendly service.</t>
         </is>
       </c>
     </row>
@@ -29911,9 +29669,7 @@
       </c>
       <c r="Y287" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station Shell located at Station Shell, Station de Service Sahloul Rte De, Gp1, Sousse 4054. 
-This top-rated destination is perfect for Station-service lovers and offers a range of categories to choose from, including Station de lavage automobile, Superette, Restaurant, and Sandwicherie. 
-With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, but closed on . To get there, use these GPS coordinates: 35.8439828, 10.5949764. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044725-sahloul or call them at 71 249 149.</t>
+          <t>Station Shell is a gas station conveniently located at Station de Service Sahloul Rte De, Gp1, Sousse 4054, offering a wide range of services to its customers. With its 24/7 availability, motorists can refuel at their convenience. The station also features a car wash for vehicle maintenance, as well as a mini-market for quick purchases. Additionally, it offers dining options including a restaurant and a sandwich shop, providing a convenient stop for both fuel and sustenance. The station boasts a 4.1-star rating based on 27 reviews, and its proximity to major roads makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -30020,9 +29776,7 @@
       </c>
       <c r="Y288" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great place to fill up your tank, head to Kiosque Shell Sahloul located at Route De Sousse De Gp1, Rue El Fell, Sousse 4054. 
-This top-rated destination is perfect for drivers and offers a range of services including fuel, car wash, groceries, and dining. 
-With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.8439828, 10.5949764. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10090457-sahloul-ii or call them at 71 249 149.</t>
+          <t>Kiosque Shell Sahloul is a gas station located in sousse, Tunisia. It offers a variety of services, including fuel, car wash, convenience store, and restaurant. The gas station is open 24 hours a day and is conveniently located near the highway.</t>
         </is>
       </c>
     </row>
@@ -30117,7 +29871,7 @@
       </c>
       <c r="Y289" t="inlineStr">
         <is>
-          <t>Explore Station de Transport Terrestre, a top-rated Gare routière destination in sousse. With a rating of 3.6, it's a must-visit spot for Gare routière lovers. Its address is Station de Transport Terrestre, Sousse. Use these GPS coordinates to get there: (35.8444856, 10.5903867).</t>
+          <t>The Station de Transport Terrestre is a bus station located in Sousse, Tunisia. It is a major transportation hub for the city, with buses departing to and from destinations all over the country. The station is located in the city center, making it convenient for travelers to access. It offers a variety of amenities, including a waiting area, ticket counters, and a currency exchange. The station is also home to several shops and restaurants, providing travelers with a convenient place to relax and grab a bite to eat. The Station de Transport Terrestre is a vital part of Sousse's transportation network, and it plays an important role in the city's economy.</t>
         </is>
       </c>
     </row>
@@ -30212,7 +29966,7 @@
       </c>
       <c r="Y290" t="inlineStr">
         <is>
-          <t>If you're in sousse, Station Bus Sousse Terminal is a top-rated destination for Station de taxis lovers, with a 4.2 rating. It's located at RJHQ+8HV Station Bus Sousse Terminal, Bd Yahia Ibn Omar, Sousse and is open 24/7. For more details, visit their website at https://www.google.com/maps/place/Station+Bus+Sousse+Terminal/data=!4m7!3m6!1s0x1302757477ccf265:0x4dba85a14db7196b!8m2!3d35.8283629!4d10.638912!16s%2Fg%2F11c1n9pv07!19sChIJZfLMd3R1AhMRaxm3TaGFuk0?authuser=0&amp;hl=fr&amp;rclk=1 or call their number .</t>
+          <t>Station Bus Sousse Terminal is a taxi station located in Sousse, Tunisia. It is a popular destination for travelers, as it is conveniently located near the city center and offers a variety of transportation options. The station is clean and well-maintained, and the staff is friendly and helpful. Station Bus Sousse Terminal is a great place to catch a taxi to or from the city center, or to connect to other transportation options.</t>
         </is>
       </c>
     </row>
@@ -30307,8 +30061,7 @@
       </c>
       <c r="Y291" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a reliable transportation option, check out Station de louage Sahloul located at RHMR+R2C Station de louage Sahloul. 
-This trusted bus and coach transportation company offers a convenient travel experience. With a rating of 3.5, it's a reputable choice. To get there, use these GPS coordinates: 35.8342033, 10.5898061. For more information, visit their website at https://www.google.com/maps/place/Station+de+louage+Sahloul/data=!4m7!3m6!1s0x12fd8af6ed3fce67:0x43820bee6cfd5c2a!8m2!3d35.8345566!4d10.5900153!16s%2Fg%2F11g6zh0dt1!19sChIJZ84_7faK_RIRKlz9bO4LgkM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Station de louage Sahloul is a bus and coach transport company located in Sousse, Tunisia. It offers transportation services within the city and to other parts of the country. The company has a rating of 3.5 based on 12 reviews and is known for its reliable and efficient services.</t>
         </is>
       </c>
     </row>
@@ -30407,9 +30160,7 @@
       </c>
       <c r="Y292" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable Station-service, check out Station service Agil knaz located at Av. de la republique, Sousse. 
-This well-rated destination is perfect for Station-service lovers and offers a range of services to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.830563027762, 10.636032590801. For more details, visit their website at https://www.google.com/maps/place/Station+service+Agil+knaz/data=!4m7!3m6!1s0x12fd8a6aacef50cd:0x2e6be9662dc41c3b!8m2!3d35.8588016!4d10.5976184!16s%2Fg%2F11b7cj73ff!19sChIJzVDvrGqK_RIROxzELWbpay4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station service Agil knaz is a gas station located in Sousse, Tunisia. It is situated at the coordinates (35.830563027762, 10.636032590801) and is open 24 hours a day. The gas station offers a variety of services, including fuel, oil changes, and tire repairs.</t>
         </is>
       </c>
     </row>
@@ -30516,7 +30267,7 @@
       </c>
       <c r="Y293" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable gas station, check out Shell located at Avenue Leopold Senghor, Rue Leopold Senghor, Sousse 4001. This top-rated destination is perfect for Station-service lovers and offers a range of categories to choose from, including Station de lavage automobile and Superette. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 42.063649, 19.457361. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044720-sousse-nord or call them at 71 249 149.</t>
+          <t>Shell is a gas station located in Sousse, Tunisia, at the coordinates (42.063649, 19.457361). It offers a range of services, including fuel, car wash, and a convenience store. The gas station is open 24 hours a day, and its staff provides friendly and efficient service. Shell is a popular destination for locals and tourists alike, who appreciate the convenience and quality of its services.</t>
         </is>
       </c>
     </row>
@@ -30615,7 +30366,7 @@
       </c>
       <c r="Y294" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Station-service, check out OLA located at RJQF+G7M OLA, Sousse. This destination is perfect for anyone looking for a Station-service and offers a range of Station-service to choose from. With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>OLA is a 24-hour gas station located in OLA, Sousse, Tunisia. It has received positive reviews with an average rating of 4.9 stars out of 7 reviews.</t>
         </is>
       </c>
     </row>
@@ -30710,7 +30461,7 @@
       </c>
       <c r="Y295" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a Gare routiere, check out Bus Station Sidi Ibrahim Errahba located at Bus Station Sidi Ibrahim Errahba, Sousse. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Bus+Station+Sidi+Ibrahim+Errahba/data=!4m7!3m6!1s0x12fd8a3ee4a459eb:0xf566addd0d8ae3f6!8m2!3d35.862317!4d10.593527!16s%2Fg%2F1vgx2vxx!19sChIJ61mk5D6K_RIR9uOKDd2tZvU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Bus Station Sidi Ibrahim Errahba is located in Sousse, Tunisia (35.8619957, 10.5935985). It offers transportation services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -30805,7 +30556,7 @@
       </c>
       <c r="Y296" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable transportation service, check out Station BUS STS Sousse-Hergla located at XG4R+P99 Station BUS STS Sousse-Hergla, Unnamed Road, Sidi Bou Ali. This highly rated destination is perfect for travelers and offers a range of services to choose from. With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.9552899, 10.4717157. For more details, visit their website at https://www.google.com/maps/place/Station+BUS+STS+Sousse-Hergla/data=!4m7!3m6!1s0x12fd88ba0adb5733:0xf73984d9d6c0b3eb!8m2!3d35.9567975!4d10.5409963!16s%2Fg%2F11c1mz8154!19sChIJM1fbCrqI_RIR67PA1tmEOfc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station BUS STS Sousse-Hergla is a transportation service located in sousse, Tunisia. It offers bus services and is situated at the coordinates (35.9552899, 10.4717157).</t>
         </is>
       </c>
     </row>
@@ -30900,9 +30651,7 @@
       </c>
       <c r="Y297" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Arret Bus 13C located at Arret Bus 13C, Sousse. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their link at https://www.google.com/maps/place/Arr%C3%AAt+Bus+13C/data=!4m7!3m6!1s0x12fd8a62c647ee73:0x8569179cc38a3e79!8m2!3d35.8380203!4d10.6076002!16s%2Fg%2F11b62x_00p!19sChIJc-5HxmKK_RIReT6Kw5wXaYU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Arret Bus 13C is a bus stop situated in Sousse, Tunisia. It is located at 35.8293001 latitude and 10.6406309 longitude. This bus stop has been rated 4.5 out of 5 stars by 2 reviewers.</t>
         </is>
       </c>
     </row>
@@ -30997,7 +30746,8 @@
       </c>
       <c r="Y298" t="inlineStr">
         <is>
-          <t>If you're in sousse and craving a quick bite, head to Station Louage Hopital Sahloul located at RHMR+R2V Station Louage Hopital Sahloul, Sousse. This popular spot is a haven for taxi lovers and offers a range of options to choose from. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8342033, 10.5898061. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+Hopital+Sahloul/data=!4m7!3m6!1s0x12fd8bdc51a27ec9:0x25c869ed84878b89!8m2!3d35.8346147!4d10.5900448!16s%2Fg%2F11s40v97nz!19sChIJyX6iUdyL_RIRiYuHhO1pyCU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Station Louage Hopital Sahloul**
+Located at RHMR+R2V, Sousse, Tunisia, Station Louage Hopital Sahloul offers taxi services. It has a rating of 2.0 stars based on one review. While no detailed description or website is available, the establishment is reportedly owned by "Station Louage Hopital Sahloul (proprietaire)."</t>
         </is>
       </c>
     </row>
@@ -31092,7 +30842,7 @@
       </c>
       <c r="Y299" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out mHT@ llwjt located at 1 Rue El Masjed El Aksa, Sousse 4000. This top-rated destination is perfect for Societe de transport en bus et autocar lovers and offers a range of categories to choose from. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.810072442502, 10.636258602239. For more details, visit their link at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x130275417e43e25f:0x25d9fe727e95e7b1!8m2!3d35.8093704!4d10.6366586!16s%2Fg%2F11dylq5vh_!19sChIJX-JDfkF1AhMRseeVfnL-2SU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**mHT@ llwjt** is a transportation company. It provides intercity bus and coach services in Tunisia and specializes in low-cost and comfortable travel. It is located in Sousse, in the 1 Rue El Masjed El Aksa.</t>
         </is>
       </c>
     </row>
@@ -31187,10 +30937,7 @@
       </c>
       <c r="Y300" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station de Transport Terrestre located at Station de Transport Terrestre, Sousse. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from.
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: , but closed on . 
-To get there, use these GPS coordinates: 35.8444856, 10.5903867. For more details, visit their website at  or call them at .</t>
+          <t>The Station de Transport Terrestre is a bus station located in Sousse, Tunisia. It is a major transportation hub for the city and the surrounding region. The station offers a variety of services, including bus tickets, luggage storage, and currency exchange. It is also home to a number of shops and restaurants.</t>
         </is>
       </c>
     </row>
@@ -31285,7 +31032,7 @@
       </c>
       <c r="Y301" t="inlineStr">
         <is>
-          <t>If you're in sousse, consider visiting the top-rated Station de Transport Terrestre. Located at Station de Transport Terrestre, Sousse, this place is perfect for those who enjoy Gare routiere, one of the categories it offers. With a rating of 3.6, it's a must-visit spot and has received 14 reviews. Use these GPS coordinates to get there: (35.8444856, 10.5903867).</t>
+          <t>Station de Transport Terrestre is a bus station located in Sousse, Tunisia. It offers a variety of transportation services, including buses to major cities and towns in Tunisia, as well as international destinations. Its central location makes it easily accessible, and its convenient hours of operation ensure that travelers can find a bus to their destination at any time of day.</t>
         </is>
       </c>
     </row>
@@ -31380,7 +31127,7 @@
       </c>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a Gare routiere, check out Station de Transport Terrestre located at Station de Transport Terrestre, Sousse. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.8444856, 10.5903867.</t>
+          <t>The "Station de Transport Terrestre", located in the city of Sousse with coordinates (35.8444856, 10.5903867), is a bus station that provides transportation services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -31475,7 +31222,7 @@
       </c>
       <c r="Y303" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable transportation service, consider mHT@ llwjt located at 1 Rue El Masjed El Aksa, Sousse 4000. With a rating of 3.4 and 190 reviews, it's a top choice for transportation enthusiasts. To get there, use these GPS coordinates: 35.810072442502, 10.636258602239. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x130275417e43e25f:0x25d9fe727e95e7b1!8m2!3d35.8093704!4d10.6366586!16s%2Fg%2F11dylq5vh_!19sChIJX-JDfkF1AhMRseeVfnL-2SU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>mHT@ llwjt offers transport services in Sousse, Tunisia. Located at 1 Rue El Masjed El Aksa, it operates minivans and buses and has received an average rating of 3.4 from 190 reviews.</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31325,7 @@
       </c>
       <c r="Y304" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated gas station, check out TotalEnergies Zaouit Sousse located at TotalEnergies Zaouit Sousse, P1 Route regionale Ndeg82 Sousse, 4081. This popular destination offers a range of services for Station-service lovers. With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.7940923, 10.6154639. For more details, visit their website at https://services.totalenergies.tn/.</t>
+          <t>TotalEnergies Zaouit Sousse is a gas station located in Zaouit Sousse, Sousse, Tunisia. It offers 24 hour service and has received a 4.9 rating from 185 reviews. Customers have praised the gas station's excellent customer service, friendly and helpful staff, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -31677,9 +31424,7 @@
       </c>
       <c r="Y305" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Sousse Voyageurs located at Sousse Voyageurs, Sousse. 
-This top-rated destination is perfect for Gare lovers. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at http://www.sncft.com.tn/.</t>
+          <t>**Sousse Voyageurs** is a railway station with an average rating of 3.6 stars, located at the heart of Sousse, Tunisia. It offers convenient transportation options for passengers traveling to and from the city. Travelers can access the station's website for further details.</t>
         </is>
       </c>
     </row>
@@ -31774,7 +31519,8 @@
       </c>
       <c r="Y306" t="inlineStr">
         <is>
-          <t>If you're in sousse, check out Gare de Sousse located at RJJQ+87J Gare de Sousse, Sousse. With a rating of 3.3, this highly-rated spot is perfect for train station lovers. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.799379745648, 10.600310985417. For more details, visit their website at http://www.sncft.com.tn/ or call them at 73 224 955.</t>
+          <t>**Gare de Sousse**, conveniently located in Sousse, Tunisia, is a bustling transportation hub that offers a wide range of services to travelers. It is easily accessible at coordinates (35.799379745648, 10.600310985417).
+Despite the lack of a detailed description, this station has received 82 reviews, indicating its relevance and popularity among travelers. It offers essential amenities such as toilets and information services to ensure a comfortable experience for its users.</t>
         </is>
       </c>
     </row>
@@ -31869,9 +31615,7 @@
       </c>
       <c r="Y307" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a train station, check out Sousse Bab Jdid located at ave Mohamed V, Sousse. 
-This destination is perfect for Gare lovers. 
-With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.821346821893, 10.641715517371. For more details, visit their website at https://www.google.com/maps/place/Sousse+Bab+Jdid/data=!4m7!3m6!1s0x13027572a8680419:0x74fd577c0eb8ecd7!8m2!3d35.823063!4d10.6415928!16s%2Fg%2F1ttrty5h!19sChIJGQRoqHJ1AhMR1-y4DnxX_XQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located at the coordinates (35.821346821893, 10.641715517371), Sousse Bab Jdid is a popular train station in the city of Sousse, Tunisia. It offers convenient transportation services, connecting passengers to various destinations. The station features a clean and organized environment, ensuring a comfortable travel experience.</t>
         </is>
       </c>
     </row>
@@ -31970,7 +31714,7 @@
       </c>
       <c r="Y308" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable gas station, consider Station Agil GPL Souk Lahad at Station Agil GPL Souk Lahad, P1, Sousse. Rated 3.9, it's a top-rated destination for gas station enthusiasts. Open 24 hours a day, it offers a convenient refueling experience. For more details, visit their website at https://www.google.com/maps/place/Station+Agil+GPL+Souk+Lahad/data=!4m7!3m6!1s0x13027567845475eb:0xae09f806efd324b7!8m2!3d35.8135993!4d10.6287173!16s%2Fg%2F1tg5f60d!19sChIJ63VUhGd1AhMRtyTT7wb4Ca4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Station Agil GPL Souk Lahad is a gas station located in Sousse, Tunisia, offering 24-hour service. Its precise location is at the coordinates (35.8293001, 10.6406309). With an average rating of 3.9 based on 42 reviews, this station serves as a convenient fuel stop for motorists in the area.</t>
         </is>
       </c>
     </row>
@@ -32065,9 +31809,7 @@
       </c>
       <c r="Y309" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station Louage de Sousse located at Station Louage de Sousse, 1, Sousse 4000. 
-This top-rated destination is perfect for Arret de transports en commun lovers and offers a range of Arret de transports en commun to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.8582783, 10.5990311. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+de+Sousse/data=!4m7!3m6!1s0x1302754178e08ef1:0x3a6f15c2a77b86c7!8m2!3d35.8093997!4d10.6370762!16s%2Fg%2F1tfsv_12!19sChIJ8Y7geEF1AhMRx4Z7p8IVbzo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Louage de Sousse is a highly-rated transportation hub located in sousse, at the GPS coordinates (35.8582783, 10.5990311). The station offers convenient and affordable transportation services, as indicated by the positive reviews mentioning its affordability.</t>
         </is>
       </c>
     </row>
@@ -32160,7 +31902,11 @@
           <t>sousse</t>
         </is>
       </c>
-      <c r="Y310" t="inlineStr"/>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>Station louage is a meeting point for travelers located in Sousse, Tunisia. The station is easily accessible by car or public transportation. It is a popular spot for travelers to catch a ride to other cities or regions in Tunisia, as well as for locals to commute to and from work. The station has a variety of shops and restaurants nearby, making it a convenient place to stop for a bite to eat or to pick up some supplies.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -32265,9 +32011,7 @@
       </c>
       <c r="Y311" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to refuel your vehicle, check out Shell located at Sud Rte De Sousse, Avenue du 15 Octobre 1963 Sousse, Z4M 4013. 
-This top-rated destination is perfect for drivers and offers a range of services to choose from, including a gas station, car wash, and convenience store. 
-With a rating of 3.9, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.816325764513, 10.630683672061. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044716-sousse-sud or call them at 71 249 149.</t>
+          <t>Shell is a gas station located at the coordinates (35.816325764513, 10.630683672061) in Sousse, Tunisia. It offers a range of services including fuel, car wash, and convenience store. The gas station is open 24 hours a day and has a rating of 3.9 out of 5 based on 34 reviews.</t>
         </is>
       </c>
     </row>
@@ -32366,9 +32110,7 @@
       </c>
       <c r="Y312" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Agil located at RHVV+FXV Agil, Hammam, Rue Habib Chatti, Sousse. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.843897182887, 10.593084479027.</t>
+          <t>Agil is a gas station located in Sousse, Tunisia. It offers 24/7 service and is highly rated by customers, with a score of 3.6 out of 5 based on 32 reviews. Its precise geolocation is 35.843897182887 latitude and 10.593084479027 longitude.</t>
         </is>
       </c>
     </row>
@@ -32475,9 +32217,7 @@
       </c>
       <c r="Y313" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station Shell located at Station Shell, Station de Service Sahloul Rte De, Gp1, Sousse 4054. 
-This top-rated destination is perfect for Station-service lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8439828, 10.5949764. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044725-sahloul or call them at 71 249 149.</t>
+          <t>Station Shell is a gas station located in Sousse, Tunisia. It offers a range of services including fuel, car wash, convenience store, restaurant, and sandwich shop. The station is open 24 hours a day and has a rating of 4.1 out of 5 stars on Google Maps. It is situated at the coordinates (35.8439828, 10.5949764).</t>
         </is>
       </c>
     </row>
@@ -32572,7 +32312,7 @@
       </c>
       <c r="Y314" t="inlineStr">
         <is>
-          <t>If you're in Sousse and looking for a convenient transportation option, check out Gare routiere BAB BHAR located at Gare routiere BAB BHAR, Bd Yahia IBN Omar. This popular bus station offers reliable services for your transportation needs. With a rating of 3.2, it's a trusted spot for locals and travelers alike. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more information, visit their website at https://www.google.com/maps/place/Gare+routi%C3%A8re+BAB+BHAR/data=!4m7!3m6!1s0x130275747f07c683:0x512738f776113022!8m2!3d35.8283618!4d10.6389241!16s%2Fg%2F1hhwsdsgb!19sChIJg8YHf3R1AhMRIjARdvc4J1E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare routiere BAB BHAR is a bus stop in Sousse, Tunisia. It is located at Bd Yahia IBN Omar and offers bus services to various destinations. The bus stop has a rating of 3.2 and is open 24 hours a day, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -32679,9 +32419,7 @@
       </c>
       <c r="Y315" t="inlineStr">
         <is>
-          <t>If you're in sousse and need a one-stop shop, check out Kiosque Shell Sahloul located at Route De Sousse De Gp1, Rue El Fell, Sousse 4054. 
-This popular destination caters to Station-service lovers and offers a range of services like Station de lavage automobile, Superette, and Restaurant. 
-With a rating of 3.8, it's a convenient spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.8439828, 10.5949764. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10090457-sahloul-ii or call them at 71 249 149.</t>
+          <t>Kiosque Shell Sahloul is a gas station located in Sousse, Tunisia. It offers a variety of services, including fuel, car wash, convenience store, and restaurant. The station is open 24 hours a day and is conveniently located on Route De Sousse De Gp1, Rue El Fell.</t>
         </is>
       </c>
     </row>
@@ -32776,11 +32514,7 @@
       </c>
       <c r="Y316" t="inlineStr">
         <is>
-          <t>If you're in **Sousse** and looking for a reliable transportation service, check out **Gare Routiere de Sousse / Souk Lahad** located at **RJ7J+R6Q Gare Routiere de Sousse / Souk Lahad, Sousse**. 
-This top-rated destination is perfect for travelers and offers a range of transportation services to choose from. 
-With a rating of **3.0**, it's a great choice for your transportation needs. 
-To get there, use these GPS coordinates: **(35.8293001, 10.6406309)**. 
-For more details, visit their website **https://www.google.com/maps/place/Gare+Routi%C3%A8re+de+Sousse+%2F+Souk+Lahad/data=!4m7!3m6!1s0x130275e6c9e64369:0x344a54e06b940edd!8m2!3d35.8145914!4d10.6306233!16s%2Fg%2F11hhbpd541!19sChIJaUPmyeZ1AhMR3Q6Ua-BUSjQ?authuser=0&amp;hl=fr&amp;rclk=1**</t>
+          <t>Gare Routière de Sousse/ Souk Lahad is a transportation service located in Sousse, Tunisia. It offers bus services to various destinations and is conveniently located at RJ7J+R6Q, Sousse. With a rating of 3.0 based on 16 reviews, the establishment specializes in providing transportation services to its clientele.</t>
         </is>
       </c>
     </row>
@@ -32871,7 +32605,7 @@
       </c>
       <c r="Y317" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Gare De Metro Sousse located at RJFR+7J3 Gare De Metro Sousse, ave Mohamed V, Sousse. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.821346821893, 10.641715517371. For more details, visit their website at https://www.google.com/maps/place/Gare+De+Metro+Sousse/data=!4m7!3m6!1s0x13027572af7173f3:0x77be4109249835fd!8m2!3d35.8231278!4d10.6415375!16s%2Fg%2F11hbfjl0b9!19sChIJ83Nxr3J1AhMR_TWYJAlBvnc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Gare De Metro Sousse is a gas station located in Sousse, Tunisia. It is situated on ave Mohamed V at the coordinates (35.821346821893, 10.641715517371).</t>
         </is>
       </c>
     </row>
@@ -32966,10 +32700,7 @@
       </c>
       <c r="Y318" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a convenient mode of transportation, check out Station de Transport Terrestre located at Station de Transport Terrestre, Sousse. 
-This top-rated destination is perfect for travelers and offers a range of services to choose from. 
-With a rating of 3.6, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.8444856, 10.5903867.</t>
+          <t>Station de Transport Terrestre is a bus station located in Sousse, at the coordinates (35.8444856, 10.5903867). It offers transportation services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -33068,7 +32799,7 @@
       </c>
       <c r="Y319" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable gas station, check out OILIBYA - SOUSSE REPUBLIQUE located at RJJJ+RM8 OILIBYA - SOUSSE REPUBLIQUE, Sousse. With a rating of 3.9, it's a top-rated destination for Station-service lovers. It's open 24/7 for your convenience. For more details, visit the featured image at https://lh5.googleusercontent.com/p/AF1QipMkGH6nG5X1OFphTr2GjIMmd493djsUI281BB-a=w408-h306-k-no.</t>
+          <t>OILIBYA - SOUSSE REPUBLIQUE, a well-rated gas station in Sousse, is conveniently located at coordinates (35.8293001, 10.6406309). The station is open 24 hours a day and offers a range of services for motorists.</t>
         </is>
       </c>
     </row>
@@ -33163,7 +32894,7 @@
       </c>
       <c r="Y320" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a Station de taxis, check out Station Bus Sousse Terminal located at RJHQ+8HV Station Bus Sousse Terminal, Bd Yahia Ibn Omar, Sousse. This top-rated destination is perfect for Station de taxis lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309.</t>
+          <t>**Station Bus Sousse Terminal** is a well-rated taxi station located in sousse, Tunisia. It is situated at the convenient coordinates of (35.8293001, 10.6406309) and offers reliable transportation services to its customers. With an impressive rating of 4.2 out of 5, the station ensures a comfortable and efficient travel experience for its patrons.</t>
         </is>
       </c>
     </row>
@@ -33258,9 +32989,7 @@
       </c>
       <c r="Y321" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Station de louage Sahloul located at RHMR+R2C Station de louage Sahloul, Sousse. 
-This top-rated destination is perfect for Societe de transport en bus et autocar lovers and offers a range of Societe de transport en bus et autocar to choose from. 
-With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8342033, 10.5898061. For more details, visit their website at https://www.google.com/maps/place/Station+de+louage+Sahloul/data=!4m7!3m6!1s0x12fd8af6ed3fce67:0x43820bee6cfd5c2a!8m2!3d35.8345566!4d10.5900153!16s%2Fg%2F11g6zh0dt1!19sChIJZ84_7faK_RIRKlz9bO4LgkM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de louage Sahloul is a bus and coach transport company located in Sousse, Tunisia. It is situated at the coordinates (35.8342033, 10.5898061). The company has a rating of 3.5 out of 5 based on 12 reviews. It offers transportation services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -33355,9 +33084,7 @@
       </c>
       <c r="Y322" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for an Arret de transports en commun, check out STS Societe de Transport du Sahel located at Avenue Leopold SEDAR SENGHOR, Sousse 4000. 
-This top-rated destination is perfect for Arret de transports en commun lovers and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/STS+Societ%C3%A9+de+Transport+du+Sahel/data=!4m7!3m6!1s0x13027577f52b33d3:0x1055380036404dc0!8m2!3d35.8329429!4d10.6310049!16s%2Fg%2F1vqt27p6!19sChIJ0zMr9Xd1AhMRwE1ANgA4VRA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at To get there, use these GPS coordinates: 35.8177614, 10.6402245.</t>
+          <t>STS Societe de Transport du Sahel (STS Societe de Transport du Sahel, Avenue Leopold SEDAR SENGHOR, Sousse 4000) is a transportation stop in Sousse, Tunisia, offering public transportation services. Located at (35.8177614, 10.6402245), it provides a convenient hub for local transportation.</t>
         </is>
       </c>
     </row>
@@ -33460,7 +33187,7 @@
       </c>
       <c r="Y323" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable gas station, check out Agil SOUSSE MOHAMED ALI located at RJFR+56C Agil SOUSSE MOHAMED ALI, Av. Habib Thameur, Sousse. This top-rated destination offers a range of services for your vehicle. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.820712205727, 10.640246960549. For more details, call them at 29 403 084.</t>
+          <t>Agil SOUSSE MOHAMED ALI is a gas station located in sousse, Tunisia. It offers a wide range of services, including fuel, repairs, and maintenance. The gas station is open 24 hours a day, and it is conveniently located near public transportation and major highways. It is rated 3.7 out of 5 stars on Google, and it has received positive reviews from customers. The gas station's coordinates are (35.820712205727, 10.640246960549).</t>
         </is>
       </c>
     </row>
@@ -33559,9 +33286,7 @@
       </c>
       <c r="Y324" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a great station-service, check out Station service Agil knaz located at Av. de la republique. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.830563027762, 10.636032590801.</t>
+          <t>Station service Agil knaz is a gas station located in Sousse, Tunisia. It offers a wide range of services, including fuel, car wash, and convenience store. The station is conveniently located near the city center and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -33668,7 +33393,7 @@
       </c>
       <c r="Y325" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a place to refuel your vehicle, Shell located at Avenue Leopold Senghor, Rue Leopold Senghor, Sousse 4001 is a great option. This top-rated gas station is open 24 hours a day and offers a range of services including fuel, car wash, and a convenience store. It's a must-visit spot for those who need a quick pit stop. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044720-sousse-nord or call them at 71 249 149.</t>
+          <t>Shell is a gas station located in Sousse, Tunisia. It offers 24/7 services, including a car wash station, a mini-market, and fuel. Its address is Avenue Leopold Senghor, Rue Leopold Senghor, Sousse 4001.</t>
         </is>
       </c>
     </row>
@@ -33767,9 +33492,7 @@
       </c>
       <c r="Y326" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Kiosque Total located at QHPH+757 Kiosque Total, P12, Sousse 4031. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8002803, 10.5776325. For more details, visit their website at or call them at .</t>
+          <t>Kiosque Total is a 24-hour gas station located in Sousse, Tunisia (35.8002803, 10.5776325). It has received 3.6 rating from 8 reviews. The gas station offers a range of services and products to cater to the needs of its customers.</t>
         </is>
       </c>
     </row>
@@ -33868,7 +33591,7 @@
       </c>
       <c r="Y327" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Station-service, check out OLA located at RJQF+G7M OLA, Sousse. This destination is perfect for Station-service lovers and offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/OLA/data=!4m7!3m6!1s0x1302758119e23833:0xcd8f08680f920552!8m2!3d35.8388384!4d10.6231664!16s%2Fg%2F11fxxtfyck!19sChIJMzjiGYF1AhMRUgWSD2gIj80?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>OLA is a gas station located in the city of Sousse, Tunisia, at the coordinates (35.8293001, 10.6406309). It offers 24-hour service and is highly rated by customers with a 4.9 rating based on 7 reviews.</t>
         </is>
       </c>
     </row>
@@ -33967,9 +33690,7 @@
       </c>
       <c r="Y328" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a Station-service, check out Station OLA Zaouiet Sousse located at QJWC+J7X Station OLA Zaouiet Sousse, Zaouit-Ksibat - Thrayett. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.78553, 10.62725. For more details, visit their website at https://www.google.com/maps/place/Station+OLA+Zaouiet+Sousse/data=!4m7!3m6!1s0x13027555e9365385:0x555c90f1ad9702d5!8m2!3d35.7966202!4d10.6207431!16s%2Fg%2F11c55wmv_k!19sChIJhVM26VV1AhMR1QKXrfGQXFU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station OLA Zaouiet Sousse is a petrol station located in Zaouit-Ksibat - Thrayett, Sousse, Tunisia. It is open 24 hours a day and offers a variety of services, including fuel, car wash, and a convenience store. The station is conveniently located near the city center and major highways, making it a popular destination for travelers. With an overall rating of 3.8 stars, Station OLA Zaouiet Sousse is a reliable and convenient option for fuel and other automotive needs.</t>
         </is>
       </c>
     </row>
@@ -34064,7 +33785,7 @@
       </c>
       <c r="Y329" t="inlineStr">
         <is>
-          <t>If you're in sousse, the Station Sousse Bab Jedid located at ave Mohamed V, Bab Jdid is a great place to visit. This top-rated spot with a rating of 3.0 is a must-visit destination for Compagnie ferroviaire metropolitaine lovers. With a variety of categories to choose from, there's something for everyone. For more information, visit the website at https://www.google.com/maps/place/Station+Sousse+Bab+Jedid/data=!4m7!3m6!1s0x13027544e41c2153:0x2591faade71ef01d!8m2!3d35.822919!4d10.6415692!16s%2Fg%2F11khmmsk8x!19sChIJUyEc5ER1AhMRHfAe5636kSU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Station Sousse Bab Jedid is a railway station located in Sousse, Tunisia. The station is wheelchair-accessible, and offers travellers a range of amenities such as a ticket office, waiting rooms, and luggage storage. The station is strategically located in the city centre, making it easy for travellers to connect to the rest of the city by bus or taxi.</t>
         </is>
       </c>
     </row>
@@ -34159,7 +33880,7 @@
       </c>
       <c r="Y330" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Arret Sousse located at Arret Sousse, Av. Mohamed Maarouf, Sousse. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.828979524763, 10.63804626161.</t>
+          <t>Discover "Arret Sousse", a highly rated bus stop located in the bustling city of Sousse. With its convenient location at Av. Mohamed Maarouf, this stop offers easy access to the city's transportation network. Situated at coordinates (35.828979524763, 10.63804626161), Arret Sousse makes it simple to explore the surrounding area. Come and experience the convenience this bus stop has to offer!</t>
         </is>
       </c>
     </row>
@@ -34254,7 +33975,8 @@
       </c>
       <c r="Y331" t="inlineStr">
         <is>
-          <t>If you're in sousse and need to catch a bus, try visiting Bus Station Sidi Ibrahim Errahba. This top-rated gare routiere is perfect for anyone looking to travel out of town, offering services to a range of destinations. With a rating of 3.0, it's a must-visit spot for public transportation. For more details, visit their website at https://www.google.com/maps/place/Bus+Station+Sidi+Ibrahim+Errahba/data=!4m7!3m6!1s0x12fd8a3ee4a459eb:0xf566addd0d8ae3f6!8m2!3d35.862317!4d10.593527!16s%2Fg%2F1vgx2vxx!19sChIJ61mk5D6K_RIR9uOKDd2tZvU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Bus Station Sidi Ibrahim Errahba**
+This bus station in Sousse, Tunisia, offers transportation services with a rating of 3.0 based on 2 reviews. It is conveniently located at 35.8619957 latitude and 10.5935985 longitude in the city of Sousse.</t>
         </is>
       </c>
     </row>
@@ -34353,7 +34075,7 @@
       </c>
       <c r="Y332" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a top-rated Station-service, check out Ola energy located at 123 Bd de l'Environnement, Sousse. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.804234311655, 10.653697572571. For more details, visit their website at https://www.google.com/maps/place/Ola+energy/data=!4m7!3m6!1s0x13027562008a0ad5:0xd0d5c1508fbfeca4!8m2!3d35.8006335!4d10.6575452!16s%2Fg%2F11fpn20jb1!19sChIJ1QqKAGJ1AhMRpOy_j1DB1dA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ola energy is a gas station located in Sousse, Tunisia. It is open 24/7 and offers a variety of services to its customers. The gas station is situated at the coordinates (35.804234311655, 10.653697572571).</t>
         </is>
       </c>
     </row>
@@ -34448,7 +34170,7 @@
       </c>
       <c r="Y333" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out Arret Bus 13C located at Arret Bus 13C, Sousse. This top-rated destination is perfect for Arret de bus lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Arr%C3%AAt+Bus+13C/data=!4m7!3m6!1s0x12fd8a62c647ee73:0x8569179cc38a3e79!8m2!3d35.8380203!4d10.6076002!16s%2Fg%2F11b62x_00p!19sChIJc-5HxmKK_RIReT6Kw5wXaYU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Arret Bus 13C is a bus stop located in Sousse, Tunisia. It is situated at coordinates (35.8293001, 10.6406309). It is a popular destination for locals and tourists alike, as it offers convenient access to the city's public transportation system. The bus stop is also located near several shops and restaurants, making it a great place to stop for a quick bite or to do some shopping.</t>
         </is>
       </c>
     </row>
@@ -34543,10 +34265,7 @@
       </c>
       <c r="Y334" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for a reliable transportation option, Station Louage Hopital Sahloul located at RHMR+R2V Station Louage Hopital Sahloul is a great choice. 
-With a rating of 2.0, it's a top-rated destination for Station de taxis lovers. 
-It's open during these hours: , but closed on . 
-To get there, use these GPS coordinates: 35.8342033, 10.5898061.</t>
+          <t>Station Louage Hopital Sahloul is a taxi station located in Sousse at coordinates (35.8342033, 10.5898061).</t>
         </is>
       </c>
     </row>
@@ -34641,7 +34360,7 @@
       </c>
       <c r="Y335" t="inlineStr">
         <is>
-          <t>If you're in sousse and looking for something fun to do, check out m`ml lHdyd located at RJFM+RR4 m`ml lHdyd, Unnamed Road, Sousse. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B9%D9%85%D9%84+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x130275780fcf9917:0xfa6baa9f5e782941!8m2!3d35.8245029!4d10.634584!16s%2Fg%2F11h6g_z71g!19sChIJF5nPD3h1AhMRQSl4Xp-qa_o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>If you're running low on fuel, consider stopping at m`ml lHdyd, a gas station located at RJFM+RR4 m`ml lHdyd, Unnamed Road, Sousse.</t>
         </is>
       </c>
     </row>
@@ -34736,7 +34455,7 @@
       </c>
       <c r="Y336" t="inlineStr">
         <is>
-          <t>If you find yourself in sousse and are seeking an adventure, head over to Station de Transport Terrestre, conveniently located at Station de Transport Terrestre, Sousse. As a highly acclaimed Gare routiere, it caters to the needs of those seeking a memorable experience. With a rating of 3.6, it's a popular spot in the city. Its GPS coordinates of (35.8444856, 10.5903867) will guide you there. For further information, their website is unfortunately not available, but their featured image can be found at https://lh5.googleusercontent.com/p/AF1QipMh56apuRNVZPBGTns4jS8mRQDW2wQF4924Tr2K=w408-h306-k-no.</t>
+          <t>Station de Transport Terrestre is a bus station located in Sousse, Tunisia. It is one of the main bus stations in the city, and it serves as a hub for transportation to other parts of Tunisia. The station is well-connected to other parts of the city, and it is easy to reach by public transportation or taxi.</t>
         </is>
       </c>
     </row>
